--- a/Financial Analysis/ROKU.xlsx
+++ b/Financial Analysis/ROKU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antos\Desktop\Financial Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8B724D-E740-40A1-A071-960088AB215F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3648D3D4-D40F-4101-B28A-95D0CD4B655F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D7866C78-17E7-487E-8035-32073BE9C199}"/>
   </bookViews>
@@ -374,14 +374,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
@@ -398,7 +398,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18950940" y="0"/>
+          <a:off x="19575780" y="0"/>
           <a:ext cx="0" cy="6134100"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -775,7 +775,7 @@
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -802,17 +802,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="11">
-        <v>60</v>
+        <v>59.53</v>
       </c>
       <c r="E3" s="4">
-        <v>45751</v>
+        <v>45783</v>
       </c>
       <c r="F3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45751</v>
+        <v>45783</v>
       </c>
       <c r="G3" s="4">
-        <v>45771</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -820,11 +820,11 @@
         <v>2</v>
       </c>
       <c r="D4" s="5">
-        <f>128.7+17.2</f>
-        <v>145.89999999999998</v>
+        <f>129.5+17.1</f>
+        <v>146.6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -833,7 +833,7 @@
       </c>
       <c r="D5" s="5">
         <f>D4*D3</f>
-        <v>8753.9999999999982</v>
+        <v>8727.098</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
@@ -841,10 +841,11 @@
         <v>4</v>
       </c>
       <c r="D6" s="5">
-        <v>2058.5</v>
+        <f>2256.1</f>
+        <v>2256.1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -855,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -864,7 +865,7 @@
       </c>
       <c r="D8" s="5">
         <f>D6-D7</f>
-        <v>2058.5</v>
+        <v>2256.1</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -873,7 +874,7 @@
       </c>
       <c r="D9" s="5">
         <f>D5-D8</f>
-        <v>6695.4999999999982</v>
+        <v>6470.9979999999996</v>
       </c>
     </row>
   </sheetData>
@@ -887,10 +888,10 @@
   <dimension ref="B2:FG35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AN10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AO9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BD33" sqref="BD33"/>
+      <selection pane="bottomRight" activeCell="BD32" sqref="BD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1142,8 +1143,7 @@
         <v>1035.3</v>
       </c>
       <c r="AE3" s="7">
-        <f>AA3*1.16</f>
-        <v>875.68399999999997</v>
+        <v>880.8</v>
       </c>
       <c r="AF3" s="7">
         <f>AB3*1.15</f>
@@ -1188,47 +1188,47 @@
       </c>
       <c r="AQ3" s="5">
         <f>SUM(AE3:AH3)</f>
-        <v>3988.7249999999995</v>
+        <v>3993.8409999999994</v>
       </c>
       <c r="AR3" s="5">
         <f>AQ3*1.1</f>
-        <v>4387.5974999999999</v>
+        <v>4393.2250999999997</v>
       </c>
       <c r="AS3" s="5">
         <f>AR3*1.08</f>
-        <v>4738.6053000000002</v>
+        <v>4744.6831080000002</v>
       </c>
       <c r="AT3" s="5">
         <f>AS3*1.06</f>
-        <v>5022.9216180000003</v>
+        <v>5029.3640944800009</v>
       </c>
       <c r="AU3" s="5">
         <f>AT3*1.04</f>
-        <v>5223.8384827200007</v>
+        <v>5230.5386582592009</v>
       </c>
       <c r="AV3" s="5">
         <f t="shared" ref="AV3" si="0">AU3*1.03</f>
-        <v>5380.5536372016004</v>
+        <v>5387.4548180069769</v>
       </c>
       <c r="AW3" s="5">
         <f>AV3*1.02</f>
-        <v>5488.1647099456322</v>
+        <v>5495.2039143671163</v>
       </c>
       <c r="AX3" s="5">
-        <f t="shared" ref="AX3:BA4" si="1">AW3*1.02</f>
-        <v>5597.9280041445454</v>
+        <f t="shared" ref="AX3:BA3" si="1">AW3*1.02</f>
+        <v>5605.1079926544589</v>
       </c>
       <c r="AY3" s="5">
         <f t="shared" si="1"/>
-        <v>5709.8865642274368</v>
+        <v>5717.2101525075486</v>
       </c>
       <c r="AZ3" s="5">
         <f t="shared" si="1"/>
-        <v>5824.0842955119861</v>
+        <v>5831.5543555576996</v>
       </c>
       <c r="BA3" s="5">
         <f t="shared" si="1"/>
-        <v>5940.5659814222263</v>
+        <v>5948.1854426688533</v>
       </c>
     </row>
     <row r="4" spans="2:53" x14ac:dyDescent="0.3">
@@ -1320,20 +1320,19 @@
         <v>165.7</v>
       </c>
       <c r="AE4" s="7">
-        <f>AA4*1.01</f>
-        <v>127.765</v>
+        <v>139.9</v>
       </c>
       <c r="AF4" s="7">
-        <f t="shared" ref="AF4:AH4" si="2">AB4*1.01</f>
-        <v>145.238</v>
+        <f>AB4*1.07</f>
+        <v>153.86600000000001</v>
       </c>
       <c r="AG4" s="7">
-        <f t="shared" si="2"/>
-        <v>155.54</v>
+        <f>AC4*1.03</f>
+        <v>158.62</v>
       </c>
       <c r="AH4" s="7">
-        <f t="shared" si="2"/>
-        <v>167.357</v>
+        <f t="shared" ref="AH4" si="2">AD4*1.03</f>
+        <v>170.67099999999999</v>
       </c>
       <c r="AI4" s="8"/>
       <c r="AJ4" s="5">
@@ -1366,47 +1365,47 @@
       </c>
       <c r="AQ4" s="5">
         <f>SUM(AE4:AH4)</f>
-        <v>595.9</v>
+        <v>623.05700000000002</v>
       </c>
       <c r="AR4" s="5">
-        <f>AQ4*1.02</f>
-        <v>607.81799999999998</v>
+        <f>AQ4*1.04</f>
+        <v>647.97928000000002</v>
       </c>
       <c r="AS4" s="5">
-        <f t="shared" ref="AS4:AW4" si="3">AR4*1.02</f>
-        <v>619.97436000000005</v>
+        <f>AR4*1.03</f>
+        <v>667.41865840000003</v>
       </c>
       <c r="AT4" s="5">
-        <f t="shared" si="3"/>
-        <v>632.37384720000011</v>
+        <f t="shared" ref="AT4:AV4" si="3">AS4*1.02</f>
+        <v>680.76703156799999</v>
       </c>
       <c r="AU4" s="5">
         <f t="shared" si="3"/>
-        <v>645.02132414400012</v>
+        <v>694.38237219936002</v>
       </c>
       <c r="AV4" s="5">
         <f t="shared" si="3"/>
-        <v>657.92175062688011</v>
+        <v>708.27001964334727</v>
       </c>
       <c r="AW4" s="5">
-        <f t="shared" si="3"/>
-        <v>671.08018563941778</v>
+        <f>AV4*1.01</f>
+        <v>715.35271983978078</v>
       </c>
       <c r="AX4" s="5">
-        <f t="shared" si="1"/>
-        <v>684.50178935220617</v>
+        <f t="shared" ref="AX4:BA4" si="4">AW4*1.01</f>
+        <v>722.50624703817857</v>
       </c>
       <c r="AY4" s="5">
-        <f t="shared" si="1"/>
-        <v>698.19182513925034</v>
+        <f t="shared" si="4"/>
+        <v>729.73130950856034</v>
       </c>
       <c r="AZ4" s="5">
-        <f t="shared" si="1"/>
-        <v>712.1556616420354</v>
+        <f t="shared" si="4"/>
+        <v>737.028622603646</v>
       </c>
       <c r="BA4" s="5">
-        <f t="shared" si="1"/>
-        <v>726.39877487487615</v>
+        <f t="shared" si="4"/>
+        <v>744.39890882968245</v>
       </c>
     </row>
     <row r="5" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1414,205 +1413,205 @@
         <v>10</v>
       </c>
       <c r="C5" s="8">
-        <f t="shared" ref="C5:L5" si="4">C3+C4</f>
+        <f t="shared" ref="C5:L5" si="5">C3+C4</f>
         <v>136.6</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>156.80000000000001</v>
       </c>
       <c r="E5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>173.39999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>275.7</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>206.7</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>250.1</v>
       </c>
       <c r="I5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>260.89999999999998</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>411.20000000000005</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>320.8</v>
       </c>
       <c r="L5" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>356.1</v>
       </c>
       <c r="M5" s="8">
-        <f t="shared" ref="M5:AL5" si="5">M3+M4</f>
+        <f t="shared" ref="M5:AL5" si="6">M3+M4</f>
         <v>451.6</v>
       </c>
       <c r="N5" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>649.9</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>574.20000000000005</v>
       </c>
       <c r="P5" s="8">
-        <f t="shared" ref="P5:Q5" si="6">P3+P4</f>
+        <f t="shared" ref="P5:Q5" si="7">P3+P4</f>
         <v>645.09999999999991</v>
       </c>
       <c r="Q5" s="8">
+        <f t="shared" si="7"/>
+        <v>679.9</v>
+      </c>
+      <c r="R5" s="8">
         <f t="shared" si="6"/>
-        <v>679.9</v>
-      </c>
-      <c r="R5" s="8">
-        <f t="shared" si="5"/>
         <v>865.3</v>
       </c>
       <c r="S5" s="8">
-        <f t="shared" ref="S5:T5" si="7">S3+S4</f>
+        <f t="shared" ref="S5:T5" si="8">S3+S4</f>
         <v>733.69999999999993</v>
       </c>
       <c r="T5" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>764.5</v>
       </c>
       <c r="U5" s="8">
-        <f t="shared" ref="U5" si="8">U3+U4</f>
+        <f t="shared" ref="U5" si="9">U3+U4</f>
         <v>761.40000000000009</v>
       </c>
       <c r="V5" s="8">
-        <f t="shared" ref="V5" si="9">V3+V4</f>
+        <f t="shared" ref="V5" si="10">V3+V4</f>
         <v>867.09999999999991</v>
       </c>
       <c r="W5" s="8">
-        <f t="shared" ref="W5:X5" si="10">W3+W4</f>
+        <f t="shared" ref="W5:X5" si="11">W3+W4</f>
         <v>741</v>
       </c>
       <c r="X5" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>847.3</v>
       </c>
       <c r="Y5" s="8">
-        <f t="shared" ref="Y5" si="11">Y3+Y4</f>
+        <f t="shared" ref="Y5" si="12">Y3+Y4</f>
         <v>912</v>
       </c>
       <c r="Z5" s="8">
-        <f t="shared" ref="Z5:AH5" si="12">Z3+Z4</f>
+        <f t="shared" ref="Z5:AH5" si="13">Z3+Z4</f>
         <v>984.5</v>
       </c>
       <c r="AA5" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>881.4</v>
       </c>
       <c r="AB5" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>968.09999999999991</v>
       </c>
       <c r="AC5" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1062.2</v>
       </c>
       <c r="AD5" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1201</v>
       </c>
       <c r="AE5" s="8">
-        <f t="shared" si="12"/>
-        <v>1003.449</v>
+        <f t="shared" si="13"/>
+        <v>1020.6999999999999</v>
       </c>
       <c r="AF5" s="8">
-        <f t="shared" si="12"/>
-        <v>1093.1829999999998</v>
+        <f t="shared" si="13"/>
+        <v>1101.8109999999999</v>
       </c>
       <c r="AG5" s="8">
-        <f t="shared" si="12"/>
-        <v>1181.8059999999998</v>
+        <f t="shared" si="13"/>
+        <v>1184.886</v>
       </c>
       <c r="AH5" s="8">
-        <f t="shared" si="12"/>
-        <v>1306.1870000000001</v>
+        <f t="shared" si="13"/>
+        <v>1309.5010000000002</v>
       </c>
       <c r="AI5" s="8"/>
       <c r="AJ5" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>742.5</v>
       </c>
       <c r="AK5" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1128.9000000000001</v>
       </c>
       <c r="AL5" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1778.3999999999999</v>
       </c>
       <c r="AM5" s="8">
-        <f t="shared" ref="AM5" si="13">AM3+AM4</f>
+        <f t="shared" ref="AM5" si="14">AM3+AM4</f>
         <v>2764.5</v>
       </c>
       <c r="AN5" s="8">
-        <f t="shared" ref="AN5" si="14">AN3+AN4</f>
+        <f t="shared" ref="AN5" si="15">AN3+AN4</f>
         <v>3126.7</v>
       </c>
       <c r="AO5" s="8">
-        <f t="shared" ref="AO5" si="15">AO3+AO4</f>
+        <f t="shared" ref="AO5" si="16">AO3+AO4</f>
         <v>3484.8</v>
       </c>
       <c r="AP5" s="8">
-        <f t="shared" ref="AP5" si="16">AP3+AP4</f>
+        <f t="shared" ref="AP5" si="17">AP3+AP4</f>
         <v>4112.7</v>
       </c>
       <c r="AQ5" s="8">
-        <f t="shared" ref="AQ5" si="17">AQ3+AQ4</f>
-        <v>4584.6249999999991</v>
+        <f t="shared" ref="AQ5" si="18">AQ3+AQ4</f>
+        <v>4616.8979999999992</v>
       </c>
       <c r="AR5" s="8">
-        <f t="shared" ref="AR5" si="18">AR3+AR4</f>
-        <v>4995.4155000000001</v>
+        <f t="shared" ref="AR5" si="19">AR3+AR4</f>
+        <v>5041.2043799999992</v>
       </c>
       <c r="AS5" s="8">
-        <f t="shared" ref="AS5" si="19">AS3+AS4</f>
-        <v>5358.5796600000003</v>
+        <f t="shared" ref="AS5" si="20">AS3+AS4</f>
+        <v>5412.1017664000001</v>
       </c>
       <c r="AT5" s="8">
-        <f t="shared" ref="AT5" si="20">AT3+AT4</f>
-        <v>5655.2954652000008</v>
+        <f t="shared" ref="AT5" si="21">AT3+AT4</f>
+        <v>5710.1311260480006</v>
       </c>
       <c r="AU5" s="8">
-        <f t="shared" ref="AU5" si="21">AU3+AU4</f>
-        <v>5868.8598068640003</v>
+        <f t="shared" ref="AU5" si="22">AU3+AU4</f>
+        <v>5924.9210304585613</v>
       </c>
       <c r="AV5" s="8">
-        <f t="shared" ref="AV5:AW5" si="22">AV3+AV4</f>
-        <v>6038.475387828481</v>
+        <f t="shared" ref="AV5:AW5" si="23">AV3+AV4</f>
+        <v>6095.7248376503239</v>
       </c>
       <c r="AW5" s="8">
-        <f t="shared" si="22"/>
-        <v>6159.2448955850505</v>
+        <f t="shared" si="23"/>
+        <v>6210.5566342068969</v>
       </c>
       <c r="AX5" s="8">
-        <f t="shared" ref="AX5:BA5" si="23">AX3+AX4</f>
-        <v>6282.4297934967517</v>
+        <f t="shared" ref="AX5:BA5" si="24">AX3+AX4</f>
+        <v>6327.6142396926371</v>
       </c>
       <c r="AY5" s="8">
-        <f t="shared" si="23"/>
-        <v>6408.0783893666867</v>
+        <f t="shared" si="24"/>
+        <v>6446.9414620161087</v>
       </c>
       <c r="AZ5" s="8">
-        <f t="shared" si="23"/>
-        <v>6536.2399571540218</v>
+        <f t="shared" si="24"/>
+        <v>6568.5829781613456</v>
       </c>
       <c r="BA5" s="8">
-        <f t="shared" si="23"/>
-        <v>6666.9647562971022</v>
+        <f t="shared" si="24"/>
+        <v>6692.5843514985354</v>
       </c>
     </row>
     <row r="6" spans="2:53" x14ac:dyDescent="0.3">
@@ -1704,8 +1703,7 @@
         <v>475.4</v>
       </c>
       <c r="AE6" s="5">
-        <f>AE3*0.48</f>
-        <v>420.32831999999996</v>
+        <v>416.5</v>
       </c>
       <c r="AF6" s="5">
         <f>AF3*0.47</f>
@@ -1749,47 +1747,47 @@
       </c>
       <c r="AQ6" s="5">
         <f>SUM(AE6:AH6)</f>
-        <v>1861.8066299999998</v>
+        <v>1857.97831</v>
       </c>
       <c r="AR6" s="5">
         <f>AR3*0.45</f>
-        <v>1974.4188750000001</v>
+        <v>1976.9512949999998</v>
       </c>
       <c r="AS6" s="5">
-        <f t="shared" ref="AS6:BA6" si="24">AS3*0.45</f>
-        <v>2132.3723850000001</v>
+        <f t="shared" ref="AS6:BA6" si="25">AS3*0.45</f>
+        <v>2135.1073986000001</v>
       </c>
       <c r="AT6" s="5">
-        <f t="shared" si="24"/>
-        <v>2260.3147281000001</v>
+        <f t="shared" si="25"/>
+        <v>2263.2138425160006</v>
       </c>
       <c r="AU6" s="5">
-        <f t="shared" si="24"/>
-        <v>2350.7273172240002</v>
+        <f t="shared" si="25"/>
+        <v>2353.7423962166404</v>
       </c>
       <c r="AV6" s="5">
-        <f t="shared" si="24"/>
-        <v>2421.2491367407201</v>
+        <f t="shared" si="25"/>
+        <v>2424.3546681031398</v>
       </c>
       <c r="AW6" s="5">
-        <f t="shared" si="24"/>
-        <v>2469.6741194755346</v>
+        <f t="shared" si="25"/>
+        <v>2472.8417614652026</v>
       </c>
       <c r="AX6" s="5">
-        <f t="shared" si="24"/>
-        <v>2519.0676018650456</v>
+        <f t="shared" si="25"/>
+        <v>2522.2985966945066</v>
       </c>
       <c r="AY6" s="5">
-        <f t="shared" si="24"/>
-        <v>2569.4489539023466</v>
+        <f t="shared" si="25"/>
+        <v>2572.7445686283968</v>
       </c>
       <c r="AZ6" s="5">
-        <f t="shared" si="24"/>
-        <v>2620.8379329803938</v>
+        <f t="shared" si="25"/>
+        <v>2624.1994600009648</v>
       </c>
       <c r="BA6" s="5">
-        <f t="shared" si="24"/>
-        <v>2673.254691640002</v>
+        <f t="shared" si="25"/>
+        <v>2676.6834492009839</v>
       </c>
     </row>
     <row r="7" spans="2:53" x14ac:dyDescent="0.3">
@@ -1881,20 +1879,19 @@
         <v>213.1</v>
       </c>
       <c r="AE7" s="5">
-        <f>AE4*1.07</f>
-        <v>136.70855</v>
+        <v>159.1</v>
       </c>
       <c r="AF7" s="5">
-        <f t="shared" ref="AF7" si="25">AF4*1.07</f>
-        <v>155.40466000000001</v>
+        <f t="shared" ref="AF7" si="26">AF4*1.07</f>
+        <v>164.63662000000002</v>
       </c>
       <c r="AG7" s="5">
         <f>AG4*1.09</f>
-        <v>169.5386</v>
+        <v>172.89580000000001</v>
       </c>
       <c r="AH7" s="5">
         <f>AH4*1.2</f>
-        <v>200.82839999999999</v>
+        <v>204.80519999999999</v>
       </c>
       <c r="AJ7" s="5">
         <f>SUM(C7:F7)</f>
@@ -1926,47 +1923,47 @@
       </c>
       <c r="AQ7" s="5">
         <f>SUM(AE7:AH7)</f>
-        <v>662.48020999999994</v>
+        <v>701.43762000000004</v>
       </c>
       <c r="AR7" s="5">
         <f>AR4*1.05</f>
-        <v>638.20889999999997</v>
+        <v>680.378244</v>
       </c>
       <c r="AS7" s="5">
         <f>AS4*1.01</f>
-        <v>626.17410360000008</v>
+        <v>674.09284498400007</v>
       </c>
       <c r="AT7" s="5">
         <f>AT4*0.99</f>
-        <v>626.05010872800005</v>
+        <v>673.95936125232004</v>
       </c>
       <c r="AU7" s="5">
-        <f t="shared" ref="AU7:BA7" si="26">AU4*0.99</f>
-        <v>638.57111090256012</v>
+        <f t="shared" ref="AU7:BA7" si="27">AU4*0.99</f>
+        <v>687.43854847736645</v>
       </c>
       <c r="AV7" s="5">
-        <f t="shared" si="26"/>
-        <v>651.34253312061128</v>
+        <f t="shared" si="27"/>
+        <v>701.18731944691376</v>
       </c>
       <c r="AW7" s="5">
-        <f t="shared" si="26"/>
-        <v>664.36938378302364</v>
+        <f t="shared" si="27"/>
+        <v>708.19919264138298</v>
       </c>
       <c r="AX7" s="5">
-        <f t="shared" si="26"/>
-        <v>677.65677145868415</v>
+        <f t="shared" si="27"/>
+        <v>715.2811845677968</v>
       </c>
       <c r="AY7" s="5">
-        <f t="shared" si="26"/>
-        <v>691.20990688785787</v>
+        <f t="shared" si="27"/>
+        <v>722.43399641347469</v>
       </c>
       <c r="AZ7" s="5">
-        <f t="shared" si="26"/>
-        <v>705.03410502561508</v>
+        <f t="shared" si="27"/>
+        <v>729.65833637760954</v>
       </c>
       <c r="BA7" s="5">
-        <f t="shared" si="26"/>
-        <v>719.13478712612743</v>
+        <f t="shared" si="27"/>
+        <v>736.95491974138565</v>
       </c>
     </row>
     <row r="8" spans="2:53" x14ac:dyDescent="0.3">
@@ -1974,204 +1971,204 @@
         <v>26</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" ref="C8:L8" si="27">C6+C7</f>
+        <f t="shared" ref="C8:L8" si="28">C6+C7</f>
         <v>73.5</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>79</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>94.4</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>163.4</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>105.80000000000001</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>135.9</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>142.5</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>249.5</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>179.60000000000002</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>209.2</v>
       </c>
       <c r="M8" s="5">
-        <f t="shared" ref="M8:AL8" si="28">M6+M7</f>
+        <f t="shared" ref="M8:AL8" si="29">M6+M7</f>
         <v>236.89999999999998</v>
       </c>
       <c r="N8" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>344.4</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" ref="O8:R8" si="29">O6+O7</f>
+        <f t="shared" ref="O8:R8" si="30">O6+O7</f>
         <v>247.39999999999998</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" ref="P8:Q8" si="30">P6+P7</f>
+        <f t="shared" ref="P8:Q8" si="31">P6+P7</f>
         <v>306.8</v>
       </c>
       <c r="Q8" s="5">
+        <f t="shared" si="31"/>
+        <v>316</v>
+      </c>
+      <c r="R8" s="5">
         <f t="shared" si="30"/>
-        <v>316</v>
-      </c>
-      <c r="R8" s="5">
+        <v>485.7</v>
+      </c>
+      <c r="S8" s="5">
+        <f t="shared" ref="S8:T8" si="32">S6+S7</f>
+        <v>368.9</v>
+      </c>
+      <c r="T8" s="5">
+        <f t="shared" si="32"/>
+        <v>409.3</v>
+      </c>
+      <c r="U8" s="5">
+        <f t="shared" ref="U8" si="33">U6+U7</f>
+        <v>404.6</v>
+      </c>
+      <c r="V8" s="5">
+        <f t="shared" ref="V8" si="34">V6+V7</f>
+        <v>502.70000000000005</v>
+      </c>
+      <c r="W8" s="5">
+        <f t="shared" ref="W8:X8" si="35">W6+W7</f>
+        <v>403.40000000000003</v>
+      </c>
+      <c r="X8" s="5">
+        <f t="shared" si="35"/>
+        <v>468.9</v>
+      </c>
+      <c r="Y8" s="5">
+        <f t="shared" ref="Y8" si="36">Y6+Y7</f>
+        <v>543.20000000000005</v>
+      </c>
+      <c r="Z8" s="5">
+        <f t="shared" ref="Z8:AA8" si="37">Z6+Z7</f>
+        <v>546.5</v>
+      </c>
+      <c r="AA8" s="5">
+        <f t="shared" si="37"/>
+        <v>493.20000000000005</v>
+      </c>
+      <c r="AB8" s="5">
+        <f t="shared" ref="AB8:AD8" si="38">AB6+AB7</f>
+        <v>543.5</v>
+      </c>
+      <c r="AC8" s="5">
+        <f t="shared" si="38"/>
+        <v>582.09999999999991</v>
+      </c>
+      <c r="AD8" s="5">
+        <f t="shared" si="38"/>
+        <v>688.5</v>
+      </c>
+      <c r="AE8" s="5">
+        <f t="shared" ref="AE8:AH8" si="39">AE6+AE7</f>
+        <v>575.6</v>
+      </c>
+      <c r="AF8" s="5">
+        <f t="shared" si="39"/>
+        <v>610.17076999999995</v>
+      </c>
+      <c r="AG8" s="5">
+        <f t="shared" si="39"/>
+        <v>644.97815999999989</v>
+      </c>
+      <c r="AH8" s="5">
+        <f t="shared" si="39"/>
+        <v>728.66700000000014</v>
+      </c>
+      <c r="AJ8" s="5">
         <f t="shared" si="29"/>
-        <v>485.7</v>
-      </c>
-      <c r="S8" s="5">
-        <f t="shared" ref="S8:T8" si="31">S6+S7</f>
-        <v>368.9</v>
-      </c>
-      <c r="T8" s="5">
-        <f t="shared" si="31"/>
-        <v>409.3</v>
-      </c>
-      <c r="U8" s="5">
-        <f t="shared" ref="U8" si="32">U6+U7</f>
-        <v>404.6</v>
-      </c>
-      <c r="V8" s="5">
-        <f t="shared" ref="V8" si="33">V6+V7</f>
-        <v>502.70000000000005</v>
-      </c>
-      <c r="W8" s="5">
-        <f t="shared" ref="W8:X8" si="34">W6+W7</f>
-        <v>403.40000000000003</v>
-      </c>
-      <c r="X8" s="5">
-        <f t="shared" si="34"/>
-        <v>468.9</v>
-      </c>
-      <c r="Y8" s="5">
-        <f t="shared" ref="Y8" si="35">Y6+Y7</f>
-        <v>543.20000000000005</v>
-      </c>
-      <c r="Z8" s="5">
-        <f t="shared" ref="Z8:AA8" si="36">Z6+Z7</f>
-        <v>546.5</v>
-      </c>
-      <c r="AA8" s="5">
-        <f t="shared" si="36"/>
-        <v>493.20000000000005</v>
-      </c>
-      <c r="AB8" s="5">
-        <f t="shared" ref="AB8:AD8" si="37">AB6+AB7</f>
-        <v>543.5</v>
-      </c>
-      <c r="AC8" s="5">
-        <f t="shared" si="37"/>
-        <v>582.09999999999991</v>
-      </c>
-      <c r="AD8" s="5">
-        <f t="shared" si="37"/>
-        <v>688.5</v>
-      </c>
-      <c r="AE8" s="5">
-        <f t="shared" ref="AE8:AH8" si="38">AE6+AE7</f>
-        <v>557.03686999999991</v>
-      </c>
-      <c r="AF8" s="5">
-        <f t="shared" si="38"/>
-        <v>600.93880999999988</v>
-      </c>
-      <c r="AG8" s="5">
-        <f t="shared" si="38"/>
-        <v>641.62095999999997</v>
-      </c>
-      <c r="AH8" s="5">
-        <f t="shared" si="38"/>
-        <v>724.69020000000012</v>
-      </c>
-      <c r="AJ8" s="5">
-        <f t="shared" si="28"/>
         <v>410.3</v>
       </c>
       <c r="AK8" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>633.70000000000005</v>
       </c>
       <c r="AL8" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>970.09999999999991</v>
       </c>
       <c r="AM8" s="5">
-        <f t="shared" ref="AM8" si="39">AM6+AM7</f>
+        <f t="shared" ref="AM8" si="40">AM6+AM7</f>
         <v>1355.9</v>
       </c>
       <c r="AN8" s="5">
-        <f t="shared" ref="AN8" si="40">AN6+AN7</f>
+        <f t="shared" ref="AN8" si="41">AN6+AN7</f>
         <v>1685.5</v>
       </c>
       <c r="AO8" s="5">
-        <f t="shared" ref="AO8" si="41">AO6+AO7</f>
+        <f t="shared" ref="AO8" si="42">AO6+AO7</f>
         <v>1962</v>
       </c>
       <c r="AP8" s="5">
-        <f t="shared" ref="AP8" si="42">AP6+AP7</f>
+        <f t="shared" ref="AP8" si="43">AP6+AP7</f>
         <v>2307.3000000000002</v>
       </c>
       <c r="AQ8" s="5">
-        <f t="shared" ref="AQ8" si="43">AQ6+AQ7</f>
-        <v>2524.2868399999998</v>
+        <f t="shared" ref="AQ8" si="44">AQ6+AQ7</f>
+        <v>2559.4159300000001</v>
       </c>
       <c r="AR8" s="5">
-        <f t="shared" ref="AR8" si="44">AR6+AR7</f>
-        <v>2612.6277749999999</v>
+        <f t="shared" ref="AR8" si="45">AR6+AR7</f>
+        <v>2657.3295389999998</v>
       </c>
       <c r="AS8" s="5">
-        <f t="shared" ref="AS8" si="45">AS6+AS7</f>
-        <v>2758.5464886</v>
+        <f t="shared" ref="AS8" si="46">AS6+AS7</f>
+        <v>2809.2002435840004</v>
       </c>
       <c r="AT8" s="5">
-        <f t="shared" ref="AT8" si="46">AT6+AT7</f>
-        <v>2886.3648368280001</v>
+        <f t="shared" ref="AT8" si="47">AT6+AT7</f>
+        <v>2937.1732037683205</v>
       </c>
       <c r="AU8" s="5">
-        <f t="shared" ref="AU8" si="47">AU6+AU7</f>
-        <v>2989.2984281265603</v>
+        <f t="shared" ref="AU8" si="48">AU6+AU7</f>
+        <v>3041.1809446940069</v>
       </c>
       <c r="AV8" s="5">
-        <f t="shared" ref="AV8:AW8" si="48">AV6+AV7</f>
-        <v>3072.5916698613314</v>
+        <f t="shared" ref="AV8:AW8" si="49">AV6+AV7</f>
+        <v>3125.5419875500538</v>
       </c>
       <c r="AW8" s="5">
-        <f t="shared" si="48"/>
-        <v>3134.0435032585583</v>
+        <f t="shared" si="49"/>
+        <v>3181.0409541065856</v>
       </c>
       <c r="AX8" s="5">
-        <f t="shared" ref="AX8:BA8" si="49">AX6+AX7</f>
-        <v>3196.7243733237297</v>
+        <f t="shared" ref="AX8:BA8" si="50">AX6+AX7</f>
+        <v>3237.5797812623032</v>
       </c>
       <c r="AY8" s="5">
-        <f t="shared" si="49"/>
-        <v>3260.6588607902045</v>
+        <f t="shared" si="50"/>
+        <v>3295.1785650418715</v>
       </c>
       <c r="AZ8" s="5">
-        <f t="shared" si="49"/>
-        <v>3325.872038006009</v>
+        <f t="shared" si="50"/>
+        <v>3353.8577963785742</v>
       </c>
       <c r="BA8" s="5">
-        <f t="shared" si="49"/>
-        <v>3392.3894787661293</v>
+        <f t="shared" si="50"/>
+        <v>3413.6383689423697</v>
       </c>
     </row>
     <row r="9" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2179,204 +2176,204 @@
         <v>27</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" ref="C9:L9" si="50">C5-C8</f>
+        <f t="shared" ref="C9:L9" si="51">C5-C8</f>
         <v>63.099999999999994</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>77.800000000000011</v>
       </c>
       <c r="E9" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>78.999999999999972</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>112.29999999999998</v>
       </c>
       <c r="G9" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>100.89999999999998</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>114.19999999999999</v>
       </c>
       <c r="I9" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>118.39999999999998</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>161.70000000000005</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>141.19999999999999</v>
       </c>
       <c r="L9" s="8">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>146.90000000000003</v>
       </c>
       <c r="M9" s="8">
-        <f t="shared" ref="M9:AL9" si="51">M5-M8</f>
+        <f t="shared" ref="M9:AL9" si="52">M5-M8</f>
         <v>214.70000000000005</v>
       </c>
       <c r="N9" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>305.5</v>
       </c>
       <c r="O9" s="8">
-        <f t="shared" ref="O9:R9" si="52">O5-O8</f>
+        <f t="shared" ref="O9:R9" si="53">O5-O8</f>
         <v>326.80000000000007</v>
       </c>
       <c r="P9" s="8">
-        <f t="shared" ref="P9:Q9" si="53">P5-P8</f>
+        <f t="shared" ref="P9:Q9" si="54">P5-P8</f>
         <v>338.2999999999999</v>
       </c>
       <c r="Q9" s="8">
+        <f t="shared" si="54"/>
+        <v>363.9</v>
+      </c>
+      <c r="R9" s="8">
         <f t="shared" si="53"/>
-        <v>363.9</v>
-      </c>
-      <c r="R9" s="8">
+        <v>379.59999999999997</v>
+      </c>
+      <c r="S9" s="8">
+        <f t="shared" ref="S9:T9" si="55">S5-S8</f>
+        <v>364.79999999999995</v>
+      </c>
+      <c r="T9" s="8">
+        <f t="shared" si="55"/>
+        <v>355.2</v>
+      </c>
+      <c r="U9" s="8">
+        <f t="shared" ref="U9" si="56">U5-U8</f>
+        <v>356.80000000000007</v>
+      </c>
+      <c r="V9" s="8">
+        <f t="shared" ref="V9" si="57">V5-V8</f>
+        <v>364.39999999999986</v>
+      </c>
+      <c r="W9" s="8">
+        <f t="shared" ref="W9:X9" si="58">W5-W8</f>
+        <v>337.59999999999997</v>
+      </c>
+      <c r="X9" s="8">
+        <f t="shared" si="58"/>
+        <v>378.4</v>
+      </c>
+      <c r="Y9" s="8">
+        <f t="shared" ref="Y9" si="59">Y5-Y8</f>
+        <v>368.79999999999995</v>
+      </c>
+      <c r="Z9" s="8">
+        <f t="shared" ref="Z9:AA9" si="60">Z5-Z8</f>
+        <v>438</v>
+      </c>
+      <c r="AA9" s="8">
+        <f t="shared" si="60"/>
+        <v>388.19999999999993</v>
+      </c>
+      <c r="AB9" s="8">
+        <f t="shared" ref="AB9:AD9" si="61">AB5-AB8</f>
+        <v>424.59999999999991</v>
+      </c>
+      <c r="AC9" s="8">
+        <f t="shared" si="61"/>
+        <v>480.10000000000014</v>
+      </c>
+      <c r="AD9" s="8">
+        <f t="shared" si="61"/>
+        <v>512.5</v>
+      </c>
+      <c r="AE9" s="8">
+        <f t="shared" ref="AE9:AH9" si="62">AE5-AE8</f>
+        <v>445.09999999999991</v>
+      </c>
+      <c r="AF9" s="8">
+        <f t="shared" si="62"/>
+        <v>491.64022999999997</v>
+      </c>
+      <c r="AG9" s="8">
+        <f t="shared" si="62"/>
+        <v>539.90784000000008</v>
+      </c>
+      <c r="AH9" s="8">
+        <f t="shared" si="62"/>
+        <v>580.83400000000006</v>
+      </c>
+      <c r="AJ9" s="8">
         <f t="shared" si="52"/>
-        <v>379.59999999999997</v>
-      </c>
-      <c r="S9" s="8">
-        <f t="shared" ref="S9:T9" si="54">S5-S8</f>
-        <v>364.79999999999995</v>
-      </c>
-      <c r="T9" s="8">
-        <f t="shared" si="54"/>
-        <v>355.2</v>
-      </c>
-      <c r="U9" s="8">
-        <f t="shared" ref="U9" si="55">U5-U8</f>
-        <v>356.80000000000007</v>
-      </c>
-      <c r="V9" s="8">
-        <f t="shared" ref="V9" si="56">V5-V8</f>
-        <v>364.39999999999986</v>
-      </c>
-      <c r="W9" s="8">
-        <f t="shared" ref="W9:X9" si="57">W5-W8</f>
-        <v>337.59999999999997</v>
-      </c>
-      <c r="X9" s="8">
-        <f t="shared" si="57"/>
-        <v>378.4</v>
-      </c>
-      <c r="Y9" s="8">
-        <f t="shared" ref="Y9" si="58">Y5-Y8</f>
-        <v>368.79999999999995</v>
-      </c>
-      <c r="Z9" s="8">
-        <f t="shared" ref="Z9:AA9" si="59">Z5-Z8</f>
-        <v>438</v>
-      </c>
-      <c r="AA9" s="8">
-        <f t="shared" si="59"/>
-        <v>388.19999999999993</v>
-      </c>
-      <c r="AB9" s="8">
-        <f t="shared" ref="AB9:AD9" si="60">AB5-AB8</f>
-        <v>424.59999999999991</v>
-      </c>
-      <c r="AC9" s="8">
-        <f t="shared" si="60"/>
-        <v>480.10000000000014</v>
-      </c>
-      <c r="AD9" s="8">
-        <f t="shared" si="60"/>
-        <v>512.5</v>
-      </c>
-      <c r="AE9" s="8">
-        <f t="shared" ref="AE9:AH9" si="61">AE5-AE8</f>
-        <v>446.41213000000005</v>
-      </c>
-      <c r="AF9" s="8">
-        <f t="shared" si="61"/>
-        <v>492.24418999999989</v>
-      </c>
-      <c r="AG9" s="8">
-        <f t="shared" si="61"/>
-        <v>540.18503999999984</v>
-      </c>
-      <c r="AH9" s="8">
-        <f t="shared" si="61"/>
-        <v>581.49680000000001</v>
-      </c>
-      <c r="AJ9" s="8">
-        <f t="shared" si="51"/>
         <v>332.2</v>
       </c>
       <c r="AK9" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>495.20000000000005</v>
       </c>
       <c r="AL9" s="8">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>808.3</v>
       </c>
       <c r="AM9" s="8">
-        <f t="shared" ref="AM9" si="62">AM5-AM8</f>
+        <f t="shared" ref="AM9" si="63">AM5-AM8</f>
         <v>1408.6</v>
       </c>
       <c r="AN9" s="8">
-        <f t="shared" ref="AN9" si="63">AN5-AN8</f>
+        <f t="shared" ref="AN9" si="64">AN5-AN8</f>
         <v>1441.1999999999998</v>
       </c>
       <c r="AO9" s="8">
-        <f t="shared" ref="AO9" si="64">AO5-AO8</f>
+        <f t="shared" ref="AO9" si="65">AO5-AO8</f>
         <v>1522.8000000000002</v>
       </c>
       <c r="AP9" s="8">
-        <f t="shared" ref="AP9" si="65">AP5-AP8</f>
+        <f t="shared" ref="AP9" si="66">AP5-AP8</f>
         <v>1805.3999999999996</v>
       </c>
       <c r="AQ9" s="8">
-        <f t="shared" ref="AQ9" si="66">AQ5-AQ8</f>
-        <v>2060.3381599999993</v>
+        <f t="shared" ref="AQ9" si="67">AQ5-AQ8</f>
+        <v>2057.4820699999991</v>
       </c>
       <c r="AR9" s="8">
-        <f t="shared" ref="AR9" si="67">AR5-AR8</f>
-        <v>2382.7877250000001</v>
+        <f t="shared" ref="AR9" si="68">AR5-AR8</f>
+        <v>2383.8748409999994</v>
       </c>
       <c r="AS9" s="8">
-        <f t="shared" ref="AS9" si="68">AS5-AS8</f>
-        <v>2600.0331714000004</v>
+        <f t="shared" ref="AS9" si="69">AS5-AS8</f>
+        <v>2602.9015228159997</v>
       </c>
       <c r="AT9" s="8">
-        <f t="shared" ref="AT9" si="69">AT5-AT8</f>
-        <v>2768.9306283720007</v>
+        <f t="shared" ref="AT9" si="70">AT5-AT8</f>
+        <v>2772.9579222796801</v>
       </c>
       <c r="AU9" s="8">
-        <f t="shared" ref="AU9" si="70">AU5-AU8</f>
-        <v>2879.56137873744</v>
+        <f t="shared" ref="AU9" si="71">AU5-AU8</f>
+        <v>2883.7400857645544</v>
       </c>
       <c r="AV9" s="8">
-        <f t="shared" ref="AV9:AW9" si="71">AV5-AV8</f>
-        <v>2965.8837179671496</v>
+        <f t="shared" ref="AV9:AW9" si="72">AV5-AV8</f>
+        <v>2970.1828501002701</v>
       </c>
       <c r="AW9" s="8">
-        <f t="shared" si="71"/>
-        <v>3025.2013923264922</v>
+        <f t="shared" si="72"/>
+        <v>3029.5156801003113</v>
       </c>
       <c r="AX9" s="8">
-        <f t="shared" ref="AX9:BA9" si="72">AX5-AX8</f>
-        <v>3085.705420173022</v>
+        <f t="shared" ref="AX9:BA9" si="73">AX5-AX8</f>
+        <v>3090.0344584303339</v>
       </c>
       <c r="AY9" s="8">
-        <f t="shared" si="72"/>
-        <v>3147.4195285764822</v>
+        <f t="shared" si="73"/>
+        <v>3151.7628969742373</v>
       </c>
       <c r="AZ9" s="8">
-        <f t="shared" si="72"/>
-        <v>3210.3679191480128</v>
+        <f t="shared" si="73"/>
+        <v>3214.7251817827714</v>
       </c>
       <c r="BA9" s="8">
-        <f t="shared" si="72"/>
-        <v>3274.5752775309729</v>
+        <f t="shared" si="73"/>
+        <v>3278.9459825561657</v>
       </c>
     </row>
     <row r="10" spans="2:53" x14ac:dyDescent="0.3">
@@ -2468,8 +2465,7 @@
         <v>185.4</v>
       </c>
       <c r="AE10" s="5">
-        <f>AA10*1.03</f>
-        <v>185.81200000000001</v>
+        <v>184.6</v>
       </c>
       <c r="AF10" s="5">
         <f>AB10*1.07</f>
@@ -2480,7 +2476,7 @@
         <v>189.52800000000002</v>
       </c>
       <c r="AH10" s="5">
-        <f t="shared" ref="AH10" si="73">AD10*1.03</f>
+        <f t="shared" ref="AH10" si="74">AD10*1.03</f>
         <v>190.96200000000002</v>
       </c>
       <c r="AJ10" s="5">
@@ -2513,47 +2509,47 @@
       </c>
       <c r="AQ10" s="5">
         <f>SUM(AE10:AH10)</f>
-        <v>754.08699999999999</v>
+        <v>752.875</v>
       </c>
       <c r="AR10" s="5">
         <f>AQ10*1.02</f>
-        <v>769.16873999999996</v>
+        <v>767.9325</v>
       </c>
       <c r="AS10" s="5">
         <f>AR10*1.01</f>
-        <v>776.86042739999994</v>
+        <v>775.61182500000007</v>
       </c>
       <c r="AT10" s="5">
-        <f t="shared" ref="AT10:BA10" si="74">AS10*1.01</f>
-        <v>784.62903167399998</v>
+        <f t="shared" ref="AT10:BA10" si="75">AS10*1.01</f>
+        <v>783.36794325000005</v>
       </c>
       <c r="AU10" s="5">
-        <f t="shared" si="74"/>
-        <v>792.47532199073999</v>
+        <f t="shared" si="75"/>
+        <v>791.2016226825001</v>
       </c>
       <c r="AV10" s="5">
-        <f t="shared" si="74"/>
-        <v>800.4000752106474</v>
+        <f t="shared" si="75"/>
+        <v>799.11363890932512</v>
       </c>
       <c r="AW10" s="5">
-        <f t="shared" si="74"/>
-        <v>808.40407596275384</v>
+        <f t="shared" si="75"/>
+        <v>807.10477529841842</v>
       </c>
       <c r="AX10" s="5">
-        <f t="shared" si="74"/>
-        <v>816.48811672238139</v>
+        <f t="shared" si="75"/>
+        <v>815.17582305140263</v>
       </c>
       <c r="AY10" s="5">
-        <f t="shared" si="74"/>
-        <v>824.65299788960522</v>
+        <f t="shared" si="75"/>
+        <v>823.32758128191665</v>
       </c>
       <c r="AZ10" s="5">
-        <f t="shared" si="74"/>
-        <v>832.89952786850131</v>
+        <f t="shared" si="75"/>
+        <v>831.56085709473587</v>
       </c>
       <c r="BA10" s="5">
-        <f t="shared" si="74"/>
-        <v>841.22852314718637</v>
+        <f t="shared" si="75"/>
+        <v>839.87646566568321</v>
       </c>
     </row>
     <row r="11" spans="2:53" x14ac:dyDescent="0.3">
@@ -2645,20 +2641,19 @@
         <v>271.89999999999998</v>
       </c>
       <c r="AE11" s="5">
-        <f>AE5*0.22</f>
-        <v>220.75878</v>
+        <v>223.7</v>
       </c>
       <c r="AF11" s="5">
-        <f t="shared" ref="AF11:AH11" si="75">AF5*0.22</f>
-        <v>240.50025999999994</v>
+        <f t="shared" ref="AF11:AH11" si="76">AF5*0.22</f>
+        <v>242.39841999999999</v>
       </c>
       <c r="AG11" s="5">
-        <f t="shared" si="75"/>
-        <v>259.99731999999995</v>
+        <f t="shared" si="76"/>
+        <v>260.67491999999999</v>
       </c>
       <c r="AH11" s="5">
-        <f t="shared" si="75"/>
-        <v>287.36114000000003</v>
+        <f t="shared" si="76"/>
+        <v>288.09022000000004</v>
       </c>
       <c r="AJ11" s="5">
         <f>SUM(C11:F11)</f>
@@ -2690,47 +2685,47 @@
       </c>
       <c r="AQ11" s="5">
         <f>SUM(AE11:AH11)</f>
-        <v>1008.6174999999998</v>
+        <v>1014.86356</v>
       </c>
       <c r="AR11" s="5">
         <f>AR5*0.21</f>
-        <v>1049.037255</v>
+        <v>1058.6529197999998</v>
       </c>
       <c r="AS11" s="5">
         <f>AS5*0.2</f>
-        <v>1071.7159320000001</v>
+        <v>1082.42035328</v>
       </c>
       <c r="AT11" s="5">
         <f>AT5*0.19</f>
-        <v>1074.5061383880002</v>
+        <v>1084.9249139491201</v>
       </c>
       <c r="AU11" s="5">
-        <f t="shared" ref="AU11:BA11" si="76">AU5*0.19</f>
-        <v>1115.08336330416</v>
+        <f t="shared" ref="AU11:BA11" si="77">AU5*0.19</f>
+        <v>1125.7349957871268</v>
       </c>
       <c r="AV11" s="5">
-        <f t="shared" si="76"/>
-        <v>1147.3103236874115</v>
+        <f t="shared" si="77"/>
+        <v>1158.1877191535616</v>
       </c>
       <c r="AW11" s="5">
-        <f t="shared" si="76"/>
-        <v>1170.2565301611596</v>
+        <f t="shared" si="77"/>
+        <v>1180.0057604993103</v>
       </c>
       <c r="AX11" s="5">
-        <f t="shared" si="76"/>
-        <v>1193.6616607643828</v>
+        <f t="shared" si="77"/>
+        <v>1202.2467055416012</v>
       </c>
       <c r="AY11" s="5">
-        <f t="shared" si="76"/>
-        <v>1217.5348939796704</v>
+        <f t="shared" si="77"/>
+        <v>1224.9188777830607</v>
       </c>
       <c r="AZ11" s="5">
-        <f t="shared" si="76"/>
-        <v>1241.8855918592642</v>
+        <f t="shared" si="77"/>
+        <v>1248.0307658506556</v>
       </c>
       <c r="BA11" s="5">
-        <f t="shared" si="76"/>
-        <v>1266.7233036964494</v>
+        <f t="shared" si="77"/>
+        <v>1271.5910267847216</v>
       </c>
     </row>
     <row r="12" spans="2:53" x14ac:dyDescent="0.3">
@@ -2822,19 +2817,18 @@
         <v>94.4</v>
       </c>
       <c r="AE12" s="5">
-        <f>AA12*1.03</f>
-        <v>80.031000000000006</v>
+        <v>94.5</v>
       </c>
       <c r="AF12" s="5">
-        <f t="shared" ref="AF12:AH12" si="77">AB12*1.03</f>
+        <f t="shared" ref="AF12:AH12" si="78">AB12*1.03</f>
         <v>101.764</v>
       </c>
       <c r="AG12" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>103</v>
       </c>
       <c r="AH12" s="5">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>97.232000000000014</v>
       </c>
       <c r="AI12" s="9"/>
@@ -2868,47 +2862,47 @@
       </c>
       <c r="AQ12" s="5">
         <f>SUM(AE12:AH12)</f>
-        <v>382.02700000000004</v>
+        <v>396.49600000000004</v>
       </c>
       <c r="AR12" s="5">
-        <f t="shared" ref="AR12:BA12" si="78">AQ12*1.02</f>
-        <v>389.66754000000003</v>
+        <f t="shared" ref="AR12:BA12" si="79">AQ12*1.02</f>
+        <v>404.42592000000002</v>
       </c>
       <c r="AS12" s="5">
-        <f t="shared" si="78"/>
-        <v>397.46089080000002</v>
+        <f t="shared" si="79"/>
+        <v>412.51443840000002</v>
       </c>
       <c r="AT12" s="5">
-        <f t="shared" si="78"/>
-        <v>405.410108616</v>
+        <f t="shared" si="79"/>
+        <v>420.76472716800004</v>
       </c>
       <c r="AU12" s="5">
-        <f t="shared" si="78"/>
-        <v>413.51831078832004</v>
+        <f t="shared" si="79"/>
+        <v>429.18002171136004</v>
       </c>
       <c r="AV12" s="5">
-        <f t="shared" si="78"/>
-        <v>421.78867700408642</v>
+        <f t="shared" si="79"/>
+        <v>437.76362214558725</v>
       </c>
       <c r="AW12" s="5">
-        <f t="shared" si="78"/>
-        <v>430.22445054416818</v>
+        <f t="shared" si="79"/>
+        <v>446.51889458849899</v>
       </c>
       <c r="AX12" s="5">
-        <f t="shared" si="78"/>
-        <v>438.82893955505153</v>
+        <f t="shared" si="79"/>
+        <v>455.44927248026897</v>
       </c>
       <c r="AY12" s="5">
-        <f t="shared" si="78"/>
-        <v>447.60551834615256</v>
+        <f t="shared" si="79"/>
+        <v>464.55825792987434</v>
       </c>
       <c r="AZ12" s="5">
-        <f t="shared" si="78"/>
-        <v>456.55762871307564</v>
+        <f t="shared" si="79"/>
+        <v>473.84942308847184</v>
       </c>
       <c r="BA12" s="5">
-        <f t="shared" si="78"/>
-        <v>465.68878128733718</v>
+        <f t="shared" si="79"/>
+        <v>483.32641155024129</v>
       </c>
     </row>
     <row r="13" spans="2:53" x14ac:dyDescent="0.3">
@@ -2916,204 +2910,204 @@
         <v>31</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" ref="C13:L13" si="79">C10+C11+C12</f>
+        <f t="shared" ref="C13:L13" si="80">C10+C11+C12</f>
         <v>70</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>77.900000000000006</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>90.8</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>106.8</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>111.6</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>124.6</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>145.1</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>179</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>196.2</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>189.10000000000002</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" ref="M13:AL13" si="80">M10+M11+M12</f>
+        <f t="shared" ref="M13:AL13" si="81">M10+M11+M12</f>
         <v>202.9</v>
       </c>
       <c r="N13" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>240.3</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>251</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" ref="P13:Q13" si="81">P10+P11+P12</f>
+        <f t="shared" ref="P13:Q13" si="82">P10+P11+P12</f>
         <v>269.2</v>
       </c>
       <c r="Q13" s="5">
+        <f t="shared" si="82"/>
+        <v>295.10000000000002</v>
+      </c>
+      <c r="R13" s="5">
         <f t="shared" si="81"/>
-        <v>295.10000000000002</v>
-      </c>
-      <c r="R13" s="5">
-        <f t="shared" si="80"/>
         <v>358.3</v>
       </c>
       <c r="S13" s="5">
-        <f t="shared" ref="S13:T13" si="82">S10+S11+S12</f>
+        <f t="shared" ref="S13:T13" si="83">S10+S11+S12</f>
         <v>388.3</v>
       </c>
       <c r="T13" s="5">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>465.70000000000005</v>
       </c>
       <c r="U13" s="5">
-        <f t="shared" ref="U13" si="83">U10+U11+U12</f>
+        <f t="shared" ref="U13" si="84">U10+U11+U12</f>
         <v>503.8</v>
       </c>
       <c r="V13" s="5">
-        <f t="shared" ref="V13" si="84">V10+V11+V12</f>
+        <f t="shared" ref="V13" si="85">V10+V11+V12</f>
         <v>614.29999999999995</v>
       </c>
       <c r="W13" s="5">
-        <f t="shared" ref="W13:X13" si="85">W10+W11+W12</f>
+        <f t="shared" ref="W13:X13" si="86">W10+W11+W12</f>
         <v>550.1</v>
       </c>
       <c r="X13" s="5">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>504.3</v>
       </c>
       <c r="Y13" s="5">
-        <f t="shared" ref="Y13" si="86">Y10+Y11+Y12</f>
+        <f t="shared" ref="Y13" si="87">Y10+Y11+Y12</f>
         <v>718.59999999999991</v>
       </c>
       <c r="Z13" s="5">
-        <f t="shared" ref="Z13:AA13" si="87">Z10+Z11+Z12</f>
+        <f t="shared" ref="Z13:AA13" si="88">Z10+Z11+Z12</f>
         <v>542.1</v>
       </c>
       <c r="AA13" s="5">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>460.2</v>
       </c>
       <c r="AB13" s="5">
-        <f t="shared" ref="AB13:AD13" si="88">AB10+AB11+AB12</f>
+        <f t="shared" ref="AB13:AD13" si="89">AB10+AB11+AB12</f>
         <v>496</v>
       </c>
       <c r="AC13" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>515.79999999999995</v>
       </c>
       <c r="AD13" s="5">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>551.69999999999993</v>
       </c>
       <c r="AE13" s="5">
-        <f t="shared" ref="AE13:AH13" si="89">AE10+AE11+AE12</f>
-        <v>486.60178000000002</v>
+        <f t="shared" ref="AE13:AH13" si="90">AE10+AE11+AE12</f>
+        <v>502.79999999999995</v>
       </c>
       <c r="AF13" s="5">
-        <f t="shared" si="89"/>
-        <v>530.04926</v>
+        <f t="shared" si="90"/>
+        <v>531.94741999999997</v>
       </c>
       <c r="AG13" s="5">
-        <f t="shared" si="89"/>
-        <v>552.52531999999997</v>
+        <f t="shared" si="90"/>
+        <v>553.20291999999995</v>
       </c>
       <c r="AH13" s="5">
-        <f t="shared" si="89"/>
-        <v>575.55514000000005</v>
+        <f t="shared" si="90"/>
+        <v>576.28422</v>
       </c>
       <c r="AJ13" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>345.5</v>
       </c>
       <c r="AK13" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>560.29999999999995</v>
       </c>
       <c r="AL13" s="5">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>828.5</v>
       </c>
       <c r="AM13" s="5">
-        <f t="shared" ref="AM13" si="90">AM10+AM11+AM12</f>
+        <f t="shared" ref="AM13" si="91">AM10+AM11+AM12</f>
         <v>1173.6000000000001</v>
       </c>
       <c r="AN13" s="5">
-        <f t="shared" ref="AN13" si="91">AN10+AN11+AN12</f>
+        <f t="shared" ref="AN13" si="92">AN10+AN11+AN12</f>
         <v>1972.1000000000001</v>
       </c>
       <c r="AO13" s="5">
-        <f t="shared" ref="AO13" si="92">AO10+AO11+AO12</f>
+        <f t="shared" ref="AO13" si="93">AO10+AO11+AO12</f>
         <v>2315.1</v>
       </c>
       <c r="AP13" s="5">
-        <f t="shared" ref="AP13" si="93">AP10+AP11+AP12</f>
+        <f t="shared" ref="AP13" si="94">AP10+AP11+AP12</f>
         <v>2023.6999999999998</v>
       </c>
       <c r="AQ13" s="5">
-        <f t="shared" ref="AQ13" si="94">AQ10+AQ11+AQ12</f>
-        <v>2144.7314999999999</v>
+        <f t="shared" ref="AQ13" si="95">AQ10+AQ11+AQ12</f>
+        <v>2164.2345599999999</v>
       </c>
       <c r="AR13" s="5">
-        <f t="shared" ref="AR13" si="95">AR10+AR11+AR12</f>
-        <v>2207.8735349999997</v>
+        <f t="shared" ref="AR13" si="96">AR10+AR11+AR12</f>
+        <v>2231.0113397999999</v>
       </c>
       <c r="AS13" s="5">
-        <f t="shared" ref="AS13" si="96">AS10+AS11+AS12</f>
-        <v>2246.0372502</v>
+        <f t="shared" ref="AS13" si="97">AS10+AS11+AS12</f>
+        <v>2270.5466166800002</v>
       </c>
       <c r="AT13" s="5">
-        <f t="shared" ref="AT13" si="97">AT10+AT11+AT12</f>
-        <v>2264.5452786780002</v>
+        <f t="shared" ref="AT13" si="98">AT10+AT11+AT12</f>
+        <v>2289.0575843671204</v>
       </c>
       <c r="AU13" s="5">
-        <f t="shared" ref="AU13" si="98">AU10+AU11+AU12</f>
-        <v>2321.0769960832199</v>
+        <f t="shared" ref="AU13" si="99">AU10+AU11+AU12</f>
+        <v>2346.1166401809869</v>
       </c>
       <c r="AV13" s="5">
-        <f t="shared" ref="AV13:AW13" si="99">AV10+AV11+AV12</f>
-        <v>2369.4990759021453</v>
+        <f t="shared" ref="AV13:AW13" si="100">AV10+AV11+AV12</f>
+        <v>2395.064980208474</v>
       </c>
       <c r="AW13" s="5">
-        <f t="shared" si="99"/>
-        <v>2408.8850566680817</v>
+        <f t="shared" si="100"/>
+        <v>2433.6294303862278</v>
       </c>
       <c r="AX13" s="5">
-        <f t="shared" ref="AX13:BA13" si="100">AX10+AX11+AX12</f>
-        <v>2448.9787170418158</v>
+        <f t="shared" ref="AX13:BA13" si="101">AX10+AX11+AX12</f>
+        <v>2472.8718010732728</v>
       </c>
       <c r="AY13" s="5">
-        <f t="shared" si="100"/>
-        <v>2489.7934102154281</v>
+        <f t="shared" si="101"/>
+        <v>2512.8047169948518</v>
       </c>
       <c r="AZ13" s="5">
-        <f t="shared" si="100"/>
-        <v>2531.3427484408412</v>
+        <f t="shared" si="101"/>
+        <v>2553.4410460338631</v>
       </c>
       <c r="BA13" s="5">
-        <f t="shared" si="100"/>
-        <v>2573.6406081309733</v>
+        <f t="shared" si="101"/>
+        <v>2594.7939040006459</v>
       </c>
     </row>
     <row r="14" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3121,204 +3115,204 @@
         <v>32</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" ref="C14:L14" si="101">C9-C13</f>
+        <f t="shared" ref="C14:L14" si="102">C9-C13</f>
         <v>-6.9000000000000057</v>
       </c>
       <c r="D14" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>-9.9999999999994316E-2</v>
       </c>
       <c r="E14" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>-11.800000000000026</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>5.4999999999999858</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>-10.700000000000017</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>-10.400000000000006</v>
       </c>
       <c r="I14" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>-26.700000000000017</v>
       </c>
       <c r="J14" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>-17.299999999999955</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>-55</v>
       </c>
       <c r="L14" s="8">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>-42.199999999999989</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" ref="M14:AL14" si="102">M9-M13</f>
+        <f t="shared" ref="M14:AL14" si="103">M9-M13</f>
         <v>11.80000000000004</v>
       </c>
       <c r="N14" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>65.199999999999989</v>
       </c>
       <c r="O14" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>75.800000000000068</v>
       </c>
       <c r="P14" s="8">
-        <f t="shared" ref="P14:Q14" si="103">P9-P13</f>
+        <f t="shared" ref="P14:Q14" si="104">P9-P13</f>
         <v>69.099999999999909</v>
       </c>
       <c r="Q14" s="8">
+        <f t="shared" si="104"/>
+        <v>68.799999999999955</v>
+      </c>
+      <c r="R14" s="8">
         <f t="shared" si="103"/>
-        <v>68.799999999999955</v>
-      </c>
-      <c r="R14" s="8">
-        <f t="shared" si="102"/>
         <v>21.299999999999955</v>
       </c>
       <c r="S14" s="8">
-        <f t="shared" ref="S14:T14" si="104">S9-S13</f>
+        <f t="shared" ref="S14:T14" si="105">S9-S13</f>
         <v>-23.500000000000057</v>
       </c>
       <c r="T14" s="8">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>-110.50000000000006</v>
       </c>
       <c r="U14" s="8">
-        <f t="shared" ref="U14" si="105">U9-U13</f>
+        <f t="shared" ref="U14" si="106">U9-U13</f>
         <v>-146.99999999999994</v>
       </c>
       <c r="V14" s="8">
-        <f t="shared" ref="V14" si="106">V9-V13</f>
+        <f t="shared" ref="V14" si="107">V9-V13</f>
         <v>-249.90000000000009</v>
       </c>
       <c r="W14" s="8">
-        <f t="shared" ref="W14:X14" si="107">W9-W13</f>
+        <f t="shared" ref="W14:X14" si="108">W9-W13</f>
         <v>-212.50000000000006</v>
       </c>
       <c r="X14" s="8">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>-125.90000000000003</v>
       </c>
       <c r="Y14" s="8">
-        <f t="shared" ref="Y14" si="108">Y9-Y13</f>
+        <f t="shared" ref="Y14" si="109">Y9-Y13</f>
         <v>-349.79999999999995</v>
       </c>
       <c r="Z14" s="8">
-        <f t="shared" ref="Z14:AA14" si="109">Z9-Z13</f>
+        <f t="shared" ref="Z14:AA14" si="110">Z9-Z13</f>
         <v>-104.10000000000002</v>
       </c>
       <c r="AA14" s="8">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>-72.000000000000057</v>
       </c>
       <c r="AB14" s="8">
-        <f t="shared" ref="AB14:AD14" si="110">AB9-AB13</f>
+        <f t="shared" ref="AB14:AD14" si="111">AB9-AB13</f>
         <v>-71.400000000000091</v>
       </c>
       <c r="AC14" s="8">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>-35.699999999999818</v>
       </c>
       <c r="AD14" s="8">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>-39.199999999999932</v>
       </c>
       <c r="AE14" s="8">
-        <f t="shared" ref="AE14:AH14" si="111">AE9-AE13</f>
-        <v>-40.189649999999972</v>
+        <f t="shared" ref="AE14:AH14" si="112">AE9-AE13</f>
+        <v>-57.700000000000045</v>
       </c>
       <c r="AF14" s="8">
-        <f t="shared" si="111"/>
-        <v>-37.805070000000114</v>
+        <f t="shared" si="112"/>
+        <v>-40.307189999999991</v>
       </c>
       <c r="AG14" s="8">
-        <f t="shared" si="111"/>
-        <v>-12.340280000000121</v>
+        <f t="shared" si="112"/>
+        <v>-13.295079999999871</v>
       </c>
       <c r="AH14" s="8">
-        <f t="shared" si="111"/>
-        <v>5.9416599999999562</v>
+        <f t="shared" si="112"/>
+        <v>4.5497800000000552</v>
       </c>
       <c r="AJ14" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>-13.300000000000011</v>
       </c>
       <c r="AK14" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>-65.099999999999909</v>
       </c>
       <c r="AL14" s="8">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>-20.200000000000045</v>
       </c>
       <c r="AM14" s="8">
-        <f t="shared" ref="AM14" si="112">AM9-AM13</f>
+        <f t="shared" ref="AM14" si="113">AM9-AM13</f>
         <v>234.99999999999977</v>
       </c>
       <c r="AN14" s="8">
-        <f t="shared" ref="AN14" si="113">AN9-AN13</f>
+        <f t="shared" ref="AN14" si="114">AN9-AN13</f>
         <v>-530.90000000000032</v>
       </c>
       <c r="AO14" s="8">
-        <f t="shared" ref="AO14" si="114">AO9-AO13</f>
+        <f t="shared" ref="AO14" si="115">AO9-AO13</f>
         <v>-792.29999999999973</v>
       </c>
       <c r="AP14" s="8">
-        <f t="shared" ref="AP14" si="115">AP9-AP13</f>
+        <f t="shared" ref="AP14" si="116">AP9-AP13</f>
         <v>-218.30000000000018</v>
       </c>
       <c r="AQ14" s="8">
-        <f t="shared" ref="AQ14" si="116">AQ9-AQ13</f>
-        <v>-84.393340000000535</v>
+        <f t="shared" ref="AQ14" si="117">AQ9-AQ13</f>
+        <v>-106.75249000000076</v>
       </c>
       <c r="AR14" s="8">
-        <f t="shared" ref="AR14" si="117">AR9-AR13</f>
-        <v>174.91419000000042</v>
+        <f t="shared" ref="AR14" si="118">AR9-AR13</f>
+        <v>152.86350119999952</v>
       </c>
       <c r="AS14" s="8">
-        <f t="shared" ref="AS14" si="118">AS9-AS13</f>
-        <v>353.99592120000034</v>
+        <f t="shared" ref="AS14" si="119">AS9-AS13</f>
+        <v>332.3549061359995</v>
       </c>
       <c r="AT14" s="8">
-        <f t="shared" ref="AT14" si="119">AT9-AT13</f>
-        <v>504.38534969400052</v>
+        <f t="shared" ref="AT14" si="120">AT9-AT13</f>
+        <v>483.90033791255973</v>
       </c>
       <c r="AU14" s="8">
-        <f t="shared" ref="AU14" si="120">AU9-AU13</f>
-        <v>558.4843826542201</v>
+        <f t="shared" ref="AU14" si="121">AU9-AU13</f>
+        <v>537.62344558356745</v>
       </c>
       <c r="AV14" s="8">
-        <f t="shared" ref="AV14:AW14" si="121">AV9-AV13</f>
-        <v>596.3846420650043</v>
+        <f t="shared" ref="AV14:AW14" si="122">AV9-AV13</f>
+        <v>575.11786989179609</v>
       </c>
       <c r="AW14" s="8">
-        <f t="shared" si="121"/>
-        <v>616.31633565841048</v>
+        <f t="shared" si="122"/>
+        <v>595.88624971408353</v>
       </c>
       <c r="AX14" s="8">
-        <f t="shared" ref="AX14:BA14" si="122">AX9-AX13</f>
-        <v>636.72670313120625</v>
+        <f t="shared" ref="AX14:BA14" si="123">AX9-AX13</f>
+        <v>617.16265735706111</v>
       </c>
       <c r="AY14" s="8">
-        <f t="shared" si="122"/>
-        <v>657.62611836105407</v>
+        <f t="shared" si="123"/>
+        <v>638.95817997938548</v>
       </c>
       <c r="AZ14" s="8">
-        <f t="shared" si="122"/>
-        <v>679.02517070717158</v>
+        <f t="shared" si="123"/>
+        <v>661.28413574890828</v>
       </c>
       <c r="BA14" s="8">
-        <f t="shared" si="122"/>
-        <v>700.93466939999962</v>
+        <f t="shared" si="123"/>
+        <v>684.15207855551989</v>
       </c>
     </row>
     <row r="15" spans="2:53" x14ac:dyDescent="0.3">
@@ -3429,19 +3423,18 @@
         <v>-13.3</v>
       </c>
       <c r="AE15" s="5">
-        <f>AA15*1.01</f>
-        <v>-26.26</v>
+        <v>-17.2</v>
       </c>
       <c r="AF15" s="5">
-        <f t="shared" ref="AF15:AH15" si="123">AB15*1.01</f>
+        <f t="shared" ref="AF15:AH15" si="124">AB15*1.01</f>
         <v>-28.381</v>
       </c>
       <c r="AG15" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>-31.209</v>
       </c>
       <c r="AH15" s="5">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>-13.433000000000002</v>
       </c>
       <c r="AJ15" s="5">
@@ -3474,47 +3467,47 @@
       </c>
       <c r="AQ15" s="5">
         <f>SUM(AE15:AH15)</f>
-        <v>-99.283000000000015</v>
+        <v>-90.223000000000013</v>
       </c>
       <c r="AR15" s="5">
-        <f t="shared" ref="AR15:BA15" si="124">AQ15*1.03</f>
-        <v>-102.26149000000002</v>
+        <f t="shared" ref="AR15:BA15" si="125">AQ15*1.03</f>
+        <v>-92.929690000000022</v>
       </c>
       <c r="AS15" s="5">
-        <f t="shared" si="124"/>
-        <v>-105.32933470000003</v>
+        <f t="shared" si="125"/>
+        <v>-95.717580700000028</v>
       </c>
       <c r="AT15" s="5">
-        <f t="shared" si="124"/>
-        <v>-108.48921474100004</v>
+        <f t="shared" si="125"/>
+        <v>-98.589108121000038</v>
       </c>
       <c r="AU15" s="5">
-        <f t="shared" si="124"/>
-        <v>-111.74389118323005</v>
+        <f t="shared" si="125"/>
+        <v>-101.54678136463004</v>
       </c>
       <c r="AV15" s="5">
-        <f t="shared" si="124"/>
-        <v>-115.09620791872695</v>
+        <f t="shared" si="125"/>
+        <v>-104.59318480556894</v>
       </c>
       <c r="AW15" s="5">
-        <f t="shared" si="124"/>
-        <v>-118.54909415628876</v>
+        <f t="shared" si="125"/>
+        <v>-107.73098034973602</v>
       </c>
       <c r="AX15" s="5">
-        <f t="shared" si="124"/>
-        <v>-122.10556698097743</v>
+        <f t="shared" si="125"/>
+        <v>-110.9629097602281</v>
       </c>
       <c r="AY15" s="5">
-        <f t="shared" si="124"/>
-        <v>-125.76873399040676</v>
+        <f t="shared" si="125"/>
+        <v>-114.29179705303494</v>
       </c>
       <c r="AZ15" s="5">
-        <f t="shared" si="124"/>
-        <v>-129.54179601011896</v>
+        <f t="shared" si="125"/>
+        <v>-117.72055096462599</v>
       </c>
       <c r="BA15" s="5">
-        <f t="shared" si="124"/>
-        <v>-133.42804989042253</v>
+        <f t="shared" si="125"/>
+        <v>-121.25216749356477</v>
       </c>
     </row>
     <row r="16" spans="2:53" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3522,204 +3515,204 @@
         <v>34</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" ref="C16:L16" si="125">C14-C15</f>
+        <f t="shared" ref="C16:L16" si="126">C14-C15</f>
         <v>-6.5000000000000053</v>
       </c>
       <c r="D16" s="8">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0.20000000000000573</v>
       </c>
       <c r="E16" s="8">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>-9.7000000000000259</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>6.699999999999986</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>-9.8000000000000167</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>-9.8600000000000065</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>-24.700000000000017</v>
       </c>
       <c r="J16" s="8">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>-15.999999999999954</v>
       </c>
       <c r="K16" s="8">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>-54.6</v>
       </c>
       <c r="L16" s="8">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>-42.599999999999987</v>
       </c>
       <c r="M16" s="8">
-        <f t="shared" ref="M16:AL16" si="126">M14-M15</f>
+        <f t="shared" ref="M16:AL16" si="127">M14-M15</f>
         <v>12.20000000000004</v>
       </c>
       <c r="N16" s="8">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>66.649999999999991</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>75.500000000000071</v>
       </c>
       <c r="P16" s="8">
-        <f t="shared" ref="P16:Q16" si="127">P14-P15</f>
+        <f t="shared" ref="P16:Q16" si="128">P14-P15</f>
         <v>69.899999999999906</v>
       </c>
       <c r="Q16" s="8">
+        <f t="shared" si="128"/>
+        <v>68.599999999999952</v>
+      </c>
+      <c r="R16" s="8">
         <f t="shared" si="127"/>
-        <v>68.599999999999952</v>
-      </c>
-      <c r="R16" s="8">
-        <f t="shared" si="126"/>
         <v>22.599999999999955</v>
       </c>
       <c r="S16" s="8">
-        <f t="shared" ref="S16:T16" si="128">S14-S15</f>
+        <f t="shared" ref="S16:T16" si="129">S14-S15</f>
         <v>-24.200000000000056</v>
       </c>
       <c r="T16" s="8">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>-109.80000000000005</v>
       </c>
       <c r="U16" s="8">
-        <f t="shared" ref="U16" si="129">U14-U15</f>
+        <f t="shared" ref="U16" si="130">U14-U15</f>
         <v>-120.29999999999994</v>
       </c>
       <c r="V16" s="8">
-        <f t="shared" ref="V16" si="130">V14-V15</f>
+        <f t="shared" ref="V16" si="131">V14-V15</f>
         <v>-238.2000000000001</v>
       </c>
       <c r="W16" s="8">
-        <f t="shared" ref="W16:X16" si="131">W14-W15</f>
+        <f t="shared" ref="W16:X16" si="132">W14-W15</f>
         <v>-189.50000000000006</v>
       </c>
       <c r="X16" s="8">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>-105.90000000000003</v>
       </c>
       <c r="Y16" s="8">
-        <f t="shared" ref="Y16" si="132">Y14-Y15</f>
+        <f t="shared" ref="Y16" si="133">Y14-Y15</f>
         <v>-326.89999999999998</v>
       </c>
       <c r="Z16" s="8">
-        <f t="shared" ref="Z16:AH16" si="133">Z14-Z15</f>
+        <f t="shared" ref="Z16:AH16" si="134">Z14-Z15</f>
         <v>-76.40000000000002</v>
       </c>
       <c r="AA16" s="8">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>-46.000000000000057</v>
       </c>
       <c r="AB16" s="8">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>-43.30000000000009</v>
       </c>
       <c r="AC16" s="8">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>-4.7999999999998195</v>
       </c>
       <c r="AD16" s="8">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>-25.899999999999931</v>
       </c>
       <c r="AE16" s="8">
-        <f t="shared" si="133"/>
-        <v>-13.92964999999997</v>
+        <f t="shared" si="134"/>
+        <v>-40.500000000000043</v>
       </c>
       <c r="AF16" s="8">
-        <f t="shared" si="133"/>
-        <v>-9.4240700000001141</v>
+        <f t="shared" si="134"/>
+        <v>-11.926189999999991</v>
       </c>
       <c r="AG16" s="8">
-        <f t="shared" si="133"/>
-        <v>18.868719999999879</v>
+        <f t="shared" si="134"/>
+        <v>17.913920000000129</v>
       </c>
       <c r="AH16" s="8">
-        <f t="shared" si="133"/>
-        <v>19.374659999999956</v>
+        <f t="shared" si="134"/>
+        <v>17.982780000000055</v>
       </c>
       <c r="AJ16" s="8">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>-9.3000000000000114</v>
       </c>
       <c r="AK16" s="8">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>-60.359999999999907</v>
       </c>
       <c r="AL16" s="8">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>-18.350000000000044</v>
       </c>
       <c r="AM16" s="8">
-        <f t="shared" ref="AM16" si="134">AM14-AM15</f>
+        <f t="shared" ref="AM16" si="135">AM14-AM15</f>
         <v>236.59999999999977</v>
       </c>
       <c r="AN16" s="8">
-        <f t="shared" ref="AN16" si="135">AN14-AN15</f>
+        <f t="shared" ref="AN16" si="136">AN14-AN15</f>
         <v>-492.50000000000034</v>
       </c>
       <c r="AO16" s="8">
-        <f t="shared" ref="AO16" si="136">AO14-AO15</f>
+        <f t="shared" ref="AO16" si="137">AO14-AO15</f>
         <v>-698.6999999999997</v>
       </c>
       <c r="AP16" s="8">
-        <f t="shared" ref="AP16" si="137">AP14-AP15</f>
+        <f t="shared" ref="AP16" si="138">AP14-AP15</f>
         <v>-120.00000000000018</v>
       </c>
       <c r="AQ16" s="8">
-        <f t="shared" ref="AQ16" si="138">AQ14-AQ15</f>
-        <v>14.889659999999481</v>
+        <f t="shared" ref="AQ16" si="139">AQ14-AQ15</f>
+        <v>-16.529490000000749</v>
       </c>
       <c r="AR16" s="8">
-        <f t="shared" ref="AR16" si="139">AR14-AR15</f>
-        <v>277.17568000000045</v>
+        <f t="shared" ref="AR16" si="140">AR14-AR15</f>
+        <v>245.79319119999954</v>
       </c>
       <c r="AS16" s="8">
-        <f t="shared" ref="AS16" si="140">AS14-AS15</f>
-        <v>459.32525590000034</v>
+        <f t="shared" ref="AS16" si="141">AS14-AS15</f>
+        <v>428.07248683599954</v>
       </c>
       <c r="AT16" s="8">
-        <f t="shared" ref="AT16" si="141">AT14-AT15</f>
-        <v>612.87456443500059</v>
+        <f t="shared" ref="AT16" si="142">AT14-AT15</f>
+        <v>582.48944603355972</v>
       </c>
       <c r="AU16" s="8">
-        <f t="shared" ref="AU16" si="142">AU14-AU15</f>
-        <v>670.22827383745016</v>
+        <f t="shared" ref="AU16" si="143">AU14-AU15</f>
+        <v>639.17022694819752</v>
       </c>
       <c r="AV16" s="8">
-        <f t="shared" ref="AV16:AW16" si="143">AV14-AV15</f>
-        <v>711.48084998373122</v>
+        <f t="shared" ref="AV16:AW16" si="144">AV14-AV15</f>
+        <v>679.71105469736506</v>
       </c>
       <c r="AW16" s="8">
-        <f t="shared" si="143"/>
-        <v>734.86542981469927</v>
+        <f t="shared" si="144"/>
+        <v>703.61723006381953</v>
       </c>
       <c r="AX16" s="8">
-        <f t="shared" ref="AX16:BA16" si="144">AX14-AX15</f>
-        <v>758.83227011218366</v>
+        <f t="shared" ref="AX16:BA16" si="145">AX14-AX15</f>
+        <v>728.12556711728917</v>
       </c>
       <c r="AY16" s="8">
-        <f t="shared" si="144"/>
-        <v>783.39485235146083</v>
+        <f t="shared" si="145"/>
+        <v>753.24997703242047</v>
       </c>
       <c r="AZ16" s="8">
-        <f t="shared" si="144"/>
-        <v>808.5669667172906</v>
+        <f t="shared" si="145"/>
+        <v>779.00468671353428</v>
       </c>
       <c r="BA16" s="8">
-        <f t="shared" si="144"/>
-        <v>834.36271929042209</v>
+        <f t="shared" si="145"/>
+        <v>805.40424604908469</v>
       </c>
     </row>
     <row r="17" spans="2:163" x14ac:dyDescent="0.3">
@@ -3811,20 +3804,19 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="AE17" s="5">
-        <f>AE16*0.2</f>
-        <v>-2.7859299999999942</v>
+        <v>-13.1</v>
       </c>
       <c r="AF17" s="5">
-        <f t="shared" ref="AF17:AH17" si="145">AF16*0.2</f>
-        <v>-1.8848140000000229</v>
+        <f t="shared" ref="AF17:AH17" si="146">AF16*0.2</f>
+        <v>-2.3852379999999984</v>
       </c>
       <c r="AG17" s="5">
-        <f t="shared" si="145"/>
-        <v>3.7737439999999758</v>
+        <f t="shared" si="146"/>
+        <v>3.5827840000000259</v>
       </c>
       <c r="AH17" s="5">
-        <f t="shared" si="145"/>
-        <v>3.8749319999999914</v>
+        <f t="shared" si="146"/>
+        <v>3.5965560000000112</v>
       </c>
       <c r="AJ17" s="5">
         <f>SUM(C17:F17)</f>
@@ -3856,47 +3848,47 @@
       </c>
       <c r="AQ17" s="5">
         <f>SUM(AE17:AH17)</f>
-        <v>2.9779319999999503</v>
+        <v>-8.3058979999999636</v>
       </c>
       <c r="AR17" s="5">
         <f>AR16*0.2</f>
-        <v>55.435136000000092</v>
+        <v>49.15863823999991</v>
       </c>
       <c r="AS17" s="5">
-        <f t="shared" ref="AS17:AV17" si="146">AS16*0.2</f>
-        <v>91.86505118000008</v>
+        <f t="shared" ref="AS17:AV17" si="147">AS16*0.2</f>
+        <v>85.614497367199917</v>
       </c>
       <c r="AT17" s="5">
-        <f t="shared" si="146"/>
-        <v>122.57491288700012</v>
+        <f t="shared" si="147"/>
+        <v>116.49788920671195</v>
       </c>
       <c r="AU17" s="5">
-        <f t="shared" si="146"/>
-        <v>134.04565476749005</v>
+        <f t="shared" si="147"/>
+        <v>127.83404538963951</v>
       </c>
       <c r="AV17" s="5">
-        <f t="shared" si="146"/>
-        <v>142.29616999674624</v>
+        <f t="shared" si="147"/>
+        <v>135.94221093947303</v>
       </c>
       <c r="AW17" s="5">
-        <f t="shared" ref="AW17:BA17" si="147">AW16*0.2</f>
-        <v>146.97308596293985</v>
+        <f t="shared" ref="AW17:BA17" si="148">AW16*0.2</f>
+        <v>140.7234460127639</v>
       </c>
       <c r="AX17" s="5">
-        <f t="shared" si="147"/>
-        <v>151.76645402243673</v>
+        <f t="shared" si="148"/>
+        <v>145.62511342345783</v>
       </c>
       <c r="AY17" s="5">
-        <f t="shared" si="147"/>
-        <v>156.67897047029217</v>
+        <f t="shared" si="148"/>
+        <v>150.64999540648409</v>
       </c>
       <c r="AZ17" s="5">
-        <f t="shared" si="147"/>
-        <v>161.71339334345814</v>
+        <f t="shared" si="148"/>
+        <v>155.80093734270687</v>
       </c>
       <c r="BA17" s="5">
-        <f t="shared" si="147"/>
-        <v>166.87254385808444</v>
+        <f t="shared" si="148"/>
+        <v>161.08084920981696</v>
       </c>
     </row>
     <row r="18" spans="2:163" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3904,644 +3896,644 @@
         <v>36</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" ref="C18:L18" si="148">C16-C17</f>
+        <f t="shared" ref="C18:L18" si="149">C16-C17</f>
         <v>-6.600000000000005</v>
       </c>
       <c r="D18" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.60000000000000575</v>
       </c>
       <c r="E18" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>-9.5000000000000266</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>6.7999999999999856</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>-9.7000000000000171</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>-9.4600000000000062</v>
       </c>
       <c r="I18" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>-24.600000000000016</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>-15.599999999999953</v>
       </c>
       <c r="K18" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>-54.4</v>
       </c>
       <c r="L18" s="8">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>-43.099999999999987</v>
       </c>
       <c r="M18" s="8">
-        <f t="shared" ref="M18:AL18" si="149">M16-M17</f>
+        <f t="shared" ref="M18:AL18" si="150">M16-M17</f>
         <v>13.20000000000004</v>
       </c>
       <c r="N18" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>67.349999999999994</v>
       </c>
       <c r="O18" s="8">
-        <f t="shared" ref="O18:R18" si="150">O16-O17</f>
+        <f t="shared" ref="O18:R18" si="151">O16-O17</f>
         <v>76.300000000000068</v>
       </c>
       <c r="P18" s="8">
-        <f t="shared" ref="P18:Q18" si="151">P16-P17</f>
+        <f t="shared" ref="P18:Q18" si="152">P16-P17</f>
         <v>73.499999999999901</v>
       </c>
       <c r="Q18" s="8">
+        <f t="shared" si="152"/>
+        <v>68.899999999999949</v>
+      </c>
+      <c r="R18" s="8">
         <f t="shared" si="151"/>
-        <v>68.899999999999949</v>
-      </c>
-      <c r="R18" s="8">
+        <v>23.699999999999957</v>
+      </c>
+      <c r="S18" s="8">
+        <f t="shared" ref="S18:T18" si="153">S16-S17</f>
+        <v>-26.400000000000055</v>
+      </c>
+      <c r="T18" s="8">
+        <f t="shared" si="153"/>
+        <v>-112.40000000000005</v>
+      </c>
+      <c r="U18" s="8">
+        <f t="shared" ref="U18" si="154">U16-U17</f>
+        <v>-122.29999999999994</v>
+      </c>
+      <c r="V18" s="8">
+        <f t="shared" ref="V18" si="155">V16-V17</f>
+        <v>-237.2000000000001</v>
+      </c>
+      <c r="W18" s="8">
+        <f t="shared" ref="W18:X18" si="156">W16-W17</f>
+        <v>-193.10000000000005</v>
+      </c>
+      <c r="X18" s="8">
+        <f t="shared" si="156"/>
+        <v>-107.50000000000003</v>
+      </c>
+      <c r="Y18" s="8">
+        <f t="shared" ref="Y18" si="157">Y16-Y17</f>
+        <v>-330.09999999999997</v>
+      </c>
+      <c r="Z18" s="8">
+        <f t="shared" ref="Z18:AA18" si="158">Z16-Z17</f>
+        <v>-78.200000000000017</v>
+      </c>
+      <c r="AA18" s="8">
+        <f t="shared" si="158"/>
+        <v>-50.800000000000054</v>
+      </c>
+      <c r="AB18" s="8">
+        <f t="shared" ref="AB18:AD18" si="159">AB16-AB17</f>
+        <v>-34.100000000000094</v>
+      </c>
+      <c r="AC18" s="8">
+        <f t="shared" si="159"/>
+        <v>-8.8999999999998192</v>
+      </c>
+      <c r="AD18" s="8">
+        <f t="shared" si="159"/>
+        <v>-35.59999999999993</v>
+      </c>
+      <c r="AE18" s="8">
+        <f t="shared" ref="AE18:AH18" si="160">AE16-AE17</f>
+        <v>-27.400000000000041</v>
+      </c>
+      <c r="AF18" s="8">
+        <f t="shared" si="160"/>
+        <v>-9.5409519999999937</v>
+      </c>
+      <c r="AG18" s="8">
+        <f t="shared" si="160"/>
+        <v>14.331136000000104</v>
+      </c>
+      <c r="AH18" s="8">
+        <f t="shared" si="160"/>
+        <v>14.386224000000045</v>
+      </c>
+      <c r="AJ18" s="8">
         <f t="shared" si="150"/>
-        <v>23.699999999999957</v>
-      </c>
-      <c r="S18" s="8">
-        <f t="shared" ref="S18:T18" si="152">S16-S17</f>
-        <v>-26.400000000000055</v>
-      </c>
-      <c r="T18" s="8">
-        <f t="shared" si="152"/>
-        <v>-112.40000000000005</v>
-      </c>
-      <c r="U18" s="8">
-        <f t="shared" ref="U18" si="153">U16-U17</f>
-        <v>-122.29999999999994</v>
-      </c>
-      <c r="V18" s="8">
-        <f t="shared" ref="V18" si="154">V16-V17</f>
-        <v>-237.2000000000001</v>
-      </c>
-      <c r="W18" s="8">
-        <f t="shared" ref="W18:X18" si="155">W16-W17</f>
-        <v>-193.10000000000005</v>
-      </c>
-      <c r="X18" s="8">
-        <f t="shared" si="155"/>
-        <v>-107.50000000000003</v>
-      </c>
-      <c r="Y18" s="8">
-        <f t="shared" ref="Y18" si="156">Y16-Y17</f>
-        <v>-330.09999999999997</v>
-      </c>
-      <c r="Z18" s="8">
-        <f t="shared" ref="Z18:AA18" si="157">Z16-Z17</f>
-        <v>-78.200000000000017</v>
-      </c>
-      <c r="AA18" s="8">
-        <f t="shared" si="157"/>
-        <v>-50.800000000000054</v>
-      </c>
-      <c r="AB18" s="8">
-        <f t="shared" ref="AB18:AD18" si="158">AB16-AB17</f>
-        <v>-34.100000000000094</v>
-      </c>
-      <c r="AC18" s="8">
-        <f t="shared" si="158"/>
-        <v>-8.8999999999998192</v>
-      </c>
-      <c r="AD18" s="8">
-        <f t="shared" si="158"/>
-        <v>-35.59999999999993</v>
-      </c>
-      <c r="AE18" s="8">
-        <f t="shared" ref="AE18:AH18" si="159">AE16-AE17</f>
-        <v>-11.143719999999977</v>
-      </c>
-      <c r="AF18" s="8">
-        <f t="shared" si="159"/>
-        <v>-7.5392560000000914</v>
-      </c>
-      <c r="AG18" s="8">
-        <f t="shared" si="159"/>
-        <v>15.094975999999903</v>
-      </c>
-      <c r="AH18" s="8">
-        <f t="shared" si="159"/>
-        <v>15.499727999999966</v>
-      </c>
-      <c r="AJ18" s="8">
-        <f t="shared" si="149"/>
         <v>-8.7000000000000117</v>
       </c>
       <c r="AK18" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>-59.359999999999907</v>
       </c>
       <c r="AL18" s="8">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>-16.950000000000045</v>
       </c>
       <c r="AM18" s="8">
-        <f t="shared" ref="AM18" si="160">AM16-AM17</f>
+        <f t="shared" ref="AM18" si="161">AM16-AM17</f>
         <v>242.39999999999978</v>
       </c>
       <c r="AN18" s="8">
-        <f t="shared" ref="AN18" si="161">AN16-AN17</f>
+        <f t="shared" ref="AN18" si="162">AN16-AN17</f>
         <v>-498.30000000000035</v>
       </c>
       <c r="AO18" s="8">
-        <f t="shared" ref="AO18" si="162">AO16-AO17</f>
+        <f t="shared" ref="AO18" si="163">AO16-AO17</f>
         <v>-708.89999999999975</v>
       </c>
       <c r="AP18" s="8">
-        <f t="shared" ref="AP18" si="163">AP16-AP17</f>
+        <f t="shared" ref="AP18" si="164">AP16-AP17</f>
         <v>-129.40000000000018</v>
       </c>
       <c r="AQ18" s="8">
-        <f t="shared" ref="AQ18" si="164">AQ16-AQ17</f>
-        <v>11.911727999999531</v>
+        <f t="shared" ref="AQ18" si="165">AQ16-AQ17</f>
+        <v>-8.2235920000007852</v>
       </c>
       <c r="AR18" s="8">
-        <f t="shared" ref="AR18" si="165">AR16-AR17</f>
-        <v>221.74054400000037</v>
+        <f t="shared" ref="AR18" si="166">AR16-AR17</f>
+        <v>196.63455295999964</v>
       </c>
       <c r="AS18" s="8">
-        <f t="shared" ref="AS18" si="166">AS16-AS17</f>
-        <v>367.46020472000026</v>
+        <f t="shared" ref="AS18" si="167">AS16-AS17</f>
+        <v>342.45798946879961</v>
       </c>
       <c r="AT18" s="8">
-        <f t="shared" ref="AT18" si="167">AT16-AT17</f>
-        <v>490.2996515480005</v>
+        <f t="shared" ref="AT18" si="168">AT16-AT17</f>
+        <v>465.99155682684778</v>
       </c>
       <c r="AU18" s="8">
-        <f t="shared" ref="AU18" si="168">AU16-AU17</f>
-        <v>536.18261906996008</v>
+        <f t="shared" ref="AU18" si="169">AU16-AU17</f>
+        <v>511.336181558558</v>
       </c>
       <c r="AV18" s="8">
-        <f t="shared" ref="AV18:AW18" si="169">AV16-AV17</f>
-        <v>569.18467998698497</v>
+        <f t="shared" ref="AV18:AW18" si="170">AV16-AV17</f>
+        <v>543.768843757892</v>
       </c>
       <c r="AW18" s="8">
-        <f t="shared" si="169"/>
-        <v>587.89234385175939</v>
+        <f t="shared" si="170"/>
+        <v>562.8937840510556</v>
       </c>
       <c r="AX18" s="8">
-        <f t="shared" ref="AX18:BA18" si="170">AX16-AX17</f>
-        <v>607.06581608974693</v>
+        <f t="shared" ref="AX18:BA18" si="171">AX16-AX17</f>
+        <v>582.50045369383133</v>
       </c>
       <c r="AY18" s="8">
-        <f t="shared" si="170"/>
-        <v>626.71588188116868</v>
+        <f t="shared" si="171"/>
+        <v>602.59998162593638</v>
       </c>
       <c r="AZ18" s="8">
-        <f t="shared" si="170"/>
-        <v>646.85357337383243</v>
+        <f t="shared" si="171"/>
+        <v>623.20374937082738</v>
       </c>
       <c r="BA18" s="8">
-        <f t="shared" si="170"/>
-        <v>667.49017543233765</v>
+        <f t="shared" si="171"/>
+        <v>644.32339683926773</v>
       </c>
       <c r="BB18" s="1">
         <f>BA18*(1+$BD$25)</f>
-        <v>660.81527367801425</v>
+        <v>637.8801628708751</v>
       </c>
       <c r="BC18" s="1">
-        <f t="shared" ref="BC18:DN18" si="171">BB18*(1+$BD$25)</f>
-        <v>654.20712094123405</v>
+        <f t="shared" ref="BC18:DN18" si="172">BB18*(1+$BD$25)</f>
+        <v>631.50136124216635</v>
       </c>
       <c r="BD18" s="1">
-        <f t="shared" si="171"/>
-        <v>647.66504973182168</v>
+        <f t="shared" si="172"/>
+        <v>625.18634762974466</v>
       </c>
       <c r="BE18" s="1">
-        <f t="shared" si="171"/>
-        <v>641.18839923450344</v>
+        <f t="shared" si="172"/>
+        <v>618.93448415344722</v>
       </c>
       <c r="BF18" s="1">
-        <f t="shared" si="171"/>
-        <v>634.77651524215844</v>
+        <f t="shared" si="172"/>
+        <v>612.74513931191279</v>
       </c>
       <c r="BG18" s="1">
-        <f t="shared" si="171"/>
-        <v>628.42875008973681</v>
+        <f t="shared" si="172"/>
+        <v>606.61768791879365</v>
       </c>
       <c r="BH18" s="1">
-        <f t="shared" si="171"/>
-        <v>622.14446258883947</v>
+        <f t="shared" si="172"/>
+        <v>600.55151103960566</v>
       </c>
       <c r="BI18" s="1">
-        <f t="shared" si="171"/>
-        <v>615.92301796295112</v>
+        <f t="shared" si="172"/>
+        <v>594.54599592920954</v>
       </c>
       <c r="BJ18" s="1">
-        <f t="shared" si="171"/>
-        <v>609.76378778332162</v>
+        <f t="shared" si="172"/>
+        <v>588.60053596991747</v>
       </c>
       <c r="BK18" s="1">
-        <f t="shared" si="171"/>
-        <v>603.6661499054884</v>
+        <f t="shared" si="172"/>
+        <v>582.71453061021828</v>
       </c>
       <c r="BL18" s="1">
-        <f t="shared" si="171"/>
-        <v>597.62948840643355</v>
+        <f t="shared" si="172"/>
+        <v>576.88738530411604</v>
       </c>
       <c r="BM18" s="1">
-        <f t="shared" si="171"/>
-        <v>591.65319352236918</v>
+        <f t="shared" si="172"/>
+        <v>571.11851145107482</v>
       </c>
       <c r="BN18" s="1">
-        <f t="shared" si="171"/>
-        <v>585.73666158714548</v>
+        <f t="shared" si="172"/>
+        <v>565.4073263365641</v>
       </c>
       <c r="BO18" s="1">
-        <f t="shared" si="171"/>
-        <v>579.87929497127402</v>
+        <f t="shared" si="172"/>
+        <v>559.75325307319849</v>
       </c>
       <c r="BP18" s="1">
-        <f t="shared" si="171"/>
-        <v>574.0805020215613</v>
+        <f t="shared" si="172"/>
+        <v>554.1557205424665</v>
       </c>
       <c r="BQ18" s="1">
-        <f t="shared" si="171"/>
-        <v>568.33969700134571</v>
+        <f t="shared" si="172"/>
+        <v>548.61416333704187</v>
       </c>
       <c r="BR18" s="1">
-        <f t="shared" si="171"/>
-        <v>562.65630003133219</v>
+        <f t="shared" si="172"/>
+        <v>543.12802170367149</v>
       </c>
       <c r="BS18" s="1">
-        <f t="shared" si="171"/>
-        <v>557.02973703101884</v>
+        <f t="shared" si="172"/>
+        <v>537.69674148663478</v>
       </c>
       <c r="BT18" s="1">
-        <f t="shared" si="171"/>
-        <v>551.45943966070865</v>
+        <f t="shared" si="172"/>
+        <v>532.31977407176839</v>
       </c>
       <c r="BU18" s="1">
-        <f t="shared" si="171"/>
-        <v>545.94484526410156</v>
+        <f t="shared" si="172"/>
+        <v>526.99657633105073</v>
       </c>
       <c r="BV18" s="1">
-        <f t="shared" si="171"/>
-        <v>540.48539681146053</v>
+        <f t="shared" si="172"/>
+        <v>521.72661056774018</v>
       </c>
       <c r="BW18" s="1">
-        <f t="shared" si="171"/>
-        <v>535.08054284334594</v>
+        <f t="shared" si="172"/>
+        <v>516.50934446206281</v>
       </c>
       <c r="BX18" s="1">
-        <f t="shared" si="171"/>
-        <v>529.72973741491251</v>
+        <f t="shared" si="172"/>
+        <v>511.34425101744216</v>
       </c>
       <c r="BY18" s="1">
-        <f t="shared" si="171"/>
-        <v>524.43244004076337</v>
+        <f t="shared" si="172"/>
+        <v>506.23080850726774</v>
       </c>
       <c r="BZ18" s="1">
-        <f t="shared" si="171"/>
-        <v>519.1881156403557</v>
+        <f t="shared" si="172"/>
+        <v>501.16850042219505</v>
       </c>
       <c r="CA18" s="1">
-        <f t="shared" si="171"/>
-        <v>513.99623448395209</v>
+        <f t="shared" si="172"/>
+        <v>496.15681541797312</v>
       </c>
       <c r="CB18" s="1">
-        <f t="shared" si="171"/>
-        <v>508.85627213911255</v>
+        <f t="shared" si="172"/>
+        <v>491.19524726379336</v>
       </c>
       <c r="CC18" s="1">
-        <f t="shared" si="171"/>
-        <v>503.76770941772139</v>
+        <f t="shared" si="172"/>
+        <v>486.28329479115541</v>
       </c>
       <c r="CD18" s="1">
-        <f t="shared" si="171"/>
-        <v>498.73003232354415</v>
+        <f t="shared" si="172"/>
+        <v>481.42046184324386</v>
       </c>
       <c r="CE18" s="1">
-        <f t="shared" si="171"/>
-        <v>493.74273200030871</v>
+        <f t="shared" si="172"/>
+        <v>476.60625722481143</v>
       </c>
       <c r="CF18" s="1">
-        <f t="shared" si="171"/>
-        <v>488.8053046803056</v>
+        <f t="shared" si="172"/>
+        <v>471.8401946525633</v>
       </c>
       <c r="CG18" s="1">
-        <f t="shared" si="171"/>
-        <v>483.91725163350253</v>
+        <f t="shared" si="172"/>
+        <v>467.12179270603764</v>
       </c>
       <c r="CH18" s="1">
-        <f t="shared" si="171"/>
-        <v>479.07807911716748</v>
+        <f t="shared" si="172"/>
+        <v>462.45057477897728</v>
       </c>
       <c r="CI18" s="1">
-        <f t="shared" si="171"/>
-        <v>474.28729832599578</v>
+        <f t="shared" si="172"/>
+        <v>457.8260690311875</v>
       </c>
       <c r="CJ18" s="1">
-        <f t="shared" si="171"/>
-        <v>469.54442534273579</v>
+        <f t="shared" si="172"/>
+        <v>453.24780834087562</v>
       </c>
       <c r="CK18" s="1">
-        <f t="shared" si="171"/>
-        <v>464.84898108930844</v>
+        <f t="shared" si="172"/>
+        <v>448.71533025746686</v>
       </c>
       <c r="CL18" s="1">
-        <f t="shared" si="171"/>
-        <v>460.20049127841537</v>
+        <f t="shared" si="172"/>
+        <v>444.22817695489221</v>
       </c>
       <c r="CM18" s="1">
-        <f t="shared" si="171"/>
-        <v>455.59848636563123</v>
+        <f t="shared" si="172"/>
+        <v>439.78589518534329</v>
       </c>
       <c r="CN18" s="1">
-        <f t="shared" si="171"/>
-        <v>451.04250150197493</v>
+        <f t="shared" si="172"/>
+        <v>435.38803623348986</v>
       </c>
       <c r="CO18" s="1">
-        <f t="shared" si="171"/>
-        <v>446.53207648695519</v>
+        <f t="shared" si="172"/>
+        <v>431.03415587115495</v>
       </c>
       <c r="CP18" s="1">
-        <f t="shared" si="171"/>
-        <v>442.06675572208565</v>
+        <f t="shared" si="172"/>
+        <v>426.72381431244338</v>
       </c>
       <c r="CQ18" s="1">
-        <f t="shared" si="171"/>
-        <v>437.64608816486481</v>
+        <f t="shared" si="172"/>
+        <v>422.45657616931896</v>
       </c>
       <c r="CR18" s="1">
-        <f t="shared" si="171"/>
-        <v>433.26962728321615</v>
+        <f t="shared" si="172"/>
+        <v>418.23201040762575</v>
       </c>
       <c r="CS18" s="1">
-        <f t="shared" si="171"/>
-        <v>428.936931010384</v>
+        <f t="shared" si="172"/>
+        <v>414.04969030354948</v>
       </c>
       <c r="CT18" s="1">
-        <f t="shared" si="171"/>
-        <v>424.64756170028016</v>
+        <f t="shared" si="172"/>
+        <v>409.90919340051397</v>
       </c>
       <c r="CU18" s="1">
-        <f t="shared" si="171"/>
-        <v>420.40108608327733</v>
+        <f t="shared" si="172"/>
+        <v>405.81010146650885</v>
       </c>
       <c r="CV18" s="1">
-        <f t="shared" si="171"/>
-        <v>416.19707522244454</v>
+        <f t="shared" si="172"/>
+        <v>401.75200045184374</v>
       </c>
       <c r="CW18" s="1">
-        <f t="shared" si="171"/>
-        <v>412.03510447022006</v>
+        <f t="shared" si="172"/>
+        <v>397.73448044732532</v>
       </c>
       <c r="CX18" s="1">
-        <f t="shared" si="171"/>
-        <v>407.91475342551786</v>
+        <f t="shared" si="172"/>
+        <v>393.75713564285206</v>
       </c>
       <c r="CY18" s="1">
-        <f t="shared" si="171"/>
-        <v>403.83560589126267</v>
+        <f t="shared" si="172"/>
+        <v>389.81956428642354</v>
       </c>
       <c r="CZ18" s="1">
-        <f t="shared" si="171"/>
-        <v>399.79724983235002</v>
+        <f t="shared" si="172"/>
+        <v>385.92136864355928</v>
       </c>
       <c r="DA18" s="1">
-        <f t="shared" si="171"/>
-        <v>395.7992773340265</v>
+        <f t="shared" si="172"/>
+        <v>382.06215495712365</v>
       </c>
       <c r="DB18" s="1">
-        <f t="shared" si="171"/>
-        <v>391.84128456068623</v>
+        <f t="shared" si="172"/>
+        <v>378.24153340755242</v>
       </c>
       <c r="DC18" s="1">
-        <f t="shared" si="171"/>
-        <v>387.9228717150794</v>
+        <f t="shared" si="172"/>
+        <v>374.45911807347687</v>
       </c>
       <c r="DD18" s="1">
-        <f t="shared" si="171"/>
-        <v>384.0436429979286</v>
+        <f t="shared" si="172"/>
+        <v>370.71452689274213</v>
       </c>
       <c r="DE18" s="1">
-        <f t="shared" si="171"/>
-        <v>380.20320656794934</v>
+        <f t="shared" si="172"/>
+        <v>367.00738162381469</v>
       </c>
       <c r="DF18" s="1">
-        <f t="shared" si="171"/>
-        <v>376.40117450226984</v>
+        <f t="shared" si="172"/>
+        <v>363.33730780757656</v>
       </c>
       <c r="DG18" s="1">
-        <f t="shared" si="171"/>
-        <v>372.63716275724715</v>
+        <f t="shared" si="172"/>
+        <v>359.70393472950082</v>
       </c>
       <c r="DH18" s="1">
-        <f t="shared" si="171"/>
-        <v>368.91079112967469</v>
+        <f t="shared" si="172"/>
+        <v>356.10689538220578</v>
       </c>
       <c r="DI18" s="1">
-        <f t="shared" si="171"/>
-        <v>365.22168321837796</v>
+        <f t="shared" si="172"/>
+        <v>352.54582642838369</v>
       </c>
       <c r="DJ18" s="1">
-        <f t="shared" si="171"/>
-        <v>361.56946638619416</v>
+        <f t="shared" si="172"/>
+        <v>349.02036816409986</v>
       </c>
       <c r="DK18" s="1">
-        <f t="shared" si="171"/>
-        <v>357.95377172233219</v>
+        <f t="shared" si="172"/>
+        <v>345.53016448245887</v>
       </c>
       <c r="DL18" s="1">
-        <f t="shared" si="171"/>
-        <v>354.37423400510886</v>
+        <f t="shared" si="172"/>
+        <v>342.07486283763427</v>
       </c>
       <c r="DM18" s="1">
-        <f t="shared" si="171"/>
-        <v>350.83049166505776</v>
+        <f t="shared" si="172"/>
+        <v>338.6541142092579</v>
       </c>
       <c r="DN18" s="1">
-        <f t="shared" si="171"/>
-        <v>347.3221867484072</v>
+        <f t="shared" si="172"/>
+        <v>335.2675730671653</v>
       </c>
       <c r="DO18" s="1">
-        <f t="shared" ref="DO18:FG18" si="172">DN18*(1+$BD$25)</f>
-        <v>343.84896488092312</v>
+        <f t="shared" ref="DO18:FG18" si="173">DN18*(1+$BD$25)</f>
+        <v>331.91489733649365</v>
       </c>
       <c r="DP18" s="1">
-        <f t="shared" si="172"/>
-        <v>340.41047523211387</v>
+        <f t="shared" si="173"/>
+        <v>328.59574836312873</v>
       </c>
       <c r="DQ18" s="1">
-        <f t="shared" si="172"/>
-        <v>337.00637047979274</v>
+        <f t="shared" si="173"/>
+        <v>325.30979087949743</v>
       </c>
       <c r="DR18" s="1">
-        <f t="shared" si="172"/>
-        <v>333.63630677499481</v>
+        <f t="shared" si="173"/>
+        <v>322.05669297070244</v>
       </c>
       <c r="DS18" s="1">
-        <f t="shared" si="172"/>
-        <v>330.29994370724484</v>
+        <f t="shared" si="173"/>
+        <v>318.8361260409954</v>
       </c>
       <c r="DT18" s="1">
-        <f t="shared" si="172"/>
-        <v>326.99694427017238</v>
+        <f t="shared" si="173"/>
+        <v>315.64776478058542</v>
       </c>
       <c r="DU18" s="1">
-        <f t="shared" si="172"/>
-        <v>323.72697482747066</v>
+        <f t="shared" si="173"/>
+        <v>312.49128713277958</v>
       </c>
       <c r="DV18" s="1">
-        <f t="shared" si="172"/>
-        <v>320.48970507919597</v>
+        <f t="shared" si="173"/>
+        <v>309.36637426145177</v>
       </c>
       <c r="DW18" s="1">
-        <f t="shared" si="172"/>
-        <v>317.28480802840403</v>
+        <f t="shared" si="173"/>
+        <v>306.27271051883724</v>
       </c>
       <c r="DX18" s="1">
-        <f t="shared" si="172"/>
-        <v>314.11195994811999</v>
+        <f t="shared" si="173"/>
+        <v>303.20998341364884</v>
       </c>
       <c r="DY18" s="1">
-        <f t="shared" si="172"/>
-        <v>310.97084034863877</v>
+        <f t="shared" si="173"/>
+        <v>300.17788357951235</v>
       </c>
       <c r="DZ18" s="1">
-        <f t="shared" si="172"/>
-        <v>307.86113194515241</v>
+        <f t="shared" si="173"/>
+        <v>297.17610474371725</v>
       </c>
       <c r="EA18" s="1">
-        <f t="shared" si="172"/>
-        <v>304.7825206257009</v>
+        <f t="shared" si="173"/>
+        <v>294.20434369628009</v>
       </c>
       <c r="EB18" s="1">
-        <f t="shared" si="172"/>
-        <v>301.73469541944388</v>
+        <f t="shared" si="173"/>
+        <v>291.26230025931727</v>
       </c>
       <c r="EC18" s="1">
-        <f t="shared" si="172"/>
-        <v>298.71734846524942</v>
+        <f t="shared" si="173"/>
+        <v>288.34967725672408</v>
       </c>
       <c r="ED18" s="1">
-        <f t="shared" si="172"/>
-        <v>295.73017498059693</v>
+        <f t="shared" si="173"/>
+        <v>285.46618048415684</v>
       </c>
       <c r="EE18" s="1">
-        <f t="shared" si="172"/>
-        <v>292.77287323079094</v>
+        <f t="shared" si="173"/>
+        <v>282.61151867931528</v>
       </c>
       <c r="EF18" s="1">
-        <f t="shared" si="172"/>
-        <v>289.84514449848302</v>
+        <f t="shared" si="173"/>
+        <v>279.78540349252211</v>
       </c>
       <c r="EG18" s="1">
-        <f t="shared" si="172"/>
-        <v>286.94669305349817</v>
+        <f t="shared" si="173"/>
+        <v>276.98754945759686</v>
       </c>
       <c r="EH18" s="1">
-        <f t="shared" si="172"/>
-        <v>284.07722612296317</v>
+        <f t="shared" si="173"/>
+        <v>274.2176739630209</v>
       </c>
       <c r="EI18" s="1">
-        <f t="shared" si="172"/>
-        <v>281.23645386173354</v>
+        <f t="shared" si="173"/>
+        <v>271.47549722339068</v>
       </c>
       <c r="EJ18" s="1">
-        <f t="shared" si="172"/>
-        <v>278.42408932311622</v>
+        <f t="shared" si="173"/>
+        <v>268.76074225115678</v>
       </c>
       <c r="EK18" s="1">
-        <f t="shared" si="172"/>
-        <v>275.63984842988503</v>
+        <f t="shared" si="173"/>
+        <v>266.07313482864521</v>
       </c>
       <c r="EL18" s="1">
-        <f t="shared" si="172"/>
-        <v>272.88344994558616</v>
+        <f t="shared" si="173"/>
+        <v>263.41240348035876</v>
       </c>
       <c r="EM18" s="1">
-        <f t="shared" si="172"/>
-        <v>270.15461544613032</v>
+        <f t="shared" si="173"/>
+        <v>260.7782794455552</v>
       </c>
       <c r="EN18" s="1">
-        <f t="shared" si="172"/>
-        <v>267.45306929166901</v>
+        <f t="shared" si="173"/>
+        <v>258.17049665109965</v>
       </c>
       <c r="EO18" s="1">
-        <f t="shared" si="172"/>
-        <v>264.77853859875233</v>
+        <f t="shared" si="173"/>
+        <v>255.58879168458864</v>
       </c>
       <c r="EP18" s="1">
-        <f t="shared" si="172"/>
-        <v>262.13075321276483</v>
+        <f t="shared" si="173"/>
+        <v>253.03290376774277</v>
       </c>
       <c r="EQ18" s="1">
-        <f t="shared" si="172"/>
-        <v>259.50944568063716</v>
+        <f t="shared" si="173"/>
+        <v>250.50257473006533</v>
       </c>
       <c r="ER18" s="1">
-        <f t="shared" si="172"/>
-        <v>256.91435122383081</v>
+        <f t="shared" si="173"/>
+        <v>247.99754898276467</v>
       </c>
       <c r="ES18" s="1">
-        <f t="shared" si="172"/>
-        <v>254.34520771159251</v>
+        <f t="shared" si="173"/>
+        <v>245.51757349293703</v>
       </c>
       <c r="ET18" s="1">
-        <f t="shared" si="172"/>
-        <v>251.80175563447659</v>
+        <f t="shared" si="173"/>
+        <v>243.06239775800765</v>
       </c>
       <c r="EU18" s="1">
-        <f t="shared" si="172"/>
-        <v>249.28373807813182</v>
+        <f t="shared" si="173"/>
+        <v>240.63177378042758</v>
       </c>
       <c r="EV18" s="1">
-        <f t="shared" si="172"/>
-        <v>246.79090069735051</v>
+        <f t="shared" si="173"/>
+        <v>238.22545604262331</v>
       </c>
       <c r="EW18" s="1">
-        <f t="shared" si="172"/>
-        <v>244.32299169037699</v>
+        <f t="shared" si="173"/>
+        <v>235.84320148219706</v>
       </c>
       <c r="EX18" s="1">
-        <f t="shared" si="172"/>
-        <v>241.87976177347323</v>
+        <f t="shared" si="173"/>
+        <v>233.48476946737509</v>
       </c>
       <c r="EY18" s="1">
-        <f t="shared" si="172"/>
-        <v>239.46096415573851</v>
+        <f t="shared" si="173"/>
+        <v>231.14992177270133</v>
       </c>
       <c r="EZ18" s="1">
-        <f t="shared" si="172"/>
-        <v>237.06635451418111</v>
+        <f t="shared" si="173"/>
+        <v>228.83842255497433</v>
       </c>
       <c r="FA18" s="1">
-        <f t="shared" si="172"/>
-        <v>234.6956909690393</v>
+        <f t="shared" si="173"/>
+        <v>226.55003832942458</v>
       </c>
       <c r="FB18" s="1">
-        <f t="shared" si="172"/>
-        <v>232.34873405934891</v>
+        <f t="shared" si="173"/>
+        <v>224.28453794613034</v>
       </c>
       <c r="FC18" s="1">
-        <f t="shared" si="172"/>
-        <v>230.02524671875543</v>
+        <f t="shared" si="173"/>
+        <v>222.04169256666904</v>
       </c>
       <c r="FD18" s="1">
-        <f t="shared" si="172"/>
-        <v>227.72499425156786</v>
+        <f t="shared" si="173"/>
+        <v>219.82127564100236</v>
       </c>
       <c r="FE18" s="1">
-        <f t="shared" si="172"/>
-        <v>225.44774430905218</v>
+        <f t="shared" si="173"/>
+        <v>217.62306288459234</v>
       </c>
       <c r="FF18" s="1">
-        <f t="shared" si="172"/>
-        <v>223.19326686596165</v>
+        <f t="shared" si="173"/>
+        <v>215.44683225574641</v>
       </c>
       <c r="FG18" s="1">
-        <f t="shared" si="172"/>
-        <v>220.96133419730202</v>
+        <f t="shared" si="173"/>
+        <v>213.29236393318894</v>
       </c>
     </row>
     <row r="19" spans="2:163" x14ac:dyDescent="0.3">
@@ -4634,20 +4626,20 @@
         <v>145.89999999999998</v>
       </c>
       <c r="AE19" s="5">
-        <f t="shared" ref="AE19:AH19" si="173">128.7+17.2</f>
-        <v>145.89999999999998</v>
+        <f>129.5+17.1</f>
+        <v>146.6</v>
       </c>
       <c r="AF19" s="5">
-        <f t="shared" si="173"/>
-        <v>145.89999999999998</v>
+        <f>129.5+17.1</f>
+        <v>146.6</v>
       </c>
       <c r="AG19" s="5">
-        <f t="shared" si="173"/>
-        <v>145.89999999999998</v>
+        <f>129.5+17.1</f>
+        <v>146.6</v>
       </c>
       <c r="AH19" s="5">
-        <f t="shared" si="173"/>
-        <v>145.89999999999998</v>
+        <f>129.5+17.1</f>
+        <v>146.6</v>
       </c>
       <c r="AJ19">
         <v>125</v>
@@ -4668,52 +4660,52 @@
         <v>125</v>
       </c>
       <c r="AP19" s="5">
-        <f t="shared" ref="AP19:BA19" si="174">128.7+17.2</f>
+        <f t="shared" ref="AP19" si="174">128.7+17.2</f>
         <v>145.89999999999998</v>
       </c>
       <c r="AQ19" s="5">
-        <f t="shared" si="174"/>
-        <v>145.89999999999998</v>
+        <f t="shared" ref="AQ19:BA19" si="175">129.5+17.1</f>
+        <v>146.6</v>
       </c>
       <c r="AR19" s="5">
-        <f t="shared" si="174"/>
-        <v>145.89999999999998</v>
+        <f t="shared" si="175"/>
+        <v>146.6</v>
       </c>
       <c r="AS19" s="5">
-        <f t="shared" si="174"/>
-        <v>145.89999999999998</v>
+        <f t="shared" si="175"/>
+        <v>146.6</v>
       </c>
       <c r="AT19" s="5">
-        <f t="shared" si="174"/>
-        <v>145.89999999999998</v>
+        <f t="shared" si="175"/>
+        <v>146.6</v>
       </c>
       <c r="AU19" s="5">
-        <f t="shared" si="174"/>
-        <v>145.89999999999998</v>
+        <f t="shared" si="175"/>
+        <v>146.6</v>
       </c>
       <c r="AV19" s="5">
-        <f t="shared" si="174"/>
-        <v>145.89999999999998</v>
+        <f t="shared" si="175"/>
+        <v>146.6</v>
       </c>
       <c r="AW19" s="5">
-        <f t="shared" si="174"/>
-        <v>145.89999999999998</v>
+        <f t="shared" si="175"/>
+        <v>146.6</v>
       </c>
       <c r="AX19" s="5">
-        <f t="shared" si="174"/>
-        <v>145.89999999999998</v>
+        <f t="shared" si="175"/>
+        <v>146.6</v>
       </c>
       <c r="AY19" s="5">
-        <f t="shared" si="174"/>
-        <v>145.89999999999998</v>
+        <f t="shared" si="175"/>
+        <v>146.6</v>
       </c>
       <c r="AZ19" s="5">
-        <f t="shared" si="174"/>
-        <v>145.89999999999998</v>
+        <f t="shared" si="175"/>
+        <v>146.6</v>
       </c>
       <c r="BA19" s="5">
-        <f t="shared" si="174"/>
-        <v>145.89999999999998</v>
+        <f t="shared" si="175"/>
+        <v>146.6</v>
       </c>
     </row>
     <row r="20" spans="2:163" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -4721,204 +4713,204 @@
         <v>37</v>
       </c>
       <c r="C20" s="6">
-        <f t="shared" ref="C20:L20" si="175">C18/C19</f>
+        <f t="shared" ref="C20:L20" si="176">C18/C19</f>
         <v>-5.2800000000000041E-2</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>4.8000000000000464E-3</v>
       </c>
       <c r="E20" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>-7.6000000000000206E-2</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>5.4399999999999886E-2</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>-7.7600000000000141E-2</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>-7.5680000000000053E-2</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>-0.19680000000000011</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>-0.12479999999999963</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>-0.43519999999999998</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>-0.34479999999999988</v>
       </c>
       <c r="M20" s="6">
-        <f t="shared" ref="M20:AL20" si="176">M18/M19</f>
+        <f t="shared" ref="M20:AL20" si="177">M18/M19</f>
         <v>0.10560000000000032</v>
       </c>
       <c r="N20" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>0.53879999999999995</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" ref="O20:R20" si="177">O18/O19</f>
+        <f t="shared" ref="O20:R20" si="178">O18/O19</f>
         <v>0.6104000000000005</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" ref="P20:Q20" si="178">P18/P19</f>
+        <f t="shared" ref="P20:Q20" si="179">P18/P19</f>
         <v>0.51148225469728537</v>
       </c>
       <c r="Q20" s="6">
+        <f t="shared" si="179"/>
+        <v>0.47947112038970047</v>
+      </c>
+      <c r="R20" s="6">
         <f t="shared" si="178"/>
-        <v>0.47947112038970047</v>
-      </c>
-      <c r="R20" s="6">
+        <v>0.16492693110647152</v>
+      </c>
+      <c r="S20" s="6">
+        <f t="shared" ref="S20:T20" si="180">S18/S19</f>
+        <v>-0.18371607515657659</v>
+      </c>
+      <c r="T20" s="6">
+        <f t="shared" si="180"/>
+        <v>-0.78218510786360518</v>
+      </c>
+      <c r="U20" s="6">
+        <f t="shared" ref="U20" si="181">U18/U19</f>
+        <v>-0.85107863604732048</v>
+      </c>
+      <c r="V20" s="6">
+        <f t="shared" ref="V20" si="182">V18/V19</f>
+        <v>-1.650661099512875</v>
+      </c>
+      <c r="W20" s="6">
+        <f t="shared" ref="W20:X20" si="183">W18/W19</f>
+        <v>-1.3437717466945029</v>
+      </c>
+      <c r="X20" s="6">
+        <f t="shared" si="183"/>
+        <v>-0.74808629088378598</v>
+      </c>
+      <c r="Y20" s="6">
+        <f t="shared" ref="Y20" si="184">Y18/Y19</f>
+        <v>-2.2971468336812806</v>
+      </c>
+      <c r="Z20" s="6">
+        <f t="shared" ref="Z20:AA20" si="185">Z18/Z19</f>
+        <v>-0.54418928322894933</v>
+      </c>
+      <c r="AA20" s="6">
+        <f t="shared" si="185"/>
+        <v>-0.35351426583159401</v>
+      </c>
+      <c r="AB20" s="6">
+        <f t="shared" ref="AB20:AD20" si="186">AB18/AB19</f>
+        <v>-0.23729993041057826</v>
+      </c>
+      <c r="AC20" s="6">
+        <f t="shared" si="186"/>
+        <v>-6.1421670117321039E-2</v>
+      </c>
+      <c r="AD20" s="6">
+        <f t="shared" si="186"/>
+        <v>-0.24400274160383781</v>
+      </c>
+      <c r="AE20" s="6">
+        <f t="shared" ref="AE20:AH20" si="187">AE18/AE19</f>
+        <v>-0.18690313778990478</v>
+      </c>
+      <c r="AF20" s="6">
+        <f t="shared" si="187"/>
+        <v>-6.5081527967257802E-2</v>
+      </c>
+      <c r="AG20" s="6">
+        <f t="shared" si="187"/>
+        <v>9.775672578444819E-2</v>
+      </c>
+      <c r="AH20" s="6">
+        <f t="shared" si="187"/>
+        <v>9.8132496589359103E-2</v>
+      </c>
+      <c r="AJ20" s="6">
         <f t="shared" si="177"/>
-        <v>0.16492693110647152</v>
-      </c>
-      <c r="S20" s="6">
-        <f t="shared" ref="S20:T20" si="179">S18/S19</f>
-        <v>-0.18371607515657659</v>
-      </c>
-      <c r="T20" s="6">
-        <f t="shared" si="179"/>
-        <v>-0.78218510786360518</v>
-      </c>
-      <c r="U20" s="6">
-        <f t="shared" ref="U20" si="180">U18/U19</f>
-        <v>-0.85107863604732048</v>
-      </c>
-      <c r="V20" s="6">
-        <f t="shared" ref="V20" si="181">V18/V19</f>
-        <v>-1.650661099512875</v>
-      </c>
-      <c r="W20" s="6">
-        <f t="shared" ref="W20:X20" si="182">W18/W19</f>
-        <v>-1.3437717466945029</v>
-      </c>
-      <c r="X20" s="6">
-        <f t="shared" si="182"/>
-        <v>-0.74808629088378598</v>
-      </c>
-      <c r="Y20" s="6">
-        <f t="shared" ref="Y20" si="183">Y18/Y19</f>
-        <v>-2.2971468336812806</v>
-      </c>
-      <c r="Z20" s="6">
-        <f t="shared" ref="Z20:AA20" si="184">Z18/Z19</f>
-        <v>-0.54418928322894933</v>
-      </c>
-      <c r="AA20" s="6">
-        <f t="shared" si="184"/>
-        <v>-0.35351426583159401</v>
-      </c>
-      <c r="AB20" s="6">
-        <f t="shared" ref="AB20:AD20" si="185">AB18/AB19</f>
-        <v>-0.23729993041057826</v>
-      </c>
-      <c r="AC20" s="6">
-        <f t="shared" si="185"/>
-        <v>-6.1421670117321039E-2</v>
-      </c>
-      <c r="AD20" s="6">
-        <f t="shared" si="185"/>
-        <v>-0.24400274160383781</v>
-      </c>
-      <c r="AE20" s="6">
-        <f t="shared" ref="AE20:AH20" si="186">AE18/AE19</f>
-        <v>-7.6379163810829195E-2</v>
-      </c>
-      <c r="AF20" s="6">
-        <f t="shared" si="186"/>
-        <v>-5.1674132967786793E-2</v>
-      </c>
-      <c r="AG20" s="6">
-        <f t="shared" si="186"/>
-        <v>0.10346111034955384</v>
-      </c>
-      <c r="AH20" s="6">
-        <f t="shared" si="186"/>
-        <v>0.106235284441398</v>
-      </c>
-      <c r="AJ20" s="6">
-        <f t="shared" si="176"/>
         <v>-6.9600000000000092E-2</v>
       </c>
       <c r="AK20" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>-0.47487999999999925</v>
       </c>
       <c r="AL20" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="177"/>
         <v>-0.13560000000000036</v>
       </c>
       <c r="AM20" s="6">
-        <f t="shared" ref="AM20" si="187">AM18/AM19</f>
+        <f t="shared" ref="AM20" si="188">AM18/AM19</f>
         <v>1.9391999999999983</v>
       </c>
       <c r="AN20" s="6">
-        <f t="shared" ref="AN20" si="188">AN18/AN19</f>
+        <f t="shared" ref="AN20" si="189">AN18/AN19</f>
         <v>-3.9864000000000028</v>
       </c>
       <c r="AO20" s="6">
-        <f t="shared" ref="AO20" si="189">AO18/AO19</f>
+        <f t="shared" ref="AO20" si="190">AO18/AO19</f>
         <v>-5.671199999999998</v>
       </c>
       <c r="AP20" s="6">
-        <f t="shared" ref="AP20" si="190">AP18/AP19</f>
+        <f t="shared" ref="AP20" si="191">AP18/AP19</f>
         <v>-0.88690884167237971</v>
       </c>
       <c r="AQ20" s="6">
-        <f t="shared" ref="AQ20" si="191">AQ18/AQ19</f>
-        <v>8.164309801233402E-2</v>
+        <f t="shared" ref="AQ20" si="192">AQ18/AQ19</f>
+        <v>-5.6095443383361428E-2</v>
       </c>
       <c r="AR20" s="6">
-        <f t="shared" ref="AR20" si="192">AR18/AR19</f>
-        <v>1.5198118163125456</v>
+        <f t="shared" ref="AR20" si="193">AR18/AR19</f>
+        <v>1.3412998155525215</v>
       </c>
       <c r="AS20" s="6">
-        <f t="shared" ref="AS20" si="193">AS18/AS19</f>
-        <v>2.5185757691569588</v>
+        <f t="shared" ref="AS20" si="194">AS18/AS19</f>
+        <v>2.3360026566766687</v>
       </c>
       <c r="AT20" s="6">
-        <f t="shared" ref="AT20" si="194">AT18/AT19</f>
-        <v>3.3605185164359188</v>
+        <f t="shared" ref="AT20" si="195">AT18/AT19</f>
+        <v>3.1786600056401624</v>
       </c>
       <c r="AU20" s="6">
-        <f t="shared" ref="AU20" si="195">AU18/AU19</f>
-        <v>3.6750008161066496</v>
+        <f t="shared" ref="AU20" si="196">AU18/AU19</f>
+        <v>3.4879684963066713</v>
       </c>
       <c r="AV20" s="6">
-        <f t="shared" ref="AV20:AW20" si="196">AV18/AV19</f>
-        <v>3.9011972583069574</v>
+        <f t="shared" ref="AV20:AW20" si="197">AV18/AV19</f>
+        <v>3.709200844187531</v>
       </c>
       <c r="AW20" s="6">
-        <f t="shared" si="196"/>
-        <v>4.0294197659476314</v>
+        <f t="shared" si="197"/>
+        <v>3.8396574628312115</v>
       </c>
       <c r="AX20" s="6">
-        <f t="shared" ref="AX20:BA20" si="197">AX18/AX19</f>
-        <v>4.1608349286480264</v>
+        <f t="shared" ref="AX20:BA20" si="198">AX18/AX19</f>
+        <v>3.9734000934094906</v>
       </c>
       <c r="AY20" s="6">
-        <f t="shared" si="197"/>
-        <v>4.2955166681368659</v>
+        <f t="shared" si="198"/>
+        <v>4.110504649563004</v>
       </c>
       <c r="AZ20" s="6">
-        <f t="shared" si="197"/>
-        <v>4.4335405988610868</v>
+        <f t="shared" si="198"/>
+        <v>4.2510487678774043</v>
       </c>
       <c r="BA20" s="6">
-        <f t="shared" si="197"/>
-        <v>4.574984067390937</v>
+        <f t="shared" si="198"/>
+        <v>4.3951118474711306</v>
       </c>
     </row>
     <row r="22" spans="2:163" x14ac:dyDescent="0.3">
@@ -4926,115 +4918,115 @@
         <v>45</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" ref="G22:N22" si="198">G3/C3-1</f>
+        <f t="shared" ref="G22:N22" si="199">G3/C3-1</f>
         <v>0.78695073235685742</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.85714285714285698</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.79120879120879151</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.71466314398943198</v>
       </c>
       <c r="K22" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.73323397913561861</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.45974955277280882</v>
       </c>
       <c r="M22" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.78025655326268795</v>
       </c>
       <c r="N22" s="9">
-        <f t="shared" si="198"/>
+        <f t="shared" si="199"/>
         <v>0.8151001540832048</v>
       </c>
       <c r="O22" s="9">
-        <f t="shared" ref="O22:O24" si="199">O3/K3-1</f>
+        <f t="shared" ref="O22:O24" si="200">O3/K3-1</f>
         <v>1.0055889939810836</v>
       </c>
       <c r="P22" s="9">
-        <f t="shared" ref="P22:P24" si="200">P3/L3-1</f>
+        <f t="shared" ref="P22:P24" si="201">P3/L3-1</f>
         <v>1.174428104575163</v>
       </c>
       <c r="Q22" s="9">
-        <f t="shared" ref="Q22:Q24" si="201">Q3/M3-1</f>
+        <f t="shared" ref="Q22:Q24" si="202">Q3/M3-1</f>
         <v>0.82487468671679198</v>
       </c>
       <c r="R22" s="9">
-        <f t="shared" ref="R22:R24" si="202">R3/N3-1</f>
+        <f t="shared" ref="R22:R24" si="203">R3/N3-1</f>
         <v>0.49320882852292036</v>
       </c>
       <c r="S22" s="9">
-        <f t="shared" ref="S22:S24" si="203">S3/O3-1</f>
+        <f t="shared" ref="S22:S24" si="204">S3/O3-1</f>
         <v>0.38670953912111461</v>
       </c>
       <c r="T22" s="9">
-        <f t="shared" ref="T22:T24" si="204">T3/P3-1</f>
+        <f t="shared" ref="T22:T24" si="205">T3/P3-1</f>
         <v>0.25737366146909646</v>
       </c>
       <c r="U22" s="9">
-        <f t="shared" ref="U22:U24" si="205">U3/Q3-1</f>
+        <f t="shared" ref="U22:U24" si="206">U3/Q3-1</f>
         <v>0.14540772532188839</v>
       </c>
       <c r="V22" s="9">
-        <f t="shared" ref="V22:V24" si="206">V3/R3-1</f>
+        <f t="shared" ref="V22:V24" si="207">V3/R3-1</f>
         <v>3.9368959636156831E-2</v>
       </c>
       <c r="W22" s="9">
-        <f t="shared" ref="W22:W24" si="207">W3/S3-1</f>
+        <f t="shared" ref="W22:W24" si="208">W3/S3-1</f>
         <v>-1.9013757922399011E-2</v>
       </c>
       <c r="X22" s="9">
-        <f t="shared" ref="X22:X24" si="208">X3/T3-1</f>
+        <f t="shared" ref="X22:X24" si="209">X3/T3-1</f>
         <v>0.11145973405050058</v>
       </c>
       <c r="Y22" s="9">
-        <f t="shared" ref="Y22:Y24" si="209">Y3/U3-1</f>
+        <f t="shared" ref="Y22:Y24" si="210">Y3/U3-1</f>
         <v>0.1792565947242204</v>
       </c>
       <c r="Z22" s="9">
-        <f t="shared" ref="Z22:Z24" si="210">Z3/V3-1</f>
+        <f t="shared" ref="Z22:Z24" si="211">Z3/V3-1</f>
         <v>0.13346095993436347</v>
       </c>
       <c r="AA22" s="9">
-        <f t="shared" ref="AA22:AA24" si="211">AA3/W3-1</f>
+        <f t="shared" ref="AA22:AA24" si="212">AA3/W3-1</f>
         <v>0.18956823195713834</v>
       </c>
       <c r="AB22" s="9">
-        <f t="shared" ref="AB22:AB24" si="212">AB3/X3-1</f>
+        <f t="shared" ref="AB22:AB24" si="213">AB3/X3-1</f>
         <v>0.10807904288210768</v>
       </c>
       <c r="AC22" s="9">
-        <f t="shared" ref="AC22:AC24" si="213">AC3/Y3-1</f>
+        <f t="shared" ref="AC22:AC24" si="214">AC3/Y3-1</f>
         <v>0.15429588205388933</v>
       </c>
       <c r="AD22" s="9">
-        <f t="shared" ref="AD22:AD24" si="214">AD3/Z3-1</f>
+        <f t="shared" ref="AD22:AD24" si="215">AD3/Z3-1</f>
         <v>0.24900470503076355</v>
       </c>
       <c r="AE22" s="9">
-        <f t="shared" ref="AE22:AE24" si="215">AE3/AA3-1</f>
-        <v>0.15999999999999992</v>
+        <f t="shared" ref="AE22:AE24" si="216">AE3/AA3-1</f>
+        <v>0.16677705656378317</v>
       </c>
       <c r="AF22" s="9">
-        <f t="shared" ref="AF22:AF24" si="216">AF3/AB3-1</f>
+        <f t="shared" ref="AF22:AF24" si="217">AF3/AB3-1</f>
         <v>0.14999999999999991</v>
       </c>
       <c r="AG22" s="9">
-        <f t="shared" ref="AG22:AG24" si="217">AG3/AC3-1</f>
+        <f t="shared" ref="AG22:AG24" si="218">AG3/AC3-1</f>
         <v>0.12999999999999967</v>
       </c>
       <c r="AH22" s="9">
-        <f t="shared" ref="AH22:AH24" si="218">AH3/AD3-1</f>
+        <f t="shared" ref="AH22:AH24" si="219">AH3/AD3-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="AK22" s="9">
@@ -5046,63 +5038,63 @@
         <v>0.71139308855291583</v>
       </c>
       <c r="AM22" s="9">
-        <f t="shared" ref="AM22:AW22" si="219">AM3/AL3-1</f>
+        <f t="shared" ref="AM22:AW22" si="220">AM3/AL3-1</f>
         <v>0.80225587632118645</v>
       </c>
       <c r="AN22" s="9">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>0.1881045122324827</v>
       </c>
       <c r="AO22" s="9">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>0.10295796957306536</v>
       </c>
       <c r="AP22" s="9">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>0.17650791530291876</v>
       </c>
       <c r="AQ22" s="9">
-        <f t="shared" si="219"/>
-        <v>0.1322919919380019</v>
+        <f t="shared" si="220"/>
+        <v>0.13374428705254493</v>
       </c>
       <c r="AR22" s="9">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AS22" s="9">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="AT22" s="9">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="AU22" s="9">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AV22" s="9">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AW22" s="9">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AX22" s="9">
-        <f t="shared" ref="AX22:AX24" si="220">AX3/AW3-1</f>
+        <f t="shared" ref="AX22:AX24" si="221">AX3/AW3-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AY22" s="9">
-        <f t="shared" ref="AY22:AY24" si="221">AY3/AX3-1</f>
+        <f t="shared" ref="AY22:AY24" si="222">AY3/AX3-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AZ22" s="9">
-        <f t="shared" ref="AZ22:AZ24" si="222">AZ3/AY3-1</f>
+        <f t="shared" ref="AZ22:AZ24" si="223">AZ3/AY3-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="BA22" s="9">
-        <f t="shared" ref="BA22:BA24" si="223">BA3/AZ3-1</f>
+        <f t="shared" ref="BA22:BA24" si="224">BA3/AZ3-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
@@ -5111,184 +5103,184 @@
         <v>46</v>
       </c>
       <c r="G23" s="9">
-        <f t="shared" ref="G23:N23" si="224">G4/C4-1</f>
+        <f t="shared" ref="G23:N23" si="225">G4/C4-1</f>
         <v>0.17886178861788626</v>
       </c>
       <c r="H23" s="9">
+        <f t="shared" si="225"/>
+        <v>0.23909774436090236</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="225"/>
+        <v>0.11323328785811726</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="225"/>
+        <v>0.21962992759452926</v>
+      </c>
+      <c r="K23" s="9">
+        <f t="shared" si="225"/>
+        <v>0.21655172413793111</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="225"/>
+        <v>0.35072815533980561</v>
+      </c>
+      <c r="M23" s="9">
+        <f t="shared" si="225"/>
+        <v>0.62254901960784337</v>
+      </c>
+      <c r="N23" s="9">
+        <f t="shared" si="225"/>
+        <v>0.1787598944591029</v>
+      </c>
+      <c r="O23" s="9">
+        <f t="shared" si="200"/>
+        <v>0.22108843537414957</v>
+      </c>
+      <c r="P23" s="9">
+        <f t="shared" si="201"/>
+        <v>1.3477088948786964E-2</v>
+      </c>
+      <c r="Q23" s="9">
+        <f t="shared" si="202"/>
+        <v>-0.2643504531722054</v>
+      </c>
+      <c r="R23" s="9">
+        <f t="shared" si="203"/>
+        <v>-9.5131505316172316E-2</v>
+      </c>
+      <c r="S23" s="9">
+        <f t="shared" si="204"/>
+        <v>-0.19405756731662027</v>
+      </c>
+      <c r="T23" s="9">
+        <f t="shared" si="205"/>
+        <v>-0.15602836879432624</v>
+      </c>
+      <c r="U23" s="9">
+        <f t="shared" si="206"/>
+        <v>-3.2854209445585258E-2</v>
+      </c>
+      <c r="V23" s="9">
+        <f t="shared" si="207"/>
+        <v>-0.16017316017316008</v>
+      </c>
+      <c r="W23" s="9">
+        <f t="shared" si="208"/>
+        <v>0.22580645161290325</v>
+      </c>
+      <c r="X23" s="9">
+        <f t="shared" si="209"/>
+        <v>8.6134453781512743E-2</v>
+      </c>
+      <c r="Y23" s="9">
+        <f t="shared" si="210"/>
+        <v>0.32908704883227169</v>
+      </c>
+      <c r="Z23" s="9">
+        <f t="shared" si="211"/>
+        <v>0.14580265095729006</v>
+      </c>
+      <c r="AA23" s="9">
+        <f t="shared" si="212"/>
+        <v>0.18890977443609014</v>
+      </c>
+      <c r="AB23" s="9">
+        <f t="shared" si="213"/>
+        <v>0.39071566731141205</v>
+      </c>
+      <c r="AC23" s="9">
+        <f t="shared" si="214"/>
+        <v>0.23003194888178902</v>
+      </c>
+      <c r="AD23" s="9">
+        <f t="shared" si="215"/>
+        <v>6.4910025706940822E-2</v>
+      </c>
+      <c r="AE23" s="9">
+        <f t="shared" si="216"/>
+        <v>0.10592885375494077</v>
+      </c>
+      <c r="AF23" s="9">
+        <f t="shared" si="217"/>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="AG23" s="9">
+        <f t="shared" si="218"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AH23" s="9">
+        <f t="shared" si="219"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AK23" s="9">
+        <f t="shared" ref="AK23:AL23" si="226">AK4/AJ4-1</f>
+        <v>0.19195331695331697</v>
+      </c>
+      <c r="AL23" s="9">
+        <f t="shared" si="226"/>
+        <v>0.31564029889203793</v>
+      </c>
+      <c r="AM23" s="9">
+        <f t="shared" ref="AM23:AW23" si="227">AM4/AL4-1</f>
+        <v>-6.0712886799843324E-2</v>
+      </c>
+      <c r="AN23" s="9">
+        <f t="shared" si="227"/>
+        <v>-0.14095079232693908</v>
+      </c>
+      <c r="AO23" s="9">
+        <f t="shared" si="227"/>
+        <v>0.1907766990291262</v>
+      </c>
+      <c r="AP23" s="9">
+        <f t="shared" si="227"/>
+        <v>0.20260905014268227</v>
+      </c>
+      <c r="AQ23" s="9">
+        <f t="shared" si="227"/>
+        <v>5.6028813559322099E-2</v>
+      </c>
+      <c r="AR23" s="9">
+        <f t="shared" si="227"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="AS23" s="9">
+        <f t="shared" si="227"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="AT23" s="9">
+        <f t="shared" si="227"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AU23" s="9">
+        <f t="shared" si="227"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AV23" s="9">
+        <f t="shared" si="227"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AW23" s="9">
+        <f t="shared" si="227"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="AX23" s="9">
+        <f t="shared" si="221"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="AY23" s="9">
+        <f t="shared" si="222"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="AZ23" s="9">
+        <f t="shared" si="223"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="BA23" s="9">
         <f t="shared" si="224"/>
-        <v>0.23909774436090236</v>
-      </c>
-      <c r="I23" s="9">
-        <f t="shared" si="224"/>
-        <v>0.11323328785811726</v>
-      </c>
-      <c r="J23" s="9">
-        <f t="shared" si="224"/>
-        <v>0.21962992759452926</v>
-      </c>
-      <c r="K23" s="9">
-        <f t="shared" si="224"/>
-        <v>0.21655172413793111</v>
-      </c>
-      <c r="L23" s="9">
-        <f t="shared" si="224"/>
-        <v>0.35072815533980561</v>
-      </c>
-      <c r="M23" s="9">
-        <f t="shared" si="224"/>
-        <v>0.62254901960784337</v>
-      </c>
-      <c r="N23" s="9">
-        <f t="shared" si="224"/>
-        <v>0.1787598944591029</v>
-      </c>
-      <c r="O23" s="9">
-        <f t="shared" si="199"/>
-        <v>0.22108843537414957</v>
-      </c>
-      <c r="P23" s="9">
-        <f t="shared" si="200"/>
-        <v>1.3477088948786964E-2</v>
-      </c>
-      <c r="Q23" s="9">
-        <f t="shared" si="201"/>
-        <v>-0.2643504531722054</v>
-      </c>
-      <c r="R23" s="9">
-        <f t="shared" si="202"/>
-        <v>-9.5131505316172316E-2</v>
-      </c>
-      <c r="S23" s="9">
-        <f t="shared" si="203"/>
-        <v>-0.19405756731662027</v>
-      </c>
-      <c r="T23" s="9">
-        <f t="shared" si="204"/>
-        <v>-0.15602836879432624</v>
-      </c>
-      <c r="U23" s="9">
-        <f t="shared" si="205"/>
-        <v>-3.2854209445585258E-2</v>
-      </c>
-      <c r="V23" s="9">
-        <f t="shared" si="206"/>
-        <v>-0.16017316017316008</v>
-      </c>
-      <c r="W23" s="9">
-        <f t="shared" si="207"/>
-        <v>0.22580645161290325</v>
-      </c>
-      <c r="X23" s="9">
-        <f t="shared" si="208"/>
-        <v>8.6134453781512743E-2</v>
-      </c>
-      <c r="Y23" s="9">
-        <f t="shared" si="209"/>
-        <v>0.32908704883227169</v>
-      </c>
-      <c r="Z23" s="9">
-        <f t="shared" si="210"/>
-        <v>0.14580265095729006</v>
-      </c>
-      <c r="AA23" s="9">
-        <f t="shared" si="211"/>
-        <v>0.18890977443609014</v>
-      </c>
-      <c r="AB23" s="9">
-        <f t="shared" si="212"/>
-        <v>0.39071566731141205</v>
-      </c>
-      <c r="AC23" s="9">
-        <f t="shared" si="213"/>
-        <v>0.23003194888178902</v>
-      </c>
-      <c r="AD23" s="9">
-        <f t="shared" si="214"/>
-        <v>6.4910025706940822E-2</v>
-      </c>
-      <c r="AE23" s="9">
-        <f t="shared" si="215"/>
         <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="AF23" s="9">
-        <f t="shared" si="216"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="AG23" s="9">
-        <f t="shared" si="217"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="AH23" s="9">
-        <f t="shared" si="218"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="AK23" s="9">
-        <f t="shared" ref="AK23:AL23" si="225">AK4/AJ4-1</f>
-        <v>0.19195331695331697</v>
-      </c>
-      <c r="AL23" s="9">
-        <f t="shared" si="225"/>
-        <v>0.31564029889203793</v>
-      </c>
-      <c r="AM23" s="9">
-        <f t="shared" ref="AM23:AW23" si="226">AM4/AL4-1</f>
-        <v>-6.0712886799843324E-2</v>
-      </c>
-      <c r="AN23" s="9">
-        <f t="shared" si="226"/>
-        <v>-0.14095079232693908</v>
-      </c>
-      <c r="AO23" s="9">
-        <f t="shared" si="226"/>
-        <v>0.1907766990291262</v>
-      </c>
-      <c r="AP23" s="9">
-        <f t="shared" si="226"/>
-        <v>0.20260905014268227</v>
-      </c>
-      <c r="AQ23" s="9">
-        <f t="shared" si="226"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="AR23" s="9">
-        <f t="shared" si="226"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AS23" s="9">
-        <f t="shared" si="226"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AT23" s="9">
-        <f t="shared" si="226"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AU23" s="9">
-        <f t="shared" si="226"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AV23" s="9">
-        <f t="shared" si="226"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AW23" s="9">
-        <f t="shared" si="226"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AX23" s="9">
-        <f t="shared" si="220"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AY23" s="9">
-        <f t="shared" si="221"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AZ23" s="9">
-        <f t="shared" si="222"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="BA23" s="9">
-        <f t="shared" si="223"/>
-        <v>2.0000000000000018E-2</v>
       </c>
     </row>
     <row r="24" spans="2:163" x14ac:dyDescent="0.3">
@@ -5300,180 +5292,180 @@
         <v>0.51317715959004384</v>
       </c>
       <c r="H24" s="9">
-        <f t="shared" ref="H24:N24" si="227">H5/D5-1</f>
+        <f t="shared" ref="H24:N24" si="228">H5/D5-1</f>
         <v>0.59502551020408156</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>0.50461361014994233</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>0.49147624229234688</v>
       </c>
       <c r="K24" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>0.5520077406869861</v>
       </c>
       <c r="L24" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>0.42383046781287503</v>
       </c>
       <c r="M24" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>0.73093139133767759</v>
       </c>
       <c r="N24" s="9">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>0.58049610894941606</v>
       </c>
       <c r="O24" s="9">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.78990024937655878</v>
       </c>
       <c r="P24" s="9">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.811569783768604</v>
       </c>
       <c r="Q24" s="9">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.50553587245349862</v>
       </c>
       <c r="R24" s="9">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0.33143560547776585</v>
       </c>
       <c r="S24" s="9">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.27777777777777746</v>
       </c>
       <c r="T24" s="9">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>0.18508758332041553</v>
       </c>
       <c r="U24" s="9">
-        <f t="shared" si="205"/>
+        <f t="shared" si="206"/>
         <v>0.11987056920135331</v>
       </c>
       <c r="V24" s="9">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>2.0802033976654588E-3</v>
       </c>
       <c r="W24" s="9">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>9.9495706692109831E-3</v>
       </c>
       <c r="X24" s="9">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.10830608240680184</v>
       </c>
       <c r="Y24" s="9">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0.19779353821907009</v>
       </c>
       <c r="Z24" s="9">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>0.13539384154076828</v>
       </c>
       <c r="AA24" s="9">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>0.18947368421052624</v>
       </c>
       <c r="AB24" s="9">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.14257051811636967</v>
       </c>
       <c r="AC24" s="9">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.1646929824561405</v>
       </c>
       <c r="AD24" s="9">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>0.21990858303707461</v>
       </c>
       <c r="AE24" s="9">
-        <f t="shared" si="215"/>
-        <v>0.13847174948944851</v>
+        <f t="shared" si="216"/>
+        <v>0.15804402087587932</v>
       </c>
       <c r="AF24" s="9">
-        <f t="shared" si="216"/>
-        <v>0.1292046276211134</v>
+        <f t="shared" si="217"/>
+        <v>0.13811693006920778</v>
       </c>
       <c r="AG24" s="9">
-        <f t="shared" si="217"/>
-        <v>0.11260214648841993</v>
+        <f t="shared" si="218"/>
+        <v>0.11550178874035022</v>
       </c>
       <c r="AH24" s="9">
-        <f t="shared" si="218"/>
-        <v>8.7582847626977545E-2</v>
+        <f t="shared" si="219"/>
+        <v>9.0342214820982703E-2</v>
       </c>
       <c r="AK24" s="9">
-        <f t="shared" ref="AK24:AL24" si="228">AK5/AJ5-1</f>
+        <f t="shared" ref="AK24:AL24" si="229">AK5/AJ5-1</f>
         <v>0.52040404040404042</v>
       </c>
       <c r="AL24" s="9">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>0.5753388254052616</v>
       </c>
       <c r="AM24" s="9">
-        <f t="shared" ref="AM24:AW24" si="229">AM5/AL5-1</f>
+        <f t="shared" ref="AM24:AW24" si="230">AM5/AL5-1</f>
         <v>0.55448717948717952</v>
       </c>
       <c r="AN24" s="9">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>0.13101826731777888</v>
       </c>
       <c r="AO24" s="9">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>0.11452969584546024</v>
       </c>
       <c r="AP24" s="9">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>0.18018250688705217</v>
       </c>
       <c r="AQ24" s="9">
-        <f t="shared" si="229"/>
-        <v>0.11474821893160203</v>
+        <f t="shared" si="230"/>
+        <v>0.12259537530089704</v>
       </c>
       <c r="AR24" s="9">
-        <f t="shared" si="229"/>
-        <v>8.9601766774818126E-2</v>
+        <f t="shared" si="230"/>
+        <v>9.1902914034488026E-2</v>
       </c>
       <c r="AS24" s="9">
-        <f t="shared" si="229"/>
-        <v>7.2699490162529967E-2</v>
+        <f t="shared" si="230"/>
+        <v>7.3573169909846303E-2</v>
       </c>
       <c r="AT24" s="9">
-        <f t="shared" si="229"/>
-        <v>5.5372099329769053E-2</v>
+        <f t="shared" si="230"/>
+        <v>5.5067212796747311E-2</v>
       </c>
       <c r="AU24" s="9">
-        <f t="shared" si="229"/>
-        <v>3.7763604568173736E-2</v>
+        <f t="shared" si="230"/>
+        <v>3.7615581791239361E-2</v>
       </c>
       <c r="AV24" s="9">
-        <f t="shared" si="229"/>
-        <v>2.890094269522403E-2</v>
+        <f t="shared" si="230"/>
+        <v>2.88280310089708E-2</v>
       </c>
       <c r="AW24" s="9">
-        <f t="shared" si="229"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="230"/>
+        <v>1.8838087284930083E-2</v>
       </c>
       <c r="AX24" s="9">
-        <f t="shared" si="220"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="221"/>
+        <v>1.8848166497831054E-2</v>
       </c>
       <c r="AY24" s="9">
-        <f t="shared" si="221"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="222"/>
+        <v>1.8858169572813166E-2</v>
       </c>
       <c r="AZ24" s="9">
-        <f t="shared" si="222"/>
-        <v>2.000000000000024E-2</v>
+        <f t="shared" si="223"/>
+        <v>1.8868096889342212E-2</v>
       </c>
       <c r="BA24" s="9">
-        <f t="shared" si="223"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="224"/>
+        <v>1.8877948828454949E-2</v>
       </c>
     </row>
     <row r="25" spans="2:163" x14ac:dyDescent="0.3">
@@ -5485,200 +5477,200 @@
         <v>0.71105193075898798</v>
       </c>
       <c r="D25" s="9">
-        <f t="shared" ref="D25:N25" si="230">(D3-D6)/D3</f>
+        <f t="shared" ref="D25:N25" si="231">(D3-D6)/D3</f>
         <v>0.69767441860465118</v>
       </c>
       <c r="E25" s="9">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>0.70529470529470528</v>
       </c>
       <c r="F25" s="9">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>0.72258916776750326</v>
       </c>
       <c r="G25" s="9">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>0.69895678092399394</v>
       </c>
       <c r="H25" s="9">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>0.654144305307096</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>0.62576687116564422</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>0.62557781201849005</v>
       </c>
       <c r="K25" s="9">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>0.56190885640584687</v>
       </c>
       <c r="L25" s="9">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>0.56576797385620914</v>
       </c>
       <c r="M25" s="9">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>0.60964912280701755</v>
       </c>
       <c r="N25" s="9">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>0.63858234295415961</v>
       </c>
       <c r="O25" s="9">
-        <f t="shared" ref="O25:R25" si="231">(O3-O6)/O3</f>
+        <f t="shared" ref="O25:R25" si="232">(O3-O6)/O3</f>
         <v>0.66859592711682736</v>
       </c>
       <c r="P25" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>0.6481307533345857</v>
       </c>
       <c r="Q25" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>0.6497854077253219</v>
       </c>
       <c r="R25" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>0.60488914155770324</v>
       </c>
       <c r="S25" s="9">
-        <f t="shared" ref="S25:AA25" si="232">(S3-S6)/S3</f>
+        <f t="shared" ref="S25:AA25" si="233">(S3-S6)/S3</f>
         <v>0.58726232802597</v>
       </c>
       <c r="T25" s="9">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>0.55909158822650529</v>
       </c>
       <c r="U25" s="9">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>0.55695443645083931</v>
       </c>
       <c r="V25" s="9">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>0.55791057021742096</v>
       </c>
       <c r="W25" s="9">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>0.52631578947368418</v>
       </c>
       <c r="X25" s="9">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>0.532195187525205</v>
       </c>
       <c r="Y25" s="9">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>0.48068124046771726</v>
       </c>
       <c r="Z25" s="9">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>0.55314271926649783</v>
       </c>
       <c r="AA25" s="9">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>0.52232083719697964</v>
       </c>
       <c r="AB25" s="9">
-        <f t="shared" ref="AB25:AD25" si="233">(AB3-AB6)/AB3</f>
+        <f t="shared" ref="AB25:AD25" si="234">(AB3-AB6)/AB3</f>
         <v>0.53354361276234374</v>
       </c>
       <c r="AC25" s="9">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>0.54151068046685757</v>
       </c>
       <c r="AD25" s="9">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>0.54080942721916347</v>
       </c>
       <c r="AE25" s="9">
-        <f t="shared" ref="AE25:AH25" si="234">(AE3-AE6)/AE3</f>
-        <v>0.52</v>
+        <f t="shared" ref="AE25:AH25" si="235">(AE3-AE6)/AE3</f>
+        <v>0.52713442325158943</v>
       </c>
       <c r="AF25" s="9">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>0.53</v>
       </c>
       <c r="AG25" s="9">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>0.54</v>
       </c>
       <c r="AH25" s="9">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>0.53999999999999992</v>
       </c>
       <c r="AJ25" s="9">
-        <f t="shared" ref="AJ25" si="235">(AJ3-AJ6)/AJ3</f>
+        <f t="shared" ref="AJ25" si="236">(AJ3-AJ6)/AJ3</f>
         <v>0.71096186135763972</v>
       </c>
       <c r="AK25" s="9">
-        <f t="shared" ref="AK25:AL25" si="236">(AK3-AK6)/AK3</f>
+        <f t="shared" ref="AK25:AL25" si="237">(AK3-AK6)/AK3</f>
         <v>0.64538336933045359</v>
       </c>
       <c r="AL25" s="9">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>0.60317084713677238</v>
       </c>
       <c r="AM25" s="9">
-        <f t="shared" ref="AM25:AV25" si="237">(AM3-AM6)/AM3</f>
+        <f t="shared" ref="AM25:AV25" si="238">(AM3-AM6)/AM3</f>
         <v>0.63941529169766731</v>
       </c>
       <c r="AN25" s="9">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>0.56496113751059041</v>
       </c>
       <c r="AO25" s="9">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>0.52321154231514266</v>
       </c>
       <c r="AP25" s="9">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>0.53532801544270014</v>
       </c>
       <c r="AQ25" s="9">
-        <f t="shared" si="237"/>
-        <v>0.53323264200966469</v>
+        <f t="shared" si="238"/>
+        <v>0.53478911403834051</v>
       </c>
       <c r="AR25" s="9">
-        <f t="shared" si="237"/>
-        <v>0.54999999999999993</v>
+        <f t="shared" si="238"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AS25" s="9">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="AT25" s="9">
-        <f t="shared" si="237"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AU25" s="9">
-        <f t="shared" si="237"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AV25" s="9">
-        <f t="shared" si="237"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AW25" s="9">
-        <f t="shared" ref="AW25:BA25" si="238">(AW3-AW6)/AW3</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AX25" s="9">
         <f t="shared" si="238"/>
         <v>0.54999999999999993</v>
       </c>
-      <c r="AY25" s="9">
+      <c r="AU25" s="9">
         <f t="shared" si="238"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="AZ25" s="9">
+      <c r="AV25" s="9">
         <f t="shared" si="238"/>
         <v>0.54999999999999993</v>
       </c>
+      <c r="AW25" s="9">
+        <f t="shared" ref="AW25:BA25" si="239">(AW3-AW6)/AW3</f>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="AX25" s="9">
+        <f t="shared" si="239"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="AY25" s="9">
+        <f t="shared" si="239"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AZ25" s="9">
+        <f t="shared" si="239"/>
+        <v>0.55000000000000004</v>
+      </c>
       <c r="BA25" s="9">
-        <f t="shared" si="238"/>
-        <v>0.54999999999999993</v>
+        <f t="shared" si="239"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="BC25" t="s">
         <v>47</v>
@@ -5692,204 +5684,204 @@
         <v>44</v>
       </c>
       <c r="C26" s="9">
-        <f t="shared" ref="C26:N26" si="239">(C4-C7)/C4</f>
+        <f t="shared" ref="C26:N26" si="240">(C4-C7)/C4</f>
         <v>0.15772357723577241</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>0.22255639097744356</v>
       </c>
       <c r="E26" s="9">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>0.11459754433833549</v>
       </c>
       <c r="F26" s="9">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>2.3330651649235652E-2</v>
       </c>
       <c r="G26" s="9">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>9.7931034482758542E-2</v>
       </c>
       <c r="H26" s="9">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>5.461165048543689E-2</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>7.5980392156862614E-2</v>
       </c>
       <c r="J26" s="9">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>-4.617414248021221E-3</v>
       </c>
       <c r="K26" s="9">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>0.11904761904761904</v>
       </c>
       <c r="L26" s="9">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>7.5471698113207475E-2</v>
       </c>
       <c r="M26" s="9">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>0.15181268882175233</v>
       </c>
       <c r="N26" s="9">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>2.5741466144376019E-2</v>
       </c>
       <c r="O26" s="9">
-        <f t="shared" ref="O26:R26" si="240">(O4-O7)/O4</f>
+        <f t="shared" ref="O26:R26" si="241">(O4-O7)/O4</f>
         <v>0.13834726090993504</v>
       </c>
       <c r="P26" s="9">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>-5.9397163120567399E-2</v>
       </c>
       <c r="Q26" s="9">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>-0.14989733059548249</v>
       </c>
       <c r="R26" s="9">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>-0.28447742733457021</v>
       </c>
       <c r="S26" s="9">
-        <f t="shared" ref="S26:AA26" si="241">(S4-S7)/S4</f>
+        <f t="shared" ref="S26:AA26" si="242">(S4-S7)/S4</f>
         <v>-0.1739631336405531</v>
       </c>
       <c r="T26" s="9">
-        <f t="shared" si="241"/>
+        <f t="shared" si="242"/>
         <v>-0.19957983193277309</v>
       </c>
       <c r="U26" s="9">
-        <f t="shared" si="241"/>
+        <f t="shared" si="242"/>
         <v>-0.1571125265392781</v>
       </c>
       <c r="V26" s="9">
-        <f t="shared" si="241"/>
+        <f t="shared" si="242"/>
         <v>-0.32106038291605293</v>
       </c>
       <c r="W26" s="9">
-        <f t="shared" si="241"/>
+        <f t="shared" si="242"/>
         <v>3.3834586466165495E-2</v>
       </c>
       <c r="X26" s="9">
-        <f t="shared" si="241"/>
+        <f t="shared" si="242"/>
         <v>-0.16924564796905223</v>
       </c>
       <c r="Y26" s="9">
-        <f t="shared" si="241"/>
+        <f t="shared" si="242"/>
         <v>-7.5079872204472778E-2</v>
       </c>
       <c r="Z26" s="9">
-        <f t="shared" si="241"/>
+        <f t="shared" si="242"/>
         <v>-0.13174807197943444</v>
       </c>
       <c r="AA26" s="9">
-        <f t="shared" si="241"/>
+        <f t="shared" si="242"/>
         <v>-4.8221343873517744E-2</v>
       </c>
       <c r="AB26" s="9">
-        <f t="shared" ref="AB26:AD26" si="242">(AB4-AB7)/AB4</f>
+        <f t="shared" ref="AB26:AD26" si="243">(AB4-AB7)/AB4</f>
         <v>-0.10570236439499296</v>
       </c>
       <c r="AC26" s="9">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>-7.5974025974025902E-2</v>
       </c>
       <c r="AD26" s="9">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>-0.28605914302957158</v>
       </c>
       <c r="AE26" s="9">
-        <f t="shared" ref="AE26:AH26" si="243">(AE4-AE7)/AE4</f>
-        <v>-7.0000000000000021E-2</v>
+        <f t="shared" ref="AE26:AH26" si="244">(AE4-AE7)/AE4</f>
+        <v>-0.1372408863473909</v>
       </c>
       <c r="AF26" s="9">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>-7.0000000000000048E-2</v>
       </c>
       <c r="AG26" s="9">
-        <f t="shared" si="243"/>
-        <v>-9.0000000000000066E-2</v>
+        <f t="shared" si="244"/>
+        <v>-9.0000000000000024E-2</v>
       </c>
       <c r="AH26" s="9">
-        <f t="shared" si="243"/>
-        <v>-0.19999999999999993</v>
+        <f t="shared" si="244"/>
+        <v>-0.19999999999999996</v>
       </c>
       <c r="AJ26" s="9">
-        <f t="shared" ref="AJ26" si="244">(AJ4-AJ7)/AJ4</f>
+        <f t="shared" ref="AJ26" si="245">(AJ4-AJ7)/AJ4</f>
         <v>0.10995085995085997</v>
       </c>
       <c r="AK26" s="9">
-        <f t="shared" ref="AK26:AL26" si="245">(AK4-AK7)/AK4</f>
+        <f t="shared" ref="AK26:AL26" si="246">(AK4-AK7)/AK4</f>
         <v>4.4060809069827421E-2</v>
       </c>
       <c r="AL26" s="9">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>8.538973756365055E-2</v>
       </c>
       <c r="AM26" s="9">
-        <f t="shared" ref="AM26:AV26" si="246">(AM4-AM7)/AM4</f>
+        <f t="shared" ref="AM26:AV26" si="247">(AM4-AM7)/AM4</f>
         <v>-0.10925771476230199</v>
       </c>
       <c r="AN26" s="9">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>-0.22451456310679613</v>
       </c>
       <c r="AO26" s="9">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>-8.92784345699143E-2</v>
       </c>
       <c r="AP26" s="9">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>-0.13627118644067793</v>
       </c>
       <c r="AQ26" s="9">
-        <f t="shared" si="246"/>
-        <v>-0.11173050847457622</v>
+        <f t="shared" si="247"/>
+        <v>-0.12580007928648587</v>
       </c>
       <c r="AR26" s="9">
-        <f t="shared" si="246"/>
-        <v>-4.9999999999999982E-2</v>
+        <f t="shared" si="247"/>
+        <v>-4.9999999999999968E-2</v>
       </c>
       <c r="AS26" s="9">
-        <f t="shared" si="246"/>
-        <v>-1.0000000000000054E-2</v>
+        <f t="shared" si="247"/>
+        <v>-1.0000000000000059E-2</v>
       </c>
       <c r="AT26" s="9">
-        <f t="shared" si="246"/>
-        <v>1.0000000000000092E-2</v>
+        <f t="shared" si="247"/>
+        <v>9.999999999999936E-3</v>
       </c>
       <c r="AU26" s="9">
-        <f t="shared" si="246"/>
-        <v>9.9999999999999933E-3</v>
-      </c>
-      <c r="AV26" s="9">
-        <f t="shared" si="246"/>
-        <v>1.0000000000000049E-2</v>
-      </c>
-      <c r="AW26" s="9">
-        <f t="shared" ref="AW26:BA26" si="247">(AW4-AW7)/AW4</f>
-        <v>9.9999999999999464E-3</v>
-      </c>
-      <c r="AX26" s="9">
-        <f t="shared" si="247"/>
-        <v>9.9999999999999482E-3</v>
-      </c>
-      <c r="AY26" s="9">
-        <f t="shared" si="247"/>
-        <v>9.9999999999999551E-3</v>
-      </c>
-      <c r="AZ26" s="9">
         <f t="shared" si="247"/>
         <v>9.9999999999999534E-3</v>
       </c>
+      <c r="AV26" s="9">
+        <f t="shared" si="247"/>
+        <v>1.0000000000000049E-2</v>
+      </c>
+      <c r="AW26" s="9">
+        <f t="shared" ref="AW26:BA26" si="248">(AW4-AW7)/AW4</f>
+        <v>9.9999999999999846E-3</v>
+      </c>
+      <c r="AX26" s="9">
+        <f t="shared" si="248"/>
+        <v>9.9999999999999811E-3</v>
+      </c>
+      <c r="AY26" s="9">
+        <f t="shared" si="248"/>
+        <v>1.0000000000000071E-2</v>
+      </c>
+      <c r="AZ26" s="9">
+        <f t="shared" si="248"/>
+        <v>9.9999999999999933E-3</v>
+      </c>
       <c r="BA26" s="9">
-        <f t="shared" si="247"/>
-        <v>9.9999999999999412E-3</v>
+        <f t="shared" si="248"/>
+        <v>9.9999999999999707E-3</v>
       </c>
       <c r="BC26" t="s">
         <v>48</v>
@@ -5907,35 +5899,35 @@
         <v>0.46193265007320644</v>
       </c>
       <c r="D27" s="9">
-        <f t="shared" ref="D27:G27" si="248">D9/D5</f>
+        <f t="shared" ref="D27:G27" si="249">D9/D5</f>
         <v>0.49617346938775514</v>
       </c>
       <c r="E27" s="9">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>0.45559400230680497</v>
       </c>
       <c r="F27" s="9">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>0.4073268044976423</v>
       </c>
       <c r="G27" s="9">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>0.48814707305273336</v>
       </c>
       <c r="H27" s="9">
-        <f t="shared" ref="H27:N27" si="249">H9/H5</f>
+        <f t="shared" ref="H27:N27" si="250">H9/H5</f>
         <v>0.45661735305877643</v>
       </c>
       <c r="I27" s="9">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v>0.45381372173246448</v>
       </c>
       <c r="J27" s="9">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v>0.39323929961089499</v>
       </c>
       <c r="K27" s="9">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v>0.44014962593516205</v>
       </c>
       <c r="L27" s="9">
@@ -5943,171 +5935,171 @@
         <v>0.41252457174950863</v>
       </c>
       <c r="M27" s="9">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v>0.47542072630646598</v>
       </c>
       <c r="N27" s="9">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v>0.47007231881827977</v>
       </c>
       <c r="O27" s="9">
-        <f t="shared" ref="O27:R27" si="250">O9/O5</f>
+        <f t="shared" ref="O27:R27" si="251">O9/O5</f>
         <v>0.56913967258794851</v>
       </c>
       <c r="P27" s="9">
-        <f t="shared" si="250"/>
+        <f t="shared" si="251"/>
         <v>0.52441481940784362</v>
       </c>
       <c r="Q27" s="9">
-        <f t="shared" si="250"/>
+        <f t="shared" si="251"/>
         <v>0.53522576849536696</v>
       </c>
       <c r="R27" s="9">
-        <f t="shared" si="250"/>
+        <f t="shared" si="251"/>
         <v>0.4386917831965792</v>
       </c>
       <c r="S27" s="9">
-        <f t="shared" ref="S27:AA27" si="251">S9/S5</f>
+        <f t="shared" ref="S27:AA27" si="252">S9/S5</f>
         <v>0.4972059424833038</v>
       </c>
       <c r="T27" s="9">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>0.46461739699149768</v>
       </c>
       <c r="U27" s="9">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>0.46861045442605731</v>
       </c>
       <c r="V27" s="9">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>0.42025141275516076</v>
       </c>
       <c r="W27" s="9">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>0.45560053981106607</v>
       </c>
       <c r="X27" s="9">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>0.4465950666824029</v>
       </c>
       <c r="Y27" s="9">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>0.40438596491228063</v>
       </c>
       <c r="Z27" s="9">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>0.44489588623666837</v>
       </c>
       <c r="AA27" s="9">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>0.44043567052416605</v>
       </c>
       <c r="AB27" s="9">
-        <f t="shared" ref="AB27:AD27" si="252">AB9/AB5</f>
+        <f t="shared" ref="AB27:AD27" si="253">AB9/AB5</f>
         <v>0.43859105464311532</v>
       </c>
       <c r="AC27" s="9">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>0.45198644323103004</v>
       </c>
       <c r="AD27" s="9">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>0.42672772689425481</v>
       </c>
       <c r="AE27" s="9">
-        <f t="shared" ref="AE27:AH27" si="253">AE9/AE5</f>
-        <v>0.44487774665179802</v>
+        <f t="shared" ref="AE27:AH27" si="254">AE9/AE5</f>
+        <v>0.4360732830410502</v>
       </c>
       <c r="AF27" s="9">
-        <f t="shared" si="253"/>
-        <v>0.4502852587352712</v>
+        <f t="shared" si="254"/>
+        <v>0.44621103800924117</v>
       </c>
       <c r="AG27" s="9">
-        <f t="shared" si="253"/>
-        <v>0.45708436071571806</v>
+        <f t="shared" si="254"/>
+        <v>0.45566226624333489</v>
       </c>
       <c r="AH27" s="9">
-        <f t="shared" si="253"/>
-        <v>0.44518648554915946</v>
+        <f t="shared" si="254"/>
+        <v>0.44355368953517404</v>
       </c>
       <c r="AJ27" s="9">
-        <f t="shared" ref="AJ27" si="254">AJ9/AJ5</f>
+        <f t="shared" ref="AJ27" si="255">AJ9/AJ5</f>
         <v>0.44740740740740736</v>
       </c>
       <c r="AK27" s="9">
-        <f t="shared" ref="AK27:AL27" si="255">AK9/AK5</f>
+        <f t="shared" ref="AK27:AL27" si="256">AK9/AK5</f>
         <v>0.4386570998316946</v>
       </c>
       <c r="AL27" s="9">
-        <f t="shared" si="255"/>
+        <f t="shared" si="256"/>
         <v>0.45450967161493477</v>
       </c>
       <c r="AM27" s="9">
-        <f t="shared" ref="AM27:AV27" si="256">AM9/AM5</f>
+        <f t="shared" ref="AM27:AV27" si="257">AM9/AM5</f>
         <v>0.50953156086091511</v>
       </c>
       <c r="AN27" s="9">
-        <f t="shared" si="256"/>
+        <f t="shared" si="257"/>
         <v>0.46093325231074295</v>
       </c>
       <c r="AO27" s="9">
-        <f t="shared" si="256"/>
+        <f t="shared" si="257"/>
         <v>0.43698347107438018</v>
       </c>
       <c r="AP27" s="9">
-        <f t="shared" si="256"/>
+        <f t="shared" si="257"/>
         <v>0.43898169086001887</v>
       </c>
       <c r="AQ27" s="9">
-        <f t="shared" si="256"/>
-        <v>0.44940167625487359</v>
+        <f t="shared" si="257"/>
+        <v>0.44564165593435234</v>
       </c>
       <c r="AR27" s="9">
-        <f t="shared" si="256"/>
-        <v>0.47699490162530028</v>
+        <f t="shared" si="257"/>
+        <v>0.47287803891815228</v>
       </c>
       <c r="AS27" s="9">
-        <f t="shared" si="256"/>
-        <v>0.48520939061676654</v>
+        <f t="shared" si="257"/>
+        <v>0.48094097915446021</v>
       </c>
       <c r="AT27" s="9">
-        <f t="shared" si="256"/>
-        <v>0.48961732334069602</v>
+        <f t="shared" si="257"/>
+        <v>0.4856207083634615</v>
       </c>
       <c r="AU27" s="9">
-        <f t="shared" si="256"/>
-        <v>0.49065090554209728</v>
+        <f t="shared" si="257"/>
+        <v>0.48671367448442876</v>
       </c>
       <c r="AV27" s="9">
-        <f t="shared" si="256"/>
-        <v>0.49116432998060494</v>
+        <f t="shared" si="257"/>
+        <v>0.48725671338622389</v>
       </c>
       <c r="AW27" s="9">
-        <f t="shared" ref="AW27:BA27" si="257">AW9/AW5</f>
-        <v>0.49116432998060489</v>
+        <f t="shared" ref="AW27:BA27" si="258">AW9/AW5</f>
+        <v>0.48780099088287082</v>
       </c>
       <c r="AX27" s="9">
-        <f t="shared" si="257"/>
-        <v>0.49116432998060489</v>
+        <f t="shared" si="258"/>
+        <v>0.48834115693191055</v>
       </c>
       <c r="AY27" s="9">
-        <f t="shared" si="257"/>
-        <v>0.49116432998060489</v>
+        <f t="shared" si="258"/>
+        <v>0.48887723202447192</v>
       </c>
       <c r="AZ27" s="9">
-        <f t="shared" si="257"/>
-        <v>0.49116432998060489</v>
+        <f t="shared" si="258"/>
+        <v>0.48940923673657022</v>
       </c>
       <c r="BA27" s="9">
-        <f t="shared" si="257"/>
-        <v>0.49116432998060489</v>
+        <f t="shared" si="258"/>
+        <v>0.4899371917250438</v>
       </c>
       <c r="BC27" t="s">
         <v>49</v>
       </c>
       <c r="BD27" s="5">
         <f>NPV(BD26,AP18:FG18)</f>
-        <v>4949.2317098996718</v>
+        <v>4717.683312157913</v>
       </c>
     </row>
     <row r="28" spans="2:163" x14ac:dyDescent="0.3">
@@ -6119,207 +6111,207 @@
         <v>-5.0512445095168418E-2</v>
       </c>
       <c r="D28" s="9">
-        <f t="shared" ref="D28:G28" si="258">D14/D5</f>
+        <f t="shared" ref="D28:G28" si="259">D14/D5</f>
         <v>-6.3775510204078006E-4</v>
       </c>
       <c r="E28" s="9">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>-6.8050749711649525E-2</v>
       </c>
       <c r="F28" s="9">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>1.9949220166847973E-2</v>
       </c>
       <c r="G28" s="9">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>-5.1765844218674494E-2</v>
       </c>
       <c r="H28" s="9">
-        <f t="shared" ref="H28:N28" si="259">H14/H5</f>
+        <f t="shared" ref="H28:N28" si="260">H14/H5</f>
         <v>-4.1583366653338685E-2</v>
       </c>
       <c r="I28" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>-0.10233806055960146</v>
       </c>
       <c r="J28" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>-4.2071984435797551E-2</v>
       </c>
       <c r="K28" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>-0.17144638403990026</v>
       </c>
       <c r="L28" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>-0.11850603762987921</v>
       </c>
       <c r="M28" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>2.6129317980513815E-2</v>
       </c>
       <c r="N28" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.10032312663486689</v>
       </c>
       <c r="O28" s="9">
-        <f t="shared" ref="O28:R28" si="260">O14/O5</f>
+        <f t="shared" ref="O28:R28" si="261">O14/O5</f>
         <v>0.13200975269940798</v>
       </c>
       <c r="P28" s="9">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.10711517594171434</v>
       </c>
       <c r="Q28" s="9">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.10119135166936308</v>
       </c>
       <c r="R28" s="9">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>2.461574020570895E-2</v>
       </c>
       <c r="S28" s="9">
-        <f t="shared" ref="S28:AA28" si="261">S14/S5</f>
+        <f t="shared" ref="S28:AA28" si="262">S14/S5</f>
         <v>-3.2029439825541857E-2</v>
       </c>
       <c r="T28" s="9">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>-0.14453891432308705</v>
       </c>
       <c r="U28" s="9">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>-0.19306540583136317</v>
       </c>
       <c r="V28" s="9">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>-0.28820205281974409</v>
       </c>
       <c r="W28" s="9">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>-0.28677462887989214</v>
       </c>
       <c r="X28" s="9">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>-0.14858963767260716</v>
       </c>
       <c r="Y28" s="9">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>-0.38355263157894731</v>
       </c>
       <c r="Z28" s="9">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>-0.10573895378364655</v>
       </c>
       <c r="AA28" s="9">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>-8.1688223281143696E-2</v>
       </c>
       <c r="AB28" s="9">
-        <f t="shared" ref="AB28:AD28" si="262">AB14/AB5</f>
+        <f t="shared" ref="AB28:AD28" si="263">AB14/AB5</f>
         <v>-7.3752711496746309E-2</v>
       </c>
       <c r="AC28" s="9">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>-3.3609489738278868E-2</v>
       </c>
       <c r="AD28" s="9">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>-3.2639467110740991E-2</v>
       </c>
       <c r="AE28" s="9">
-        <f t="shared" ref="AE28:AH28" si="263">AE14/AE5</f>
-        <v>-4.0051512333960142E-2</v>
+        <f t="shared" ref="AE28:AH28" si="264">AE14/AE5</f>
+        <v>-5.6529832467914223E-2</v>
       </c>
       <c r="AF28" s="9">
-        <f t="shared" si="263"/>
-        <v>-3.4582563029245901E-2</v>
+        <f t="shared" si="264"/>
+        <v>-3.6582671619724248E-2</v>
       </c>
       <c r="AG28" s="9">
-        <f t="shared" si="263"/>
-        <v>-1.0441883016332735E-2</v>
+        <f t="shared" si="264"/>
+        <v>-1.1220556239165515E-2</v>
       </c>
       <c r="AH28" s="9">
-        <f t="shared" si="263"/>
-        <v>4.5488586243776392E-3</v>
+        <f t="shared" si="264"/>
+        <v>3.4744379729378248E-3</v>
       </c>
       <c r="AJ28" s="9">
-        <f t="shared" ref="AJ28" si="264">AJ14/AJ5</f>
+        <f t="shared" ref="AJ28" si="265">AJ14/AJ5</f>
         <v>-1.7912457912457928E-2</v>
       </c>
       <c r="AK28" s="9">
-        <f t="shared" ref="AK28:AL28" si="265">AK14/AK5</f>
+        <f t="shared" ref="AK28:AL28" si="266">AK14/AK5</f>
         <v>-5.7666755248471882E-2</v>
       </c>
       <c r="AL28" s="9">
-        <f t="shared" si="265"/>
+        <f t="shared" si="266"/>
         <v>-1.1358524516419279E-2</v>
       </c>
       <c r="AM28" s="9">
-        <f t="shared" ref="AM28:AV28" si="266">AM14/AM5</f>
+        <f t="shared" ref="AM28:AV28" si="267">AM14/AM5</f>
         <v>8.5006330258636201E-2</v>
       </c>
       <c r="AN28" s="9">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>-0.16979563117664001</v>
       </c>
       <c r="AO28" s="9">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>-0.22735881542699715</v>
       </c>
       <c r="AP28" s="9">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>-5.3079485496146134E-2</v>
       </c>
       <c r="AQ28" s="9">
-        <f t="shared" si="266"/>
-        <v>-1.8407904681408085E-2</v>
+        <f t="shared" si="267"/>
+        <v>-2.3122124422068839E-2</v>
       </c>
       <c r="AR28" s="9">
-        <f t="shared" si="266"/>
-        <v>3.501494320142147E-2</v>
+        <f t="shared" si="267"/>
+        <v>3.0322813692389823E-2</v>
       </c>
       <c r="AS28" s="9">
-        <f t="shared" si="266"/>
-        <v>6.606152071274804E-2</v>
+        <f t="shared" si="267"/>
+        <v>6.1409581800431295E-2</v>
       </c>
       <c r="AT28" s="9">
-        <f t="shared" si="266"/>
-        <v>8.9188151670898205E-2</v>
+        <f t="shared" si="267"/>
+        <v>8.4744172634695455E-2</v>
       </c>
       <c r="AU28" s="9">
-        <f t="shared" si="266"/>
-        <v>9.5160627623279995E-2</v>
+        <f t="shared" si="267"/>
+        <v>9.073934366716073E-2</v>
       </c>
       <c r="AV28" s="9">
-        <f t="shared" si="266"/>
-        <v>9.8764109110573428E-2</v>
+        <f t="shared" si="267"/>
+        <v>9.4347741279195069E-2</v>
       </c>
       <c r="AW28" s="9">
-        <f t="shared" ref="AW28:BA28" si="267">AW14/AW5</f>
-        <v>0.10006361917841362</v>
+        <f t="shared" ref="AW28:BA28" si="268">AW14/AW5</f>
+        <v>9.5947317577304347E-2</v>
       </c>
       <c r="AX28" s="9">
-        <f t="shared" si="267"/>
-        <v>0.10135038895147114</v>
+        <f t="shared" si="268"/>
+        <v>9.7534810748361886E-2</v>
       </c>
       <c r="AY28" s="9">
-        <f t="shared" si="267"/>
-        <v>0.10262454333459668</v>
+        <f t="shared" si="268"/>
+        <v>9.9110281013714732E-2</v>
       </c>
       <c r="AZ28" s="9">
-        <f t="shared" si="267"/>
-        <v>0.10388620600808381</v>
+        <f t="shared" si="268"/>
+        <v>0.10067378884418274</v>
       </c>
       <c r="BA28" s="9">
-        <f t="shared" si="267"/>
-        <v>0.1051354994396739</v>
+        <f t="shared" si="268"/>
+        <v>0.10222539494811619</v>
       </c>
       <c r="BC28" t="s">
         <v>50</v>
       </c>
       <c r="BD28" s="5">
         <f>Main!D8</f>
-        <v>2058.5</v>
+        <v>2256.1</v>
       </c>
     </row>
     <row r="29" spans="2:163" x14ac:dyDescent="0.3">
@@ -6331,184 +6323,184 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9">
-        <f t="shared" ref="G29:N29" si="268">G10/C10-1</f>
+        <f t="shared" ref="G29:N29" si="269">G10/C10-1</f>
         <v>0.63343108504398837</v>
       </c>
       <c r="H29" s="9">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.54228855721393021</v>
       </c>
       <c r="I29" s="9">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.50881057268722474</v>
       </c>
       <c r="J29" s="9">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.54509803921568611</v>
       </c>
       <c r="K29" s="9">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.58527827648114883</v>
       </c>
       <c r="L29" s="9">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.3612903225806452</v>
       </c>
       <c r="M29" s="9">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.29051094890510964</v>
       </c>
       <c r="N29" s="9">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.20177664974619303</v>
       </c>
       <c r="O29" s="9">
-        <f t="shared" ref="O29" si="269">O10/K10-1</f>
+        <f t="shared" ref="O29" si="270">O10/K10-1</f>
         <v>0.15062287655719131</v>
       </c>
       <c r="P29" s="9">
-        <f t="shared" ref="P29" si="270">P10/L10-1</f>
+        <f t="shared" ref="P29" si="271">P10/L10-1</f>
         <v>0.3424170616113742</v>
       </c>
       <c r="Q29" s="9">
-        <f t="shared" ref="Q29" si="271">Q10/M10-1</f>
+        <f t="shared" ref="Q29" si="272">Q10/M10-1</f>
         <v>0.36085972850678716</v>
       </c>
       <c r="R29" s="9">
-        <f t="shared" ref="R29" si="272">R10/N10-1</f>
+        <f t="shared" ref="R29" si="273">R10/N10-1</f>
         <v>0.33474128827877503</v>
       </c>
       <c r="S29" s="9">
-        <f t="shared" ref="S29" si="273">S10/O10-1</f>
+        <f t="shared" ref="S29" si="274">S10/O10-1</f>
         <v>0.61417322834645671</v>
       </c>
       <c r="T29" s="9">
-        <f t="shared" ref="T29" si="274">T10/P10-1</f>
+        <f t="shared" ref="T29" si="275">T10/P10-1</f>
         <v>0.73521624007060904</v>
       </c>
       <c r="U29" s="9">
-        <f t="shared" ref="U29" si="275">U10/Q10-1</f>
+        <f t="shared" ref="U29" si="276">U10/Q10-1</f>
         <v>0.72568578553615959</v>
       </c>
       <c r="V29" s="9">
-        <f t="shared" ref="V29" si="276">V10/R10-1</f>
+        <f t="shared" ref="V29" si="277">V10/R10-1</f>
         <v>0.74604430379746822</v>
       </c>
       <c r="W29" s="9">
-        <f t="shared" ref="W29" si="277">W10/S10-1</f>
+        <f t="shared" ref="W29" si="278">W10/S10-1</f>
         <v>0.34207317073170729</v>
       </c>
       <c r="X29" s="9">
-        <f t="shared" ref="X29" si="278">X10/T10-1</f>
+        <f t="shared" ref="X29" si="279">X10/T10-1</f>
         <v>-2.1363173957273607E-2</v>
       </c>
       <c r="Y29" s="9">
-        <f t="shared" ref="Y29" si="279">Y10/U10-1</f>
+        <f t="shared" ref="Y29" si="280">Y10/U10-1</f>
         <v>0.359344894026975</v>
       </c>
       <c r="Z29" s="9">
-        <f t="shared" ref="Z29" si="280">Z10/V10-1</f>
+        <f t="shared" ref="Z29" si="281">Z10/V10-1</f>
         <v>-0.16719528772088799</v>
       </c>
       <c r="AA29" s="9">
-        <f t="shared" ref="AA29" si="281">AA10/W10-1</f>
+        <f t="shared" ref="AA29" si="282">AA10/W10-1</f>
         <v>-0.18037255792821438</v>
       </c>
       <c r="AB29" s="9">
-        <f t="shared" ref="AB29" si="282">AB10/X10-1</f>
+        <f t="shared" ref="AB29" si="283">AB10/X10-1</f>
         <v>-8.7837837837837829E-2</v>
       </c>
       <c r="AC29" s="9">
-        <f t="shared" ref="AC29" si="283">AC10/Y10-1</f>
+        <f t="shared" ref="AC29" si="284">AC10/Y10-1</f>
         <v>-0.36640680368532952</v>
       </c>
       <c r="AD29" s="9">
-        <f t="shared" ref="AD29" si="284">AD10/Z10-1</f>
+        <f t="shared" ref="AD29" si="285">AD10/Z10-1</f>
         <v>8.705114254624613E-3</v>
       </c>
       <c r="AE29" s="9">
-        <f t="shared" ref="AE29" si="285">AE10/AA10-1</f>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" ref="AE29" si="286">AE10/AA10-1</f>
+        <v>2.3281596452328079E-2</v>
       </c>
       <c r="AF29" s="9">
-        <f t="shared" ref="AF29" si="286">AF10/AB10-1</f>
+        <f t="shared" ref="AF29" si="287">AF10/AB10-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AG29" s="9">
-        <f t="shared" ref="AG29" si="287">AG10/AC10-1</f>
+        <f t="shared" ref="AG29" si="288">AG10/AC10-1</f>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="AH29" s="9">
-        <f t="shared" ref="AH29" si="288">AH10/AD10-1</f>
+        <f t="shared" ref="AH29" si="289">AH10/AD10-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AJ29" s="9"/>
       <c r="AK29" s="9">
-        <f t="shared" ref="AK29" si="289">AK10/AJ10-1</f>
+        <f t="shared" ref="AK29" si="290">AK10/AJ10-1</f>
         <v>0.55243116578793194</v>
       </c>
       <c r="AL29" s="9">
-        <f t="shared" ref="AL29" si="290">AL10/AK10-1</f>
+        <f t="shared" ref="AL29" si="291">AL10/AK10-1</f>
         <v>0.34264150943396232</v>
       </c>
       <c r="AM29" s="9">
-        <f t="shared" ref="AM29" si="291">AM10/AL10-1</f>
+        <f t="shared" ref="AM29" si="292">AM10/AL10-1</f>
         <v>0.29735806632939865</v>
       </c>
       <c r="AN29" s="9">
-        <f t="shared" ref="AN29" si="292">AN10/AM10-1</f>
+        <f t="shared" ref="AN29" si="293">AN10/AM10-1</f>
         <v>0.70905545927209723</v>
       </c>
       <c r="AO29" s="9">
-        <f t="shared" ref="AO29" si="293">AO10/AN10-1</f>
+        <f t="shared" ref="AO29" si="294">AO10/AN10-1</f>
         <v>0.11357586512866003</v>
       </c>
       <c r="AP29" s="9">
-        <f t="shared" ref="AP29" si="294">AP10/AO10-1</f>
+        <f t="shared" ref="AP29" si="295">AP10/AO10-1</f>
         <v>-0.18030734206033006</v>
       </c>
       <c r="AQ29" s="9">
-        <f t="shared" ref="AQ29" si="295">AQ10/AP10-1</f>
-        <v>4.719761144285517E-2</v>
+        <f t="shared" ref="AQ29" si="296">AQ10/AP10-1</f>
+        <v>4.5514511873350871E-2</v>
       </c>
       <c r="AR29" s="9">
-        <f t="shared" ref="AR29" si="296">AR10/AQ10-1</f>
+        <f t="shared" ref="AR29" si="297">AR10/AQ10-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AS29" s="9">
-        <f t="shared" ref="AS29" si="297">AS10/AR10-1</f>
+        <f t="shared" ref="AS29" si="298">AS10/AR10-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AT29" s="9">
-        <f t="shared" ref="AT29" si="298">AT10/AS10-1</f>
+        <f t="shared" ref="AT29" si="299">AT10/AS10-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AU29" s="9">
-        <f t="shared" ref="AU29" si="299">AU10/AT10-1</f>
+        <f t="shared" ref="AU29" si="300">AU10/AT10-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AV29" s="9">
-        <f t="shared" ref="AV29:AW29" si="300">AV10/AU10-1</f>
+        <f t="shared" ref="AV29:AW29" si="301">AV10/AU10-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AW29" s="9">
-        <f t="shared" si="300"/>
+        <f t="shared" si="301"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AX29" s="9">
-        <f t="shared" ref="AX29" si="301">AX10/AW10-1</f>
+        <f t="shared" ref="AX29" si="302">AX10/AW10-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AY29" s="9">
-        <f t="shared" ref="AY29" si="302">AY10/AX10-1</f>
+        <f t="shared" ref="AY29" si="303">AY10/AX10-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AZ29" s="9">
-        <f t="shared" ref="AZ29" si="303">AZ10/AY10-1</f>
+        <f t="shared" ref="AZ29" si="304">AZ10/AY10-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="BA29" s="9">
-        <f t="shared" ref="BA29" si="304">BA10/AZ10-1</f>
+        <f t="shared" ref="BA29" si="305">BA10/AZ10-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="BC29" t="s">
@@ -6516,7 +6508,7 @@
       </c>
       <c r="BD29" s="5">
         <f>BD27+BD28</f>
-        <v>7007.7317098996718</v>
+        <v>6973.7833121579133</v>
       </c>
     </row>
     <row r="30" spans="2:163" x14ac:dyDescent="0.3">
@@ -6528,207 +6520,207 @@
         <v>0.14860907759882871</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" ref="D30:G30" si="305">D11/D5</f>
+        <f t="shared" ref="D30:G30" si="306">D11/D5</f>
         <v>0.14221938775510204</v>
       </c>
       <c r="E30" s="9">
-        <f t="shared" si="305"/>
+        <f t="shared" si="306"/>
         <v>0.14763552479815459</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" si="305"/>
+        <f t="shared" si="306"/>
         <v>0.12549873050417121</v>
       </c>
       <c r="G30" s="9">
-        <f t="shared" si="305"/>
+        <f t="shared" si="306"/>
         <v>0.16352201257861634</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" ref="H30:N30" si="306">H11/H5</f>
+        <f t="shared" ref="H30:N30" si="307">H11/H5</f>
         <v>0.14634146341463417</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" si="306"/>
+        <f t="shared" si="307"/>
         <v>0.17899578382522041</v>
       </c>
       <c r="J30" s="9">
-        <f t="shared" si="306"/>
+        <f t="shared" si="307"/>
         <v>0.15029182879377428</v>
       </c>
       <c r="K30" s="9">
-        <f t="shared" si="306"/>
+        <f t="shared" si="307"/>
         <v>0.21259351620947631</v>
       </c>
       <c r="L30" s="9">
-        <f t="shared" si="306"/>
+        <f t="shared" si="307"/>
         <v>0.18028643639427128</v>
       </c>
       <c r="M30" s="9">
-        <f t="shared" si="306"/>
+        <f t="shared" si="307"/>
         <v>0.15721877767936226</v>
       </c>
       <c r="N30" s="9">
-        <f t="shared" si="306"/>
+        <f t="shared" si="307"/>
         <v>0.1478689029081397</v>
       </c>
       <c r="O30" s="9">
-        <f t="shared" ref="O30:R30" si="307">O11/O5</f>
+        <f t="shared" ref="O30:R30" si="308">O11/O5</f>
         <v>0.15482410309996517</v>
       </c>
       <c r="P30" s="9">
-        <f t="shared" si="307"/>
+        <f t="shared" si="308"/>
         <v>0.14524879863587042</v>
       </c>
       <c r="Q30" s="9">
-        <f t="shared" si="307"/>
+        <f t="shared" si="308"/>
         <v>0.1613472569495514</v>
       </c>
       <c r="R30" s="9">
-        <f t="shared" si="307"/>
+        <f t="shared" si="308"/>
         <v>0.18883624176586156</v>
       </c>
       <c r="S30" s="9">
-        <f t="shared" ref="S30:AA30" si="308">S11/S5</f>
+        <f t="shared" ref="S30:AA30" si="309">S11/S5</f>
         <v>0.19967289082731363</v>
       </c>
       <c r="T30" s="9">
-        <f t="shared" si="308"/>
+        <f t="shared" si="309"/>
         <v>0.2419882275997384</v>
       </c>
       <c r="U30" s="9">
-        <f t="shared" si="308"/>
+        <f t="shared" si="309"/>
         <v>0.2750197005516154</v>
       </c>
       <c r="V30" s="9">
-        <f t="shared" si="308"/>
+        <f t="shared" si="309"/>
         <v>0.34321300888017536</v>
       </c>
       <c r="W30" s="9">
-        <f t="shared" si="308"/>
+        <f t="shared" si="309"/>
         <v>0.31565452091767882</v>
       </c>
       <c r="X30" s="9">
-        <f t="shared" si="308"/>
+        <f t="shared" si="309"/>
         <v>0.26814587513277471</v>
       </c>
       <c r="Y30" s="9">
-        <f t="shared" si="308"/>
+        <f t="shared" si="309"/>
         <v>0.33739035087719299</v>
       </c>
       <c r="Z30" s="9">
-        <f t="shared" si="308"/>
+        <f t="shared" si="309"/>
         <v>0.26876587100050792</v>
       </c>
       <c r="AA30" s="9">
-        <f t="shared" si="308"/>
+        <f t="shared" si="309"/>
         <v>0.22929430451554345</v>
       </c>
       <c r="AB30" s="9">
-        <f t="shared" ref="AB30:AD30" si="309">AB11/AB5</f>
+        <f t="shared" ref="AB30:AD30" si="310">AB11/AB5</f>
         <v>0.22900526805082119</v>
       </c>
       <c r="AC30" s="9">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>0.22312182263227262</v>
       </c>
       <c r="AD30" s="9">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>0.22639467110741046</v>
       </c>
       <c r="AE30" s="9">
-        <f t="shared" ref="AE30:AH30" si="310">AE11/AE5</f>
+        <f t="shared" ref="AE30:AH30" si="311">AE11/AE5</f>
+        <v>0.21916331929068286</v>
+      </c>
+      <c r="AF30" s="9">
+        <f t="shared" si="311"/>
         <v>0.22</v>
       </c>
-      <c r="AF30" s="9">
-        <f t="shared" si="310"/>
+      <c r="AG30" s="9">
+        <f t="shared" si="311"/>
         <v>0.22</v>
       </c>
-      <c r="AG30" s="9">
-        <f t="shared" si="310"/>
+      <c r="AH30" s="9">
+        <f t="shared" si="311"/>
         <v>0.22</v>
       </c>
-      <c r="AH30" s="9">
-        <f t="shared" si="310"/>
-        <v>0.22</v>
-      </c>
       <c r="AJ30" s="9">
-        <f t="shared" ref="AJ30" si="311">AJ11/AJ5</f>
+        <f t="shared" ref="AJ30" si="312">AJ11/AJ5</f>
         <v>0.13845117845117846</v>
       </c>
       <c r="AK30" s="9">
-        <f t="shared" ref="AK30:AL30" si="312">AK11/AK5</f>
+        <f t="shared" ref="AK30:AL30" si="313">AK11/AK5</f>
         <v>0.15847284967667641</v>
       </c>
       <c r="AL30" s="9">
-        <f t="shared" si="312"/>
+        <f t="shared" si="313"/>
         <v>0.16840980656770133</v>
       </c>
       <c r="AM30" s="9">
-        <f t="shared" ref="AM30:AV30" si="313">AM11/AM5</f>
+        <f t="shared" ref="AM30:AV30" si="314">AM11/AM5</f>
         <v>0.16483993488876833</v>
       </c>
       <c r="AN30" s="9">
-        <f t="shared" si="313"/>
+        <f t="shared" si="314"/>
         <v>0.26817411328237439</v>
       </c>
       <c r="AO30" s="9">
-        <f t="shared" si="313"/>
+        <f t="shared" si="314"/>
         <v>0.29654499540863177</v>
       </c>
       <c r="AP30" s="9">
-        <f t="shared" si="313"/>
+        <f t="shared" si="314"/>
         <v>0.22678532351010283</v>
       </c>
       <c r="AQ30" s="9">
-        <f t="shared" si="313"/>
-        <v>0.22</v>
+        <f t="shared" si="314"/>
+        <v>0.21981502731920874</v>
       </c>
       <c r="AR30" s="9">
-        <f t="shared" si="313"/>
+        <f t="shared" si="314"/>
         <v>0.21</v>
       </c>
       <c r="AS30" s="9">
-        <f t="shared" si="313"/>
-        <v>0.2</v>
+        <f t="shared" si="314"/>
+        <v>0.19999999999999998</v>
       </c>
       <c r="AT30" s="9">
-        <f t="shared" si="313"/>
-        <v>0.19</v>
-      </c>
-      <c r="AU30" s="9">
-        <f t="shared" si="313"/>
-        <v>0.19</v>
-      </c>
-      <c r="AV30" s="9">
-        <f t="shared" si="313"/>
-        <v>0.19000000000000003</v>
-      </c>
-      <c r="AW30" s="9">
-        <f t="shared" ref="AW30:BA30" si="314">AW11/AW5</f>
-        <v>0.19</v>
-      </c>
-      <c r="AX30" s="9">
         <f t="shared" si="314"/>
         <v>0.19</v>
       </c>
-      <c r="AY30" s="9">
+      <c r="AU30" s="9">
+        <f t="shared" si="314"/>
+        <v>0.19000000000000003</v>
+      </c>
+      <c r="AV30" s="9">
         <f t="shared" si="314"/>
         <v>0.19</v>
       </c>
+      <c r="AW30" s="9">
+        <f t="shared" ref="AW30:BA30" si="315">AW11/AW5</f>
+        <v>0.18999999999999997</v>
+      </c>
+      <c r="AX30" s="9">
+        <f t="shared" si="315"/>
+        <v>0.19000000000000003</v>
+      </c>
+      <c r="AY30" s="9">
+        <f t="shared" si="315"/>
+        <v>0.19</v>
+      </c>
       <c r="AZ30" s="9">
-        <f t="shared" si="314"/>
+        <f t="shared" si="315"/>
         <v>0.19</v>
       </c>
       <c r="BA30" s="9">
-        <f t="shared" si="314"/>
-        <v>0.19</v>
+        <f t="shared" si="315"/>
+        <v>0.18999999999999997</v>
       </c>
       <c r="BC30" t="s">
         <v>52</v>
       </c>
       <c r="BD30" s="11">
         <f>BD29/AV19</f>
-        <v>48.031060383136897</v>
+        <v>47.570145376247709</v>
       </c>
     </row>
     <row r="31" spans="2:163" x14ac:dyDescent="0.3">
@@ -6740,184 +6732,184 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9">
-        <f t="shared" ref="G31:N31" si="315">G12/C12-1</f>
+        <f t="shared" ref="G31:N31" si="316">G12/C12-1</f>
         <v>0.41666666666666674</v>
       </c>
       <c r="H31" s="9">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>0.68831168831168821</v>
       </c>
       <c r="I31" s="9">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>0.51010101010100994</v>
       </c>
       <c r="J31" s="9">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>0.81132075471698117</v>
       </c>
       <c r="K31" s="9">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>0.79638009049773761</v>
       </c>
       <c r="L31" s="9">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>0.55769230769230771</v>
       </c>
       <c r="M31" s="9">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>0.45484949832775934</v>
       </c>
       <c r="N31" s="9">
-        <f t="shared" si="315"/>
+        <f t="shared" si="316"/>
         <v>0.2890625</v>
       </c>
       <c r="O31" s="9">
-        <f t="shared" ref="O31" si="316">O12/K12-1</f>
+        <f t="shared" ref="O31" si="317">O12/K12-1</f>
         <v>0.52392947103274556</v>
       </c>
       <c r="P31" s="9">
-        <f t="shared" ref="P31" si="317">P12/L12-1</f>
+        <f t="shared" ref="P31" si="318">P12/L12-1</f>
         <v>0.53580246913580254</v>
       </c>
       <c r="Q31" s="9">
-        <f t="shared" ref="Q31" si="318">Q12/M12-1</f>
+        <f t="shared" ref="Q31" si="319">Q12/M12-1</f>
         <v>0.49655172413793092</v>
       </c>
       <c r="R31" s="9">
-        <f t="shared" ref="R31" si="319">R12/N12-1</f>
+        <f t="shared" ref="R31" si="320">R12/N12-1</f>
         <v>0.38383838383838387</v>
       </c>
       <c r="S31" s="9">
-        <f t="shared" ref="S31" si="320">S12/O12-1</f>
+        <f t="shared" ref="S31" si="321">S12/O12-1</f>
         <v>0.28595041322314052</v>
       </c>
       <c r="T31" s="9">
-        <f t="shared" ref="T31" si="321">T12/P12-1</f>
+        <f t="shared" ref="T31" si="322">T12/P12-1</f>
         <v>0.35209003215434076</v>
       </c>
       <c r="U31" s="9">
-        <f t="shared" ref="U31" si="322">U12/Q12-1</f>
+        <f t="shared" ref="U31" si="323">U12/Q12-1</f>
         <v>0.33333333333333348</v>
       </c>
       <c r="V31" s="9">
-        <f t="shared" ref="V31" si="323">V12/R12-1</f>
+        <f t="shared" ref="V31" si="324">V12/R12-1</f>
         <v>0.4014598540145986</v>
       </c>
       <c r="W31" s="9">
-        <f t="shared" ref="W31" si="324">W12/S12-1</f>
+        <f t="shared" ref="W31" si="325">W12/S12-1</f>
         <v>0.23521850899742924</v>
       </c>
       <c r="X31" s="9">
-        <f t="shared" ref="X31" si="325">X12/T12-1</f>
+        <f t="shared" ref="X31" si="326">X12/T12-1</f>
         <v>7.1343638525565023E-3</v>
       </c>
       <c r="Y31" s="9">
-        <f t="shared" ref="Y31" si="326">Y12/U12-1</f>
+        <f t="shared" ref="Y31" si="327">Y12/U12-1</f>
         <v>0.48271889400921641</v>
       </c>
       <c r="Z31" s="9">
-        <f t="shared" ref="Z31" si="327">Z12/V12-1</f>
+        <f t="shared" ref="Z31" si="328">Z12/V12-1</f>
         <v>-2.3958333333333304E-2</v>
       </c>
       <c r="AA31" s="9">
-        <f t="shared" ref="AA31" si="328">AA12/W12-1</f>
+        <f t="shared" ref="AA31" si="329">AA12/W12-1</f>
         <v>-0.19146722164412067</v>
       </c>
       <c r="AB31" s="9">
-        <f t="shared" ref="AB31" si="329">AB12/X12-1</f>
+        <f t="shared" ref="AB31" si="330">AB12/X12-1</f>
         <v>0.166469893742621</v>
       </c>
       <c r="AC31" s="9">
-        <f t="shared" ref="AC31" si="330">AC12/Y12-1</f>
+        <f t="shared" ref="AC31" si="331">AC12/Y12-1</f>
         <v>-0.22299922299922292</v>
       </c>
       <c r="AD31" s="9">
-        <f t="shared" ref="AD31" si="331">AD12/Z12-1</f>
+        <f t="shared" ref="AD31" si="332">AD12/Z12-1</f>
         <v>7.4706510138740079E-3</v>
       </c>
       <c r="AE31" s="9">
-        <f t="shared" ref="AE31" si="332">AE12/AA12-1</f>
+        <f t="shared" ref="AE31" si="333">AE12/AA12-1</f>
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="AF31" s="9">
+        <f t="shared" ref="AF31" si="334">AF12/AB12-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AF31" s="9">
-        <f t="shared" ref="AF31" si="333">AF12/AB12-1</f>
+      <c r="AG31" s="9">
+        <f t="shared" ref="AG31" si="335">AG12/AC12-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AG31" s="9">
-        <f t="shared" ref="AG31" si="334">AG12/AC12-1</f>
-        <v>3.0000000000000027E-2</v>
-      </c>
       <c r="AH31" s="9">
-        <f t="shared" ref="AH31" si="335">AH12/AD12-1</f>
+        <f t="shared" ref="AH31" si="336">AH12/AD12-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AJ31" s="9"/>
       <c r="AK31" s="9">
-        <f t="shared" ref="AK31" si="336">AK12/AJ12-1</f>
+        <f t="shared" ref="AK31" si="337">AK12/AJ12-1</f>
         <v>0.6166666666666667</v>
       </c>
       <c r="AL31" s="9">
-        <f t="shared" ref="AL31" si="337">AL12/AK12-1</f>
+        <f t="shared" ref="AL31" si="338">AL12/AK12-1</f>
         <v>0.48797250859106511</v>
       </c>
       <c r="AM31" s="9">
-        <f t="shared" ref="AM31" si="338">AM12/AL12-1</f>
+        <f t="shared" ref="AM31" si="339">AM12/AL12-1</f>
         <v>0.47979214780600477</v>
       </c>
       <c r="AN31" s="9">
-        <f t="shared" ref="AN31" si="339">AN12/AM12-1</f>
+        <f t="shared" ref="AN31" si="340">AN12/AM12-1</f>
         <v>0.34490831057354643</v>
       </c>
       <c r="AO31" s="9">
-        <f t="shared" ref="AO31" si="340">AO12/AN12-1</f>
+        <f t="shared" ref="AO31" si="341">AO12/AN12-1</f>
         <v>0.16971279373368153</v>
       </c>
       <c r="AP31" s="9">
-        <f t="shared" ref="AP31" si="341">AP12/AO12-1</f>
+        <f t="shared" ref="AP31" si="342">AP12/AO12-1</f>
         <v>-8.0109126984126977E-2</v>
       </c>
       <c r="AQ31" s="9">
-        <f t="shared" ref="AQ31" si="342">AQ12/AP12-1</f>
-        <v>3.0000000000000249E-2</v>
+        <f t="shared" ref="AQ31" si="343">AQ12/AP12-1</f>
+        <v>6.9010514963602221E-2</v>
       </c>
       <c r="AR31" s="9">
-        <f t="shared" ref="AR31" si="343">AR12/AQ12-1</f>
+        <f t="shared" ref="AR31" si="344">AR12/AQ12-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AS31" s="9">
-        <f t="shared" ref="AS31" si="344">AS12/AR12-1</f>
+        <f t="shared" ref="AS31" si="345">AS12/AR12-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AT31" s="9">
-        <f t="shared" ref="AT31" si="345">AT12/AS12-1</f>
+        <f t="shared" ref="AT31" si="346">AT12/AS12-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AU31" s="9">
-        <f t="shared" ref="AU31" si="346">AU12/AT12-1</f>
+        <f t="shared" ref="AU31" si="347">AU12/AT12-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AV31" s="9">
-        <f t="shared" ref="AV31:AW31" si="347">AV12/AU12-1</f>
+        <f t="shared" ref="AV31:AW31" si="348">AV12/AU12-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AW31" s="9">
-        <f t="shared" si="347"/>
+        <f t="shared" si="348"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AX31" s="9">
-        <f t="shared" ref="AX31" si="348">AX12/AW12-1</f>
+        <f t="shared" ref="AX31" si="349">AX12/AW12-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AY31" s="9">
-        <f t="shared" ref="AY31" si="349">AY12/AX12-1</f>
+        <f t="shared" ref="AY31" si="350">AY12/AX12-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AZ31" s="9">
-        <f t="shared" ref="AZ31" si="350">AZ12/AY12-1</f>
+        <f t="shared" ref="AZ31" si="351">AZ12/AY12-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="BA31" s="9">
-        <f t="shared" ref="BA31" si="351">BA12/AZ12-1</f>
+        <f t="shared" ref="BA31" si="352">BA12/AZ12-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="BC31" t="s">
@@ -6925,7 +6917,7 @@
       </c>
       <c r="BD31" s="11">
         <f>Main!D3</f>
-        <v>60</v>
+        <v>59.53</v>
       </c>
     </row>
     <row r="32" spans="2:163" x14ac:dyDescent="0.3">
@@ -6937,207 +6929,207 @@
         <v>-1.5384615384615373E-2</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" ref="D32:G32" si="352">D17/D16</f>
+        <f t="shared" ref="D32:G32" si="353">D17/D16</f>
         <v>-1.9999999999999429</v>
       </c>
       <c r="E32" s="9">
-        <f t="shared" si="352"/>
+        <f t="shared" si="353"/>
         <v>2.0618556701030875E-2</v>
       </c>
       <c r="F32" s="9">
-        <f t="shared" si="352"/>
+        <f t="shared" si="353"/>
         <v>-1.4925373134328391E-2</v>
       </c>
       <c r="G32" s="9">
-        <f t="shared" si="352"/>
+        <f t="shared" si="353"/>
         <v>1.0204081632653045E-2</v>
       </c>
       <c r="H32" s="9">
-        <f t="shared" ref="H32:N32" si="353">H17/H16</f>
+        <f t="shared" ref="H32:N32" si="354">H17/H16</f>
         <v>4.0567951318458396E-2</v>
       </c>
       <c r="I32" s="9">
-        <f t="shared" si="353"/>
+        <f t="shared" si="354"/>
         <v>4.0485829959514144E-3</v>
       </c>
       <c r="J32" s="9">
-        <f t="shared" si="353"/>
+        <f t="shared" si="354"/>
         <v>2.5000000000000074E-2</v>
       </c>
       <c r="K32" s="9">
-        <f t="shared" si="353"/>
+        <f t="shared" si="354"/>
         <v>3.663003663003663E-3</v>
       </c>
       <c r="L32" s="9">
-        <f t="shared" si="353"/>
+        <f t="shared" si="354"/>
         <v>-1.1737089201877937E-2</v>
       </c>
       <c r="M32" s="9">
-        <f t="shared" si="353"/>
+        <f t="shared" si="354"/>
         <v>-8.1967213114753829E-2</v>
       </c>
       <c r="N32" s="9">
-        <f t="shared" si="353"/>
+        <f t="shared" si="354"/>
         <v>-1.0502625656414103E-2</v>
       </c>
       <c r="O32" s="9">
-        <f t="shared" ref="O32:R32" si="354">O17/O16</f>
+        <f t="shared" ref="O32:R32" si="355">O17/O16</f>
         <v>-1.0596026490066216E-2</v>
       </c>
       <c r="P32" s="9">
-        <f t="shared" si="354"/>
+        <f t="shared" si="355"/>
         <v>-5.150214592274685E-2</v>
       </c>
       <c r="Q32" s="9">
-        <f t="shared" si="354"/>
+        <f t="shared" si="355"/>
         <v>-4.3731778425656004E-3</v>
       </c>
       <c r="R32" s="9">
-        <f t="shared" si="354"/>
+        <f t="shared" si="355"/>
         <v>-4.8672566371681519E-2</v>
       </c>
       <c r="S32" s="9">
-        <f t="shared" ref="S32:AA32" si="355">S17/S16</f>
+        <f t="shared" ref="S32:AA32" si="356">S17/S16</f>
         <v>-9.0909090909090703E-2</v>
       </c>
       <c r="T32" s="9">
-        <f t="shared" si="355"/>
+        <f t="shared" si="356"/>
         <v>-2.3679417122040063E-2</v>
       </c>
       <c r="U32" s="9">
-        <f t="shared" si="355"/>
+        <f t="shared" si="356"/>
         <v>-1.6625103906899426E-2</v>
       </c>
       <c r="V32" s="9">
-        <f t="shared" si="355"/>
+        <f t="shared" si="356"/>
         <v>4.1981528127623827E-3</v>
       </c>
       <c r="W32" s="9">
-        <f t="shared" si="355"/>
+        <f t="shared" si="356"/>
         <v>-1.8997361477572555E-2</v>
       </c>
       <c r="X32" s="9">
-        <f t="shared" si="355"/>
+        <f t="shared" si="356"/>
         <v>-1.5108593012275727E-2</v>
       </c>
       <c r="Y32" s="9">
-        <f t="shared" si="355"/>
+        <f t="shared" si="356"/>
         <v>-9.7889262771489773E-3</v>
       </c>
       <c r="Z32" s="9">
-        <f t="shared" si="355"/>
+        <f t="shared" si="356"/>
         <v>-2.3560209424083763E-2</v>
       </c>
       <c r="AA32" s="9">
-        <f t="shared" si="355"/>
+        <f t="shared" si="356"/>
         <v>-0.10434782608695639</v>
       </c>
       <c r="AB32" s="9">
-        <f t="shared" ref="AB32:AD32" si="356">AB17/AB16</f>
+        <f t="shared" ref="AB32:AD32" si="357">AB17/AB16</f>
         <v>0.21247113163972242</v>
       </c>
       <c r="AC32" s="9">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>-0.85416666666669872</v>
       </c>
       <c r="AD32" s="9">
-        <f t="shared" si="356"/>
+        <f t="shared" si="357"/>
         <v>-0.37451737451737549</v>
       </c>
       <c r="AE32" s="9">
-        <f t="shared" ref="AE32:AH32" si="357">AE17/AE16</f>
+        <f t="shared" ref="AE32:AH32" si="358">AE17/AE16</f>
+        <v>0.32345679012345646</v>
+      </c>
+      <c r="AF32" s="9">
+        <f t="shared" si="358"/>
         <v>0.2</v>
       </c>
-      <c r="AF32" s="9">
-        <f t="shared" si="357"/>
+      <c r="AG32" s="9">
+        <f t="shared" si="358"/>
         <v>0.2</v>
       </c>
-      <c r="AG32" s="9">
-        <f t="shared" si="357"/>
+      <c r="AH32" s="9">
+        <f t="shared" si="358"/>
         <v>0.2</v>
       </c>
-      <c r="AH32" s="9">
-        <f t="shared" si="357"/>
-        <v>0.2</v>
-      </c>
       <c r="AJ32" s="9">
-        <f t="shared" ref="AJ32" si="358">AJ17/AJ16</f>
+        <f t="shared" ref="AJ32" si="359">AJ17/AJ16</f>
         <v>6.4516129032257979E-2</v>
       </c>
       <c r="AK32" s="9">
-        <f t="shared" ref="AK32:AL32" si="359">AK17/AK16</f>
+        <f t="shared" ref="AK32:AL32" si="360">AK17/AK16</f>
         <v>1.6567263088137864E-2</v>
       </c>
       <c r="AL32" s="9">
-        <f t="shared" si="359"/>
+        <f t="shared" si="360"/>
         <v>7.6294277929155122E-2</v>
       </c>
       <c r="AM32" s="9">
-        <f t="shared" ref="AM32:AV32" si="360">AM17/AM16</f>
+        <f t="shared" ref="AM32:AV32" si="361">AM17/AM16</f>
         <v>-2.4513947590870694E-2</v>
       </c>
       <c r="AN32" s="9">
-        <f t="shared" si="360"/>
+        <f t="shared" si="361"/>
         <v>-1.1776649746192887E-2</v>
       </c>
       <c r="AO32" s="9">
-        <f t="shared" si="360"/>
+        <f t="shared" si="361"/>
         <v>-1.459854014598541E-2</v>
       </c>
       <c r="AP32" s="9">
-        <f t="shared" si="360"/>
+        <f t="shared" si="361"/>
         <v>-7.8333333333333199E-2</v>
       </c>
       <c r="AQ32" s="9">
-        <f t="shared" si="360"/>
-        <v>0.20000000000000365</v>
+        <f t="shared" si="361"/>
+        <v>0.50248967149014201</v>
       </c>
       <c r="AR32" s="9">
-        <f t="shared" si="360"/>
-        <v>0.2</v>
-      </c>
-      <c r="AS32" s="9">
-        <f t="shared" si="360"/>
-        <v>0.2</v>
-      </c>
-      <c r="AT32" s="9">
-        <f t="shared" si="360"/>
-        <v>0.2</v>
-      </c>
-      <c r="AU32" s="9">
-        <f t="shared" si="360"/>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="AV32" s="9">
-        <f t="shared" si="360"/>
-        <v>0.2</v>
-      </c>
-      <c r="AW32" s="9">
-        <f t="shared" ref="AW32:BA32" si="361">AW17/AW16</f>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="AX32" s="9">
         <f t="shared" si="361"/>
         <v>0.2</v>
       </c>
-      <c r="AY32" s="9">
+      <c r="AS32" s="9">
         <f t="shared" si="361"/>
         <v>0.2</v>
       </c>
-      <c r="AZ32" s="9">
+      <c r="AT32" s="9">
         <f t="shared" si="361"/>
         <v>0.2</v>
       </c>
-      <c r="BA32" s="9">
+      <c r="AU32" s="9">
+        <f t="shared" si="361"/>
+        <v>0.2</v>
+      </c>
+      <c r="AV32" s="9">
         <f t="shared" si="361"/>
         <v>0.20000000000000004</v>
       </c>
+      <c r="AW32" s="9">
+        <f t="shared" ref="AW32:BA32" si="362">AW17/AW16</f>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="AX32" s="9">
+        <f t="shared" si="362"/>
+        <v>0.2</v>
+      </c>
+      <c r="AY32" s="9">
+        <f t="shared" si="362"/>
+        <v>0.2</v>
+      </c>
+      <c r="AZ32" s="9">
+        <f t="shared" si="362"/>
+        <v>0.2</v>
+      </c>
+      <c r="BA32" s="9">
+        <f t="shared" si="362"/>
+        <v>0.20000000000000004</v>
+      </c>
       <c r="BC32" s="1" t="s">
         <v>54</v>
       </c>
       <c r="BD32" s="10">
         <f>BD30/BD31-1</f>
-        <v>-0.19948232694771839</v>
+        <v>-0.2009046635940247</v>
       </c>
     </row>
     <row r="33" spans="2:56" x14ac:dyDescent="0.3">
@@ -7149,200 +7141,200 @@
         <v>-4.831625183016109E-2</v>
       </c>
       <c r="D33" s="9">
-        <f t="shared" ref="D33:AW33" si="362">D18/D5</f>
+        <f t="shared" ref="D33:AW33" si="363">D18/D5</f>
         <v>3.8265306122449343E-3</v>
       </c>
       <c r="E33" s="9">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>-5.4786620530565329E-2</v>
       </c>
       <c r="F33" s="9">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>2.466449038810296E-2</v>
       </c>
       <c r="G33" s="9">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>-4.6927914852443242E-2</v>
       </c>
       <c r="H33" s="9">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>-3.7824870051979237E-2</v>
       </c>
       <c r="I33" s="9">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>-9.4288999616711458E-2</v>
       </c>
       <c r="J33" s="9">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>-3.7937743190661365E-2</v>
       </c>
       <c r="K33" s="9">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>-0.16957605985037405</v>
       </c>
       <c r="L33" s="9">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>-0.1210334175793316</v>
       </c>
       <c r="M33" s="9">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>2.9229406554473071E-2</v>
       </c>
       <c r="N33" s="9">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>0.10363132789659947</v>
       </c>
       <c r="O33" s="9">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>0.13288052943225367</v>
       </c>
       <c r="P33" s="9">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>0.11393582390327067</v>
       </c>
       <c r="Q33" s="9">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>0.10133843212237087</v>
       </c>
       <c r="R33" s="9">
-        <f t="shared" si="362"/>
+        <f t="shared" si="363"/>
         <v>2.7389344735929688E-2</v>
       </c>
       <c r="S33" s="9">
-        <f t="shared" ref="S33:AA33" si="363">S18/S5</f>
+        <f t="shared" ref="S33:AA33" si="364">S18/S5</f>
         <v>-3.5982008995502329E-2</v>
       </c>
       <c r="T33" s="9">
+        <f t="shared" si="364"/>
+        <v>-0.14702419882276005</v>
+      </c>
+      <c r="U33" s="9">
+        <f t="shared" si="364"/>
+        <v>-0.16062516417126335</v>
+      </c>
+      <c r="V33" s="9">
+        <f t="shared" si="364"/>
+        <v>-0.27355552992734417</v>
+      </c>
+      <c r="W33" s="9">
+        <f t="shared" si="364"/>
+        <v>-0.26059379217273959</v>
+      </c>
+      <c r="X33" s="9">
+        <f t="shared" si="364"/>
+        <v>-0.12687359848931906</v>
+      </c>
+      <c r="Y33" s="9">
+        <f t="shared" si="364"/>
+        <v>-0.36195175438596489</v>
+      </c>
+      <c r="Z33" s="9">
+        <f t="shared" si="364"/>
+        <v>-7.9431183341797884E-2</v>
+      </c>
+      <c r="AA33" s="9">
+        <f t="shared" si="364"/>
+        <v>-5.7635579759473629E-2</v>
+      </c>
+      <c r="AB33" s="9">
+        <f t="shared" ref="AB33:AD33" si="365">AB18/AB5</f>
+        <v>-3.5223633922115583E-2</v>
+      </c>
+      <c r="AC33" s="9">
+        <f t="shared" si="365"/>
+        <v>-8.3788363773298988E-3</v>
+      </c>
+      <c r="AD33" s="9">
+        <f t="shared" si="365"/>
+        <v>-2.9641965029142323E-2</v>
+      </c>
+      <c r="AE33" s="9">
+        <f t="shared" ref="AE33:AH33" si="366">AE18/AE5</f>
+        <v>-2.6844322523758249E-2</v>
+      </c>
+      <c r="AF33" s="9">
+        <f t="shared" si="366"/>
+        <v>-8.6593363108554856E-3</v>
+      </c>
+      <c r="AG33" s="9">
+        <f t="shared" si="366"/>
+        <v>1.2094949218743494E-2</v>
+      </c>
+      <c r="AH33" s="9">
+        <f t="shared" si="366"/>
+        <v>1.0986035138575719E-2</v>
+      </c>
+      <c r="AJ33" s="9">
         <f t="shared" si="363"/>
-        <v>-0.14702419882276005</v>
-      </c>
-      <c r="U33" s="9">
+        <v>-1.1717171717171734E-2</v>
+      </c>
+      <c r="AK33" s="9">
         <f t="shared" si="363"/>
-        <v>-0.16062516417126335</v>
-      </c>
-      <c r="V33" s="9">
+        <v>-5.2582159624413059E-2</v>
+      </c>
+      <c r="AL33" s="9">
         <f t="shared" si="363"/>
-        <v>-0.27355552992734417</v>
-      </c>
-      <c r="W33" s="9">
+        <v>-9.53103913630232E-3</v>
+      </c>
+      <c r="AM33" s="9">
         <f t="shared" si="363"/>
-        <v>-0.26059379217273959</v>
-      </c>
-      <c r="X33" s="9">
+        <v>8.7683125339120913E-2</v>
+      </c>
+      <c r="AN33" s="9">
         <f t="shared" si="363"/>
-        <v>-0.12687359848931906</v>
-      </c>
-      <c r="Y33" s="9">
+        <v>-0.15936930309911421</v>
+      </c>
+      <c r="AO33" s="9">
         <f t="shared" si="363"/>
-        <v>-0.36195175438596489</v>
-      </c>
-      <c r="Z33" s="9">
+        <v>-0.20342630853994481</v>
+      </c>
+      <c r="AP33" s="9">
         <f t="shared" si="363"/>
-        <v>-7.9431183341797884E-2</v>
-      </c>
-      <c r="AA33" s="9">
+        <v>-3.1463515452136111E-2</v>
+      </c>
+      <c r="AQ33" s="9">
         <f t="shared" si="363"/>
-        <v>-5.7635579759473629E-2</v>
-      </c>
-      <c r="AB33" s="9">
-        <f t="shared" ref="AB33:AD33" si="364">AB18/AB5</f>
-        <v>-3.5223633922115583E-2</v>
-      </c>
-      <c r="AC33" s="9">
-        <f t="shared" si="364"/>
-        <v>-8.3788363773298988E-3</v>
-      </c>
-      <c r="AD33" s="9">
-        <f t="shared" si="364"/>
-        <v>-2.9641965029142323E-2</v>
-      </c>
-      <c r="AE33" s="9">
-        <f t="shared" ref="AE33:AH33" si="365">AE18/AE5</f>
-        <v>-1.1105417415334488E-2</v>
-      </c>
-      <c r="AF33" s="9">
-        <f t="shared" si="365"/>
-        <v>-6.8966092593830061E-3</v>
-      </c>
-      <c r="AG33" s="9">
-        <f t="shared" si="365"/>
-        <v>1.2772803658129935E-2</v>
-      </c>
-      <c r="AH33" s="9">
-        <f t="shared" si="365"/>
-        <v>1.1866392790618773E-2</v>
-      </c>
-      <c r="AJ33" s="9">
-        <f t="shared" si="362"/>
-        <v>-1.1717171717171734E-2</v>
-      </c>
-      <c r="AK33" s="9">
-        <f t="shared" si="362"/>
-        <v>-5.2582159624413059E-2</v>
-      </c>
-      <c r="AL33" s="9">
-        <f t="shared" si="362"/>
-        <v>-9.53103913630232E-3</v>
-      </c>
-      <c r="AM33" s="9">
-        <f t="shared" si="362"/>
-        <v>8.7683125339120913E-2</v>
-      </c>
-      <c r="AN33" s="9">
-        <f t="shared" si="362"/>
-        <v>-0.15936930309911421</v>
-      </c>
-      <c r="AO33" s="9">
-        <f t="shared" si="362"/>
-        <v>-0.20342630853994481</v>
-      </c>
-      <c r="AP33" s="9">
-        <f t="shared" si="362"/>
-        <v>-3.1463515452136111E-2</v>
-      </c>
-      <c r="AQ33" s="9">
-        <f t="shared" si="362"/>
-        <v>2.5981902554733558E-3</v>
+        <v>-1.7811942130843668E-3</v>
       </c>
       <c r="AR33" s="9">
-        <f t="shared" si="362"/>
-        <v>4.4388808898879459E-2</v>
+        <f t="shared" si="363"/>
+        <v>3.9005471339370629E-2</v>
       </c>
       <c r="AS33" s="9">
-        <f t="shared" si="362"/>
-        <v>6.8574179733291538E-2</v>
+        <f t="shared" si="363"/>
+        <v>6.3276339627404019E-2</v>
       </c>
       <c r="AT33" s="9">
-        <f t="shared" si="362"/>
-        <v>8.6697442169922229E-2</v>
+        <f t="shared" si="363"/>
+        <v>8.1607855676225416E-2</v>
       </c>
       <c r="AU33" s="9">
-        <f t="shared" si="362"/>
-        <v>9.1360611211544165E-2</v>
+        <f t="shared" si="363"/>
+        <v>8.6302615499836116E-2</v>
       </c>
       <c r="AV33" s="9">
-        <f t="shared" si="362"/>
-        <v>9.4259667122974178E-2</v>
+        <f t="shared" si="363"/>
+        <v>8.9204952362563456E-2</v>
       </c>
       <c r="AW33" s="9">
-        <f t="shared" si="362"/>
-        <v>9.5448769097192562E-2</v>
+        <f t="shared" si="363"/>
+        <v>9.0634997344797338E-2</v>
       </c>
       <c r="AX33" s="9">
-        <f t="shared" ref="AX33:BA33" si="366">AX18/AX5</f>
-        <v>9.6629144462250932E-2</v>
+        <f t="shared" ref="AX33:BA33" si="367">AX18/AX5</f>
+        <v>9.2056884574260367E-2</v>
       </c>
       <c r="AY33" s="9">
-        <f t="shared" si="366"/>
-        <v>9.7800907510918772E-2</v>
+        <f t="shared" si="367"/>
+        <v>9.3470676781589601E-2</v>
       </c>
       <c r="AZ33" s="9">
-        <f t="shared" si="366"/>
-        <v>9.8964171697191225E-2</v>
+        <f t="shared" si="367"/>
+        <v>9.4876437040195896E-2</v>
       </c>
       <c r="BA33" s="9">
-        <f t="shared" si="366"/>
-        <v>0.10011904964727431</v>
+        <f t="shared" si="367"/>
+        <v>9.6274228758132477E-2</v>
       </c>
       <c r="BC33" t="s">
         <v>55</v>
